--- a/filter.xlsx
+++ b/filter.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/filter.xlsx
+++ b/filter.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P381"/>
+  <dimension ref="A1:R381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,6 +501,16 @@
           <t>New barycenter distance</t>
         </is>
       </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>New v</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>New f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -531,7 +541,7 @@
         <v>1.964948</v>
       </c>
       <c r="H2" t="n">
-        <v>0.331236</v>
+        <v>0.3312359999999999</v>
       </c>
       <c r="I2" t="n">
         <v>0.5479391658960933</v>
@@ -540,7 +550,7 @@
         <v>0.999999970417357</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1685723948934851</v>
+        <v>0.168572394893485</v>
       </c>
       <c r="L2" t="n">
         <v>-0.0001604824074074995</v>
@@ -557,6 +567,12 @@
       <c r="P2" t="n">
         <v>2.813839945624654e-23</v>
       </c>
+      <c r="Q2" t="n">
+        <v>5400</v>
+      </c>
+      <c r="R2" t="n">
+        <v>10796</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -613,6 +629,12 @@
       <c r="P3" t="n">
         <v>5.597718637220698e-24</v>
       </c>
+      <c r="Q3" t="n">
+        <v>5619</v>
+      </c>
+      <c r="R3" t="n">
+        <v>11234</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -637,7 +659,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.994502</v>
+        <v>1.994501999999999</v>
       </c>
       <c r="G4" t="n">
         <v>0.402129</v>
@@ -669,6 +691,12 @@
       <c r="P4" t="n">
         <v>3.663695680032946e-23</v>
       </c>
+      <c r="Q4" t="n">
+        <v>5519</v>
+      </c>
+      <c r="R4" t="n">
+        <v>11034</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -702,7 +730,7 @@
         <v>0.490835</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8370833142609713</v>
+        <v>0.8370833142609714</v>
       </c>
       <c r="J5" t="n">
         <v>1.000000028354847</v>
@@ -725,6 +753,12 @@
       <c r="P5" t="n">
         <v>5.731381609653043e-23</v>
       </c>
+      <c r="Q5" t="n">
+        <v>6797</v>
+      </c>
+      <c r="R5" t="n">
+        <v>13590</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -764,7 +798,7 @@
         <v>1.000000032009243</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2101162214590307</v>
+        <v>0.2101162214590306</v>
       </c>
       <c r="L6" t="n">
         <v>-0.0001031505893300321</v>
@@ -781,6 +815,12 @@
       <c r="P6" t="n">
         <v>5.609636812572636e-23</v>
       </c>
+      <c r="Q6" t="n">
+        <v>6448</v>
+      </c>
+      <c r="R6" t="n">
+        <v>12892</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -837,6 +877,12 @@
       <c r="P7" t="n">
         <v>9.164605074236013e-24</v>
       </c>
+      <c r="Q7" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R7" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -893,6 +939,12 @@
       <c r="P8" t="n">
         <v>1.24081997982991e-24</v>
       </c>
+      <c r="Q8" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R8" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -923,7 +975,7 @@
         <v>1.775058</v>
       </c>
       <c r="H9" t="n">
-        <v>0.39828</v>
+        <v>0.3982800000000001</v>
       </c>
       <c r="I9" t="n">
         <v>0.7918067890677036</v>
@@ -932,7 +984,7 @@
         <v>0.9999999824895001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2243757629474181</v>
+        <v>0.2243757629474182</v>
       </c>
       <c r="L9" t="n">
         <v>-0.0002912701056779261</v>
@@ -949,6 +1001,12 @@
       <c r="P9" t="n">
         <v>1.468700146041282e-22</v>
       </c>
+      <c r="Q9" t="n">
+        <v>5583</v>
+      </c>
+      <c r="R9" t="n">
+        <v>11162</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -985,7 +1043,7 @@
         <v>0.7480767132211399</v>
       </c>
       <c r="J10" t="n">
-        <v>0.999999997026525</v>
+        <v>0.9999999970265249</v>
       </c>
       <c r="K10" t="n">
         <v>0.1989166294274076</v>
@@ -1005,6 +1063,12 @@
       <c r="P10" t="n">
         <v>8.667313960823706e-23</v>
       </c>
+      <c r="Q10" t="n">
+        <v>6701</v>
+      </c>
+      <c r="R10" t="n">
+        <v>13398</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1041,7 +1105,7 @@
         <v>0.5985963744859411</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9999999922454214</v>
+        <v>0.9999999922454212</v>
       </c>
       <c r="K11" t="n">
         <v>0.2126641316399347</v>
@@ -1061,6 +1125,12 @@
       <c r="P11" t="n">
         <v>1.336564906569828e-23</v>
       </c>
+      <c r="Q11" t="n">
+        <v>5631</v>
+      </c>
+      <c r="R11" t="n">
+        <v>11258</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1094,7 +1164,7 @@
         <v>0.436425</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8140506126276612</v>
+        <v>0.8140506126276613</v>
       </c>
       <c r="J12" t="n">
         <v>1.000000020905325</v>
@@ -1117,6 +1187,12 @@
       <c r="P12" t="n">
         <v>5.251366265775868e-23</v>
       </c>
+      <c r="Q12" t="n">
+        <v>5849</v>
+      </c>
+      <c r="R12" t="n">
+        <v>11694</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1153,7 +1229,7 @@
         <v>0.7317568964347692</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9999999949110127</v>
+        <v>0.9999999949110125</v>
       </c>
       <c r="K13" t="n">
         <v>0.1910856307293878</v>
@@ -1173,6 +1249,12 @@
       <c r="P13" t="n">
         <v>6.654828165188999e-23</v>
       </c>
+      <c r="Q13" t="n">
+        <v>5228</v>
+      </c>
+      <c r="R13" t="n">
+        <v>10452</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1229,6 +1311,12 @@
       <c r="P14" t="n">
         <v>4.550782145178743e-23</v>
       </c>
+      <c r="Q14" t="n">
+        <v>5109</v>
+      </c>
+      <c r="R14" t="n">
+        <v>10214</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1285,6 +1373,12 @@
       <c r="P15" t="n">
         <v>3.32003899471263e-23</v>
       </c>
+      <c r="Q15" t="n">
+        <v>5044</v>
+      </c>
+      <c r="R15" t="n">
+        <v>10084</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1341,6 +1435,12 @@
       <c r="P16" t="n">
         <v>4.108051988872249e-23</v>
       </c>
+      <c r="Q16" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R16" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1397,6 +1497,12 @@
       <c r="P17" t="n">
         <v>7.397574011204617e-24</v>
       </c>
+      <c r="Q17" t="n">
+        <v>5923</v>
+      </c>
+      <c r="R17" t="n">
+        <v>11842</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1453,6 +1559,12 @@
       <c r="P18" t="n">
         <v>4.671880426193189e-23</v>
       </c>
+      <c r="Q18" t="n">
+        <v>6587</v>
+      </c>
+      <c r="R18" t="n">
+        <v>13170</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1492,7 +1604,7 @@
         <v>0.9909516182694473</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3308466589614985</v>
+        <v>0.3308466589614984</v>
       </c>
       <c r="L19" t="n">
         <v>-6.089705488625968e-05</v>
@@ -1509,6 +1621,12 @@
       <c r="P19" t="n">
         <v>5.8850011648931e-24</v>
       </c>
+      <c r="Q19" t="n">
+        <v>7470</v>
+      </c>
+      <c r="R19" t="n">
+        <v>14936</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1565,6 +1683,12 @@
       <c r="P20" t="n">
         <v>6.129927852047424e-23</v>
       </c>
+      <c r="Q20" t="n">
+        <v>6689</v>
+      </c>
+      <c r="R20" t="n">
+        <v>13374</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1621,6 +1745,12 @@
       <c r="P21" t="n">
         <v>1.050043003877148e-23</v>
       </c>
+      <c r="Q21" t="n">
+        <v>7351</v>
+      </c>
+      <c r="R21" t="n">
+        <v>14698</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1677,6 +1807,12 @@
       <c r="P22" t="n">
         <v>8.010265992585714e-23</v>
       </c>
+      <c r="Q22" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R22" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1707,7 +1843,7 @@
         <v>1.823238</v>
       </c>
       <c r="H23" t="n">
-        <v>0.725729</v>
+        <v>0.7257290000000001</v>
       </c>
       <c r="I23" t="n">
         <v>0.4958348786476436</v>
@@ -1733,6 +1869,12 @@
       <c r="P23" t="n">
         <v>1.107729393157475e-23</v>
       </c>
+      <c r="Q23" t="n">
+        <v>6370</v>
+      </c>
+      <c r="R23" t="n">
+        <v>12736</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1766,13 +1908,13 @@
         <v>0.9736750000000001</v>
       </c>
       <c r="I24" t="n">
-        <v>0.620566887755743</v>
+        <v>0.6205668877557429</v>
       </c>
       <c r="J24" t="n">
         <v>1.0000000084967</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5462780149423941</v>
+        <v>0.5462780149423943</v>
       </c>
       <c r="L24" t="n">
         <v>-7.191878539582604e-05</v>
@@ -1789,6 +1931,12 @@
       <c r="P24" t="n">
         <v>4.719301274333809e-23</v>
       </c>
+      <c r="Q24" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R24" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1845,6 +1993,12 @@
       <c r="P25" t="n">
         <v>4.982420160716401e-23</v>
       </c>
+      <c r="Q25" t="n">
+        <v>6376</v>
+      </c>
+      <c r="R25" t="n">
+        <v>12748</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1878,7 +2032,7 @@
         <v>0.947641</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4952609017769868</v>
+        <v>0.4952609017769869</v>
       </c>
       <c r="J26" t="n">
         <v>1.000000016389209</v>
@@ -1901,6 +2055,12 @@
       <c r="P26" t="n">
         <v>2.622612043928739e-23</v>
       </c>
+      <c r="Q26" t="n">
+        <v>6850</v>
+      </c>
+      <c r="R26" t="n">
+        <v>13696</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1931,13 +2091,13 @@
         <v>1.749529</v>
       </c>
       <c r="H27" t="n">
-        <v>0.609625</v>
+        <v>0.6096250000000001</v>
       </c>
       <c r="I27" t="n">
         <v>0.6246681235010934</v>
       </c>
       <c r="J27" t="n">
-        <v>0.9999999976582356</v>
+        <v>0.9999999976582357</v>
       </c>
       <c r="K27" t="n">
         <v>0.3484509251189331</v>
@@ -1957,6 +2117,12 @@
       <c r="P27" t="n">
         <v>2.563811073540222e-23</v>
       </c>
+      <c r="Q27" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R27" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1987,13 +2153,13 @@
         <v>1.826308</v>
       </c>
       <c r="H28" t="n">
-        <v>0.8355410000000001</v>
+        <v>0.835541</v>
       </c>
       <c r="I28" t="n">
-        <v>0.3508526468628114</v>
+        <v>0.3508526468628115</v>
       </c>
       <c r="J28" t="n">
-        <v>0.9999999934246212</v>
+        <v>0.9999999934246213</v>
       </c>
       <c r="K28" t="n">
         <v>0.4575027840353333</v>
@@ -2013,6 +2179,12 @@
       <c r="P28" t="n">
         <v>4.27815982604067e-23</v>
       </c>
+      <c r="Q28" t="n">
+        <v>7038</v>
+      </c>
+      <c r="R28" t="n">
+        <v>14072</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2069,6 +2241,12 @@
       <c r="P29" t="n">
         <v>2.307761295795172e-23</v>
       </c>
+      <c r="Q29" t="n">
+        <v>7470</v>
+      </c>
+      <c r="R29" t="n">
+        <v>14936</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2125,6 +2303,12 @@
       <c r="P30" t="n">
         <v>2.570797580775156e-23</v>
       </c>
+      <c r="Q30" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R30" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2181,6 +2365,12 @@
       <c r="P31" t="n">
         <v>5.129563318259302e-23</v>
       </c>
+      <c r="Q31" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R31" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2211,7 +2401,7 @@
         <v>1.80551</v>
       </c>
       <c r="H32" t="n">
-        <v>0.8423339999999999</v>
+        <v>0.842334</v>
       </c>
       <c r="I32" t="n">
         <v>0.6209768833272722</v>
@@ -2237,6 +2427,12 @@
       <c r="P32" t="n">
         <v>2.627462656894049e-23</v>
       </c>
+      <c r="Q32" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R32" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2293,6 +2489,12 @@
       <c r="P33" t="n">
         <v>9.404651511636773e-24</v>
       </c>
+      <c r="Q33" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R33" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2323,10 +2525,10 @@
         <v>1.908918</v>
       </c>
       <c r="H34" t="n">
-        <v>0.574583</v>
+        <v>0.5745829999999998</v>
       </c>
       <c r="I34" t="n">
-        <v>0.502228481471589</v>
+        <v>0.5022284814715892</v>
       </c>
       <c r="J34" t="n">
         <v>0.9999999878939609</v>
@@ -2349,6 +2551,12 @@
       <c r="P34" t="n">
         <v>6.093139604390335e-24</v>
       </c>
+      <c r="Q34" t="n">
+        <v>5867</v>
+      </c>
+      <c r="R34" t="n">
+        <v>11730</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2382,13 +2590,13 @@
         <v>0.715852</v>
       </c>
       <c r="I35" t="n">
-        <v>0.8388662953038583</v>
+        <v>0.8388662953038581</v>
       </c>
       <c r="J35" t="n">
         <v>1.000000030306987</v>
       </c>
       <c r="K35" t="n">
-        <v>0.3894875502509161</v>
+        <v>0.3894875502509162</v>
       </c>
       <c r="L35" t="n">
         <v>-0.0002024143135345627</v>
@@ -2405,6 +2613,12 @@
       <c r="P35" t="n">
         <v>4.603166309628212e-23</v>
       </c>
+      <c r="Q35" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R35" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2461,6 +2675,12 @@
       <c r="P36" t="n">
         <v>1.947592595448912e-23</v>
       </c>
+      <c r="Q36" t="n">
+        <v>7236</v>
+      </c>
+      <c r="R36" t="n">
+        <v>14468</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2517,6 +2737,12 @@
       <c r="P37" t="n">
         <v>2.540847965160073e-23</v>
       </c>
+      <c r="Q37" t="n">
+        <v>7355</v>
+      </c>
+      <c r="R37" t="n">
+        <v>14706</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2573,6 +2799,12 @@
       <c r="P38" t="n">
         <v>4.816974907294789e-23</v>
       </c>
+      <c r="Q38" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R38" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2606,13 +2838,13 @@
         <v>0.396162</v>
       </c>
       <c r="I39" t="n">
-        <v>0.6143367144899734</v>
+        <v>0.6143367144899733</v>
       </c>
       <c r="J39" t="n">
         <v>1.000000019570065</v>
       </c>
       <c r="K39" t="n">
-        <v>0.2312676854743403</v>
+        <v>0.2312676854743404</v>
       </c>
       <c r="L39" t="n">
         <v>-0.0001856356067099496</v>
@@ -2629,6 +2861,12 @@
       <c r="P39" t="n">
         <v>1.910986110408323e-23</v>
       </c>
+      <c r="Q39" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R39" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2662,10 +2900,10 @@
         <v>0.8100039999999999</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4418509824302906</v>
+        <v>0.4418509824302905</v>
       </c>
       <c r="J40" t="n">
-        <v>0.9999999867957423</v>
+        <v>0.9999999867957422</v>
       </c>
       <c r="K40" t="n">
         <v>0.4270121209189564</v>
@@ -2685,6 +2923,12 @@
       <c r="P40" t="n">
         <v>1.37362295923053e-23</v>
       </c>
+      <c r="Q40" t="n">
+        <v>6154</v>
+      </c>
+      <c r="R40" t="n">
+        <v>12304</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2715,7 +2959,7 @@
         <v>1.75245</v>
       </c>
       <c r="H41" t="n">
-        <v>0.764711</v>
+        <v>0.7647110000000001</v>
       </c>
       <c r="I41" t="n">
         <v>0.719622247531396</v>
@@ -2724,7 +2968,7 @@
         <v>1.000000006094983</v>
       </c>
       <c r="K41" t="n">
-        <v>0.4363668034242919</v>
+        <v>0.436366803424292</v>
       </c>
       <c r="L41" t="n">
         <v>-6.834384537132009e-05</v>
@@ -2741,6 +2985,12 @@
       <c r="P41" t="n">
         <v>1.959204771570923e-23</v>
       </c>
+      <c r="Q41" t="n">
+        <v>6881</v>
+      </c>
+      <c r="R41" t="n">
+        <v>13758</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2797,6 +3047,12 @@
       <c r="P42" t="n">
         <v>3.627017860869076e-21</v>
       </c>
+      <c r="Q42" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R42" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2853,6 +3109,12 @@
       <c r="P43" t="n">
         <v>3.460856818504359e-21</v>
       </c>
+      <c r="Q43" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R43" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2892,7 +3154,7 @@
         <v>1.000000011821637</v>
       </c>
       <c r="K44" t="n">
-        <v>0.4969840713506459</v>
+        <v>0.496984071350646</v>
       </c>
       <c r="L44" t="n">
         <v>-0.0001475931628818776</v>
@@ -2909,6 +3171,12 @@
       <c r="P44" t="n">
         <v>1.318598586850335e-20</v>
       </c>
+      <c r="Q44" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R44" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2942,10 +3210,10 @@
         <v>1.397401</v>
       </c>
       <c r="I45" t="n">
-        <v>0.8045043179051334</v>
+        <v>0.8045043179051333</v>
       </c>
       <c r="J45" t="n">
-        <v>0.9999999983777985</v>
+        <v>0.9999999983777984</v>
       </c>
       <c r="K45" t="n">
         <v>0.9709891642669668</v>
@@ -2965,6 +3233,12 @@
       <c r="P45" t="n">
         <v>9.005860310625056e-26</v>
       </c>
+      <c r="Q45" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R45" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3004,7 +3278,7 @@
         <v>0.99999999631425</v>
       </c>
       <c r="K46" t="n">
-        <v>0.922444282233302</v>
+        <v>0.9224442822333021</v>
       </c>
       <c r="L46" t="n">
         <v>-0.0008373565673004728</v>
@@ -3021,6 +3295,12 @@
       <c r="P46" t="n">
         <v>4.139512821964267e-22</v>
       </c>
+      <c r="Q46" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R46" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3077,6 +3357,12 @@
       <c r="P47" t="n">
         <v>2.957472647293115e-21</v>
       </c>
+      <c r="Q47" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R47" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3133,6 +3419,12 @@
       <c r="P48" t="n">
         <v>2.92691700357733e-24</v>
       </c>
+      <c r="Q48" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R48" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3172,7 +3464,7 @@
         <v>0.9999999809891811</v>
       </c>
       <c r="K49" t="n">
-        <v>0.9542906411381128</v>
+        <v>0.9542906411381129</v>
       </c>
       <c r="L49" t="n">
         <v>0.005512782899999941</v>
@@ -3189,6 +3481,12 @@
       <c r="P49" t="n">
         <v>2.181393352137164e-20</v>
       </c>
+      <c r="Q49" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R49" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3245,6 +3543,12 @@
       <c r="P50" t="n">
         <v>9.14614385513601e-22</v>
       </c>
+      <c r="Q50" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R50" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3301,6 +3605,12 @@
       <c r="P51" t="n">
         <v>8.266354514599707e-25</v>
       </c>
+      <c r="Q51" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R51" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3331,16 +3641,16 @@
         <v>1.887247</v>
       </c>
       <c r="H52" t="n">
-        <v>0.90602</v>
+        <v>0.9060199999999998</v>
       </c>
       <c r="I52" t="n">
-        <v>0.4952605656067146</v>
+        <v>0.4952605656067145</v>
       </c>
       <c r="J52" t="n">
         <v>1.000000017823847</v>
       </c>
       <c r="K52" t="n">
-        <v>0.4800749537017474</v>
+        <v>0.4800749537017473</v>
       </c>
       <c r="L52" t="n">
         <v>0.002114541661588466</v>
@@ -3357,6 +3667,12 @@
       <c r="P52" t="n">
         <v>1.35532914467153e-19</v>
       </c>
+      <c r="Q52" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R52" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3413,6 +3729,12 @@
       <c r="P53" t="n">
         <v>4.758261292985495e-22</v>
       </c>
+      <c r="Q53" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R53" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3443,7 +3765,7 @@
         <v>1.627</v>
       </c>
       <c r="H54" t="n">
-        <v>0.981799</v>
+        <v>0.9817989999999999</v>
       </c>
       <c r="I54" t="n">
         <v>0.5246330752974095</v>
@@ -3452,7 +3774,7 @@
         <v>1.000000015826187</v>
       </c>
       <c r="K54" t="n">
-        <v>0.6034413125618531</v>
+        <v>0.603441312561853</v>
       </c>
       <c r="L54" t="n">
         <v>0.0004535073333333232</v>
@@ -3469,6 +3791,12 @@
       <c r="P54" t="n">
         <v>4.064745183594737e-19</v>
       </c>
+      <c r="Q54" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R54" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3502,7 +3830,7 @@
         <v>0.919986</v>
       </c>
       <c r="I55" t="n">
-        <v>0.3730018678325133</v>
+        <v>0.3730018678325132</v>
       </c>
       <c r="J55" t="n">
         <v>1.000000027011784</v>
@@ -3525,6 +3853,12 @@
       <c r="P55" t="n">
         <v>1.729449103085547e-21</v>
       </c>
+      <c r="Q55" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R55" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3564,7 +3898,7 @@
         <v>1.000000017306455</v>
       </c>
       <c r="K56" t="n">
-        <v>0.8061437766586189</v>
+        <v>0.8061437766586188</v>
       </c>
       <c r="L56" t="n">
         <v>3.291263408825395e-05</v>
@@ -3581,6 +3915,12 @@
       <c r="P56" t="n">
         <v>4.164558024206593e-22</v>
       </c>
+      <c r="Q56" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R56" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3605,7 +3945,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0.8763099999999999</v>
+        <v>0.87631</v>
       </c>
       <c r="G57" t="n">
         <v>1.596906</v>
@@ -3637,6 +3977,12 @@
       <c r="P57" t="n">
         <v>2.536005808067766e-22</v>
       </c>
+      <c r="Q57" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R57" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3693,6 +4039,12 @@
       <c r="P58" t="n">
         <v>3.446983480224728e-21</v>
       </c>
+      <c r="Q58" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R58" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3749,6 +4101,12 @@
       <c r="P59" t="n">
         <v>1.096969111564036e-20</v>
       </c>
+      <c r="Q59" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R59" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3782,7 +4140,7 @@
         <v>1.412378</v>
       </c>
       <c r="I60" t="n">
-        <v>0.9934750405378758</v>
+        <v>0.9934750405378756</v>
       </c>
       <c r="J60" t="n">
         <v>0.9999999862652478</v>
@@ -3805,6 +4163,12 @@
       <c r="P60" t="n">
         <v>9.202663082468442e-22</v>
       </c>
+      <c r="Q60" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R60" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3861,6 +4225,12 @@
       <c r="P61" t="n">
         <v>8.692785978019061e-23</v>
       </c>
+      <c r="Q61" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R61" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3900,7 +4270,7 @@
         <v>0.3003414502025051</v>
       </c>
       <c r="K62" t="n">
-        <v>0.9999999866848817</v>
+        <v>0.9999999866848818</v>
       </c>
       <c r="L62" t="n">
         <v>-0.001620295850871914</v>
@@ -3917,6 +4287,12 @@
       <c r="P62" t="n">
         <v>3.296600000416442e-17</v>
       </c>
+      <c r="Q62" t="n">
+        <v>5566</v>
+      </c>
+      <c r="R62" t="n">
+        <v>11128</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3941,10 +4317,10 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0.57418</v>
+        <v>0.5741799999999999</v>
       </c>
       <c r="G63" t="n">
-        <v>0.573209</v>
+        <v>0.5732089999999999</v>
       </c>
       <c r="H63" t="n">
         <v>1.908526</v>
@@ -3973,6 +4349,12 @@
       <c r="P63" t="n">
         <v>9.092354552227042e-22</v>
       </c>
+      <c r="Q63" t="n">
+        <v>5566</v>
+      </c>
+      <c r="R63" t="n">
+        <v>11128</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4006,7 +4388,7 @@
         <v>1.838474</v>
       </c>
       <c r="I64" t="n">
-        <v>0.3008495031156956</v>
+        <v>0.3008495031156957</v>
       </c>
       <c r="J64" t="n">
         <v>0.3003409291668304</v>
@@ -4029,6 +4411,12 @@
       <c r="P64" t="n">
         <v>2.131189966860261e-22</v>
       </c>
+      <c r="Q64" t="n">
+        <v>5566</v>
+      </c>
+      <c r="R64" t="n">
+        <v>11128</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4062,7 +4450,7 @@
         <v>0.52214</v>
       </c>
       <c r="I65" t="n">
-        <v>0.4297975979606678</v>
+        <v>0.4297975979606679</v>
       </c>
       <c r="J65" t="n">
         <v>1.000000017241514</v>
@@ -4085,6 +4473,12 @@
       <c r="P65" t="n">
         <v>9.616766950291156e-17</v>
       </c>
+      <c r="Q65" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R65" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4109,7 +4503,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0.533141</v>
+        <v>0.5331410000000001</v>
       </c>
       <c r="G66" t="n">
         <v>1.22083</v>
@@ -4141,6 +4535,12 @@
       <c r="P66" t="n">
         <v>1.179580098798643e-17</v>
       </c>
+      <c r="Q66" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R66" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4197,6 +4597,12 @@
       <c r="P67" t="n">
         <v>1.195699119073596e-18</v>
       </c>
+      <c r="Q67" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R67" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4230,13 +4636,13 @@
         <v>1.822957</v>
       </c>
       <c r="I68" t="n">
-        <v>0.3729868480158869</v>
+        <v>0.372986848015887</v>
       </c>
       <c r="J68" t="n">
         <v>0.3752836657195964</v>
       </c>
       <c r="K68" t="n">
-        <v>0.9999999786723472</v>
+        <v>0.9999999786723475</v>
       </c>
       <c r="L68" t="n">
         <v>-0.0003080945482272335</v>
@@ -4253,6 +4659,12 @@
       <c r="P68" t="n">
         <v>5.661113566294053e-18</v>
       </c>
+      <c r="Q68" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R68" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4309,6 +4721,12 @@
       <c r="P69" t="n">
         <v>5.935827873617453e-16</v>
       </c>
+      <c r="Q69" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R69" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4339,7 +4757,7 @@
         <v>1.754619</v>
       </c>
       <c r="H70" t="n">
-        <v>0.269886</v>
+        <v>0.2698859999999999</v>
       </c>
       <c r="I70" t="n">
         <v>0.153814588602843</v>
@@ -4348,7 +4766,7 @@
         <v>0.9999999986651096</v>
       </c>
       <c r="K70" t="n">
-        <v>0.153814588602843</v>
+        <v>0.1538145886028429</v>
       </c>
       <c r="L70" t="n">
         <v>-0.01189076518691587</v>
@@ -4365,6 +4783,12 @@
       <c r="P70" t="n">
         <v>5.047467885645889e-17</v>
       </c>
+      <c r="Q70" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R70" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4421,6 +4845,12 @@
       <c r="P71" t="n">
         <v>1.076332901946204e-23</v>
       </c>
+      <c r="Q71" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R71" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4477,6 +4907,12 @@
       <c r="P72" t="n">
         <v>5.746640166755892e-23</v>
       </c>
+      <c r="Q72" t="n">
+        <v>5192</v>
+      </c>
+      <c r="R72" t="n">
+        <v>10380</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4533,6 +4969,12 @@
       <c r="P73" t="n">
         <v>1.419485813210806e-23</v>
       </c>
+      <c r="Q73" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R73" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4560,7 +5002,7 @@
         <v>1.825364</v>
       </c>
       <c r="G74" t="n">
-        <v>0.382381</v>
+        <v>0.3823810000000001</v>
       </c>
       <c r="H74" t="n">
         <v>0.382381</v>
@@ -4572,7 +5014,7 @@
         <v>0.2094820547196715</v>
       </c>
       <c r="K74" t="n">
-        <v>0.2094820547196715</v>
+        <v>0.2094820547196714</v>
       </c>
       <c r="L74" t="n">
         <v>0.1388309821428576</v>
@@ -4589,6 +5031,12 @@
       <c r="P74" t="n">
         <v>5.54249107586194e-17</v>
       </c>
+      <c r="Q74" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R74" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4628,7 +5076,7 @@
         <v>1.000000024505416</v>
       </c>
       <c r="K75" t="n">
-        <v>0.283207778061746</v>
+        <v>0.2832077780617459</v>
       </c>
       <c r="L75" t="n">
         <v>-0.002372269072164953</v>
@@ -4645,6 +5093,12 @@
       <c r="P75" t="n">
         <v>2.347881389839035e-17</v>
       </c>
+      <c r="Q75" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R75" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4675,16 +5129,16 @@
         <v>1.989061</v>
       </c>
       <c r="H76" t="n">
-        <v>0.248632</v>
+        <v>0.2486319999999999</v>
       </c>
       <c r="I76" t="n">
-        <v>0.1249996859093966</v>
+        <v>0.1249996859093967</v>
       </c>
       <c r="J76" t="n">
         <v>1.000000001024126</v>
       </c>
       <c r="K76" t="n">
-        <v>0.1249996859093967</v>
+        <v>0.1249996859093966</v>
       </c>
       <c r="L76" t="n">
         <v>-7.537414965991376e-06</v>
@@ -4701,6 +5155,12 @@
       <c r="P76" t="n">
         <v>1.115904255931289e-22</v>
       </c>
+      <c r="Q76" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R76" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4757,6 +5217,12 @@
       <c r="P77" t="n">
         <v>4.784357529700121e-22</v>
       </c>
+      <c r="Q77" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R77" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4787,13 +5253,13 @@
         <v>0.130235</v>
       </c>
       <c r="H78" t="n">
-        <v>0.268268</v>
+        <v>0.2682679999999999</v>
       </c>
       <c r="I78" t="n">
-        <v>0.9999999978773517</v>
+        <v>0.9999999978773516</v>
       </c>
       <c r="J78" t="n">
-        <v>0.06612034716726435</v>
+        <v>0.06612034716726434</v>
       </c>
       <c r="K78" t="n">
         <v>0.136199741189908</v>
@@ -4813,6 +5279,12 @@
       <c r="P78" t="n">
         <v>2.146713139094371e-24</v>
       </c>
+      <c r="Q78" t="n">
+        <v>4990</v>
+      </c>
+      <c r="R78" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4849,7 +5321,7 @@
         <v>0.7621995395765759</v>
       </c>
       <c r="J79" t="n">
-        <v>0.9999999696513314</v>
+        <v>0.9999999696513315</v>
       </c>
       <c r="K79" t="n">
         <v>0.7621995395765759</v>
@@ -4869,6 +5341,12 @@
       <c r="P79" t="n">
         <v>1.446839424872268e-22</v>
       </c>
+      <c r="Q79" t="n">
+        <v>4994</v>
+      </c>
+      <c r="R79" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4893,7 +5371,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.9522219999999999</v>
+        <v>0.952222</v>
       </c>
       <c r="G80" t="n">
         <v>1.249321</v>
@@ -4925,6 +5403,12 @@
       <c r="P80" t="n">
         <v>3.433773996969384e-22</v>
       </c>
+      <c r="Q80" t="n">
+        <v>4994</v>
+      </c>
+      <c r="R80" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4981,6 +5465,12 @@
       <c r="P81" t="n">
         <v>6.532104546217492e-16</v>
       </c>
+      <c r="Q81" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R81" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5008,7 +5498,7 @@
         <v>1.390134</v>
       </c>
       <c r="G82" t="n">
-        <v>0.286369</v>
+        <v>0.2863690000000001</v>
       </c>
       <c r="H82" t="n">
         <v>1.987865</v>
@@ -5037,6 +5527,12 @@
       <c r="P82" t="n">
         <v>2.735874655222247e-22</v>
       </c>
+      <c r="Q82" t="n">
+        <v>6335</v>
+      </c>
+      <c r="R82" t="n">
+        <v>12666</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5064,7 +5560,7 @@
         <v>1.817851</v>
       </c>
       <c r="G83" t="n">
-        <v>0.802944</v>
+        <v>0.8029440000000001</v>
       </c>
       <c r="H83" t="n">
         <v>1.298609</v>
@@ -5093,6 +5589,12 @@
       <c r="P83" t="n">
         <v>3.61352779578613e-23</v>
       </c>
+      <c r="Q83" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R83" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5123,7 +5625,7 @@
         <v>0.511655</v>
       </c>
       <c r="H84" t="n">
-        <v>0.563784</v>
+        <v>0.5637839999999998</v>
       </c>
       <c r="I84" t="n">
         <v>1.000000026324762</v>
@@ -5149,6 +5651,12 @@
       <c r="P84" t="n">
         <v>2.338587450785451e-22</v>
       </c>
+      <c r="Q84" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R84" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5182,13 +5690,13 @@
         <v>0.922156</v>
       </c>
       <c r="I85" t="n">
-        <v>0.9999999732662712</v>
+        <v>0.9999999732662713</v>
       </c>
       <c r="J85" t="n">
         <v>0.1417223608838871</v>
       </c>
       <c r="K85" t="n">
-        <v>0.4687762309381319</v>
+        <v>0.4687762309381318</v>
       </c>
       <c r="L85" t="n">
         <v>-0.0002694072428349325</v>
@@ -5205,6 +5713,12 @@
       <c r="P85" t="n">
         <v>1.297862357072143e-22</v>
       </c>
+      <c r="Q85" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R85" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5238,13 +5752,13 @@
         <v>1.256492</v>
       </c>
       <c r="I86" t="n">
-        <v>0.9999999930903523</v>
+        <v>0.9999999930903521</v>
       </c>
       <c r="J86" t="n">
         <v>0.4255049418388059</v>
       </c>
       <c r="K86" t="n">
-        <v>0.6921875089894509</v>
+        <v>0.6921875089894508</v>
       </c>
       <c r="L86" t="n">
         <v>-0.0001596863320463317</v>
@@ -5261,6 +5775,12 @@
       <c r="P86" t="n">
         <v>1.002506975974038e-23</v>
       </c>
+      <c r="Q86" t="n">
+        <v>6475</v>
+      </c>
+      <c r="R86" t="n">
+        <v>12946</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5317,6 +5837,12 @@
       <c r="P87" t="n">
         <v>1.239833480914889e-22</v>
       </c>
+      <c r="Q87" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R87" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5344,7 +5870,7 @@
         <v>1.851748</v>
       </c>
       <c r="G88" t="n">
-        <v>0.728487</v>
+        <v>0.7284870000000001</v>
       </c>
       <c r="H88" t="n">
         <v>1.005123</v>
@@ -5373,6 +5899,12 @@
       <c r="P88" t="n">
         <v>4.202086349216267e-23</v>
       </c>
+      <c r="Q88" t="n">
+        <v>5519</v>
+      </c>
+      <c r="R88" t="n">
+        <v>11034</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5412,7 +5944,7 @@
         <v>0.8206498445521904</v>
       </c>
       <c r="K89" t="n">
-        <v>0.8538504594588922</v>
+        <v>0.8538504594588923</v>
       </c>
       <c r="L89" t="n">
         <v>-7.906463104325721e-05</v>
@@ -5429,6 +5961,12 @@
       <c r="P89" t="n">
         <v>2.268757455508482e-24</v>
       </c>
+      <c r="Q89" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R89" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5459,7 +5997,7 @@
         <v>0.393377</v>
       </c>
       <c r="H90" t="n">
-        <v>0.961538</v>
+        <v>0.9615380000000001</v>
       </c>
       <c r="I90" t="n">
         <v>1.000000011176389</v>
@@ -5468,7 +6006,7 @@
         <v>0.200299807579013</v>
       </c>
       <c r="K90" t="n">
-        <v>0.4895961796950736</v>
+        <v>0.4895961796950737</v>
       </c>
       <c r="L90" t="n">
         <v>-0.0003326631663974339</v>
@@ -5485,6 +6023,12 @@
       <c r="P90" t="n">
         <v>1.516340204740165e-22</v>
       </c>
+      <c r="Q90" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R90" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5541,6 +6085,12 @@
       <c r="P91" t="n">
         <v>2.605722185108173e-22</v>
       </c>
+      <c r="Q91" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R91" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5571,7 +6121,7 @@
         <v>0.511655</v>
       </c>
       <c r="H92" t="n">
-        <v>0.563784</v>
+        <v>0.5637839999999998</v>
       </c>
       <c r="I92" t="n">
         <v>1.000000026324762</v>
@@ -5597,6 +6147,12 @@
       <c r="P92" t="n">
         <v>2.338587450785451e-22</v>
       </c>
+      <c r="Q92" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R92" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5630,13 +6186,13 @@
         <v>1.066309</v>
       </c>
       <c r="I93" t="n">
-        <v>0.9999999938884775</v>
+        <v>0.9999999938884776</v>
       </c>
       <c r="J93" t="n">
         <v>0.4435072925410167</v>
       </c>
       <c r="K93" t="n">
-        <v>0.614066333049556</v>
+        <v>0.6140663330495559</v>
       </c>
       <c r="L93" t="n">
         <v>-0.0001700985671547782</v>
@@ -5653,6 +6209,12 @@
       <c r="P93" t="n">
         <v>7.985084183471004e-23</v>
       </c>
+      <c r="Q93" t="n">
+        <v>6351</v>
+      </c>
+      <c r="R93" t="n">
+        <v>12698</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5680,7 +6242,7 @@
         <v>1.833585</v>
       </c>
       <c r="G94" t="n">
-        <v>0.491819</v>
+        <v>0.4918189999999999</v>
       </c>
       <c r="H94" t="n">
         <v>1.589853</v>
@@ -5709,6 +6271,12 @@
       <c r="P94" t="n">
         <v>1.900903164562325e-23</v>
       </c>
+      <c r="Q94" t="n">
+        <v>6164</v>
+      </c>
+      <c r="R94" t="n">
+        <v>12324</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5745,7 +6313,7 @@
         <v>0.1051667222180922</v>
       </c>
       <c r="J95" t="n">
-        <v>0.9999999737023206</v>
+        <v>0.9999999737023207</v>
       </c>
       <c r="K95" t="n">
         <v>0.4772693651740761</v>
@@ -5765,6 +6333,12 @@
       <c r="P95" t="n">
         <v>1.659035101385407e-22</v>
       </c>
+      <c r="Q95" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R95" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5821,6 +6395,12 @@
       <c r="P96" t="n">
         <v>5.428748849481166e-23</v>
       </c>
+      <c r="Q96" t="n">
+        <v>5054</v>
+      </c>
+      <c r="R96" t="n">
+        <v>10104</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5877,6 +6457,12 @@
       <c r="P97" t="n">
         <v>3.624239500636809e-22</v>
       </c>
+      <c r="Q97" t="n">
+        <v>5970</v>
+      </c>
+      <c r="R97" t="n">
+        <v>11936</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5933,6 +6519,12 @@
       <c r="P98" t="n">
         <v>1.532121559802146e-20</v>
       </c>
+      <c r="Q98" t="n">
+        <v>6627</v>
+      </c>
+      <c r="R98" t="n">
+        <v>13250</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5989,6 +6581,12 @@
       <c r="P99" t="n">
         <v>8.279024208676639e-21</v>
       </c>
+      <c r="Q99" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R99" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -6045,6 +6643,12 @@
       <c r="P100" t="n">
         <v>7.045265492837496e-24</v>
       </c>
+      <c r="Q100" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R100" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -6084,7 +6688,7 @@
         <v>0.8395178765117387</v>
       </c>
       <c r="K101" t="n">
-        <v>0.9999999877080803</v>
+        <v>0.9999999877080802</v>
       </c>
       <c r="L101" t="n">
         <v>-0.0004260084100922185</v>
@@ -6101,6 +6705,12 @@
       <c r="P101" t="n">
         <v>1.574024675677079e-21</v>
       </c>
+      <c r="Q101" t="n">
+        <v>7475</v>
+      </c>
+      <c r="R101" t="n">
+        <v>14946</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -6157,6 +6767,12 @@
       <c r="P102" t="n">
         <v>9.877477794355986e-24</v>
       </c>
+      <c r="Q102" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R102" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -6193,10 +6809,10 @@
         <v>0.8038862115364445</v>
       </c>
       <c r="J103" t="n">
-        <v>0.9999999995933161</v>
+        <v>0.999999999593316</v>
       </c>
       <c r="K103" t="n">
-        <v>0.5761523164356122</v>
+        <v>0.5761523164356123</v>
       </c>
       <c r="L103" t="n">
         <v>-8.010746268738063e-07</v>
@@ -6213,6 +6829,12 @@
       <c r="P103" t="n">
         <v>1.808151852453711e-25</v>
       </c>
+      <c r="Q103" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R103" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -6246,7 +6868,7 @@
         <v>0.9713480000000001</v>
       </c>
       <c r="I104" t="n">
-        <v>0.8661590454876702</v>
+        <v>0.8661590454876701</v>
       </c>
       <c r="J104" t="n">
         <v>1.000000001099404</v>
@@ -6269,6 +6891,12 @@
       <c r="P104" t="n">
         <v>4.781210619227219e-25</v>
       </c>
+      <c r="Q104" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R104" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -6299,7 +6927,7 @@
         <v>1.038809</v>
       </c>
       <c r="H105" t="n">
-        <v>0.769795</v>
+        <v>0.7697950000000001</v>
       </c>
       <c r="I105" t="n">
         <v>1.000000026587698</v>
@@ -6308,7 +6936,7 @@
         <v>0.5373531848915167</v>
       </c>
       <c r="K105" t="n">
-        <v>0.3981981239703979</v>
+        <v>0.398198123970398</v>
       </c>
       <c r="L105" t="n">
         <v>-2.504005183169377e-05</v>
@@ -6325,6 +6953,12 @@
       <c r="P105" t="n">
         <v>1.01101690886466e-25</v>
       </c>
+      <c r="Q105" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R105" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -6381,6 +7015,12 @@
       <c r="P106" t="n">
         <v>6.30862102535649e-22</v>
       </c>
+      <c r="Q106" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R106" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -6437,6 +7077,12 @@
       <c r="P107" t="n">
         <v>9.514229976691525e-22</v>
       </c>
+      <c r="Q107" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R107" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -6470,7 +7116,7 @@
         <v>1.704689</v>
       </c>
       <c r="I108" t="n">
-        <v>0.9999999675914993</v>
+        <v>0.9999999675914995</v>
       </c>
       <c r="J108" t="n">
         <v>0.9172311788567131</v>
@@ -6493,6 +7139,12 @@
       <c r="P108" t="n">
         <v>1.619457392355102e-21</v>
       </c>
+      <c r="Q108" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R108" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6549,6 +7201,12 @@
       <c r="P109" t="n">
         <v>6.005787045631964e-21</v>
       </c>
+      <c r="Q109" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R109" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -6585,7 +7243,7 @@
         <v>0.8045733617960649</v>
       </c>
       <c r="J110" t="n">
-        <v>0.815041315574256</v>
+        <v>0.8150413155742559</v>
       </c>
       <c r="K110" t="n">
         <v>0.999999967874846</v>
@@ -6605,6 +7263,12 @@
       <c r="P110" t="n">
         <v>1.210500601904983e-22</v>
       </c>
+      <c r="Q110" t="n">
+        <v>5197</v>
+      </c>
+      <c r="R110" t="n">
+        <v>10390</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -6661,6 +7325,12 @@
       <c r="P111" t="n">
         <v>2.498774074062902e-23</v>
       </c>
+      <c r="Q111" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R111" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -6697,7 +7367,7 @@
         <v>0.6087056431766598</v>
       </c>
       <c r="J112" t="n">
-        <v>1.00000002949255</v>
+        <v>1.000000029492551</v>
       </c>
       <c r="K112" t="n">
         <v>0.7346246469506361</v>
@@ -6717,6 +7387,12 @@
       <c r="P112" t="n">
         <v>6.171595542506221e-23</v>
       </c>
+      <c r="Q112" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R112" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -6773,6 +7449,12 @@
       <c r="P113" t="n">
         <v>2.21087015052202e-22</v>
       </c>
+      <c r="Q113" t="n">
+        <v>5004</v>
+      </c>
+      <c r="R113" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -6809,7 +7491,7 @@
         <v>0.7965790285662594</v>
       </c>
       <c r="J114" t="n">
-        <v>0.9999999816208012</v>
+        <v>0.9999999816208013</v>
       </c>
       <c r="K114" t="n">
         <v>0.8031892960913527</v>
@@ -6829,6 +7511,12 @@
       <c r="P114" t="n">
         <v>9.810906358071225e-22</v>
       </c>
+      <c r="Q114" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R114" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -6859,16 +7547,16 @@
         <v>1.571086</v>
       </c>
       <c r="H115" t="n">
-        <v>0.810265</v>
+        <v>0.8102650000000001</v>
       </c>
       <c r="I115" t="n">
-        <v>0.9340704163590803</v>
+        <v>0.9340704163590802</v>
       </c>
       <c r="J115" t="n">
-        <v>0.9999999687605303</v>
+        <v>0.9999999687605302</v>
       </c>
       <c r="K115" t="n">
-        <v>0.5157355960703304</v>
+        <v>0.5157355960703305</v>
       </c>
       <c r="L115" t="n">
         <v>-5.091084465150464e-06</v>
@@ -6885,6 +7573,12 @@
       <c r="P115" t="n">
         <v>2.985155876422722e-23</v>
       </c>
+      <c r="Q115" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R115" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -6941,6 +7635,12 @@
       <c r="P116" t="n">
         <v>1.848775484347355e-23</v>
       </c>
+      <c r="Q116" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R116" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -6974,13 +7674,13 @@
         <v>1.40262</v>
       </c>
       <c r="I117" t="n">
-        <v>0.7221014442137154</v>
+        <v>0.7221014442137152</v>
       </c>
       <c r="J117" t="n">
         <v>0.9999999846217007</v>
       </c>
       <c r="K117" t="n">
-        <v>0.8664453811941467</v>
+        <v>0.8664453811941466</v>
       </c>
       <c r="L117" t="n">
         <v>1.990921136952662e-05</v>
@@ -6997,6 +7697,12 @@
       <c r="P117" t="n">
         <v>2.410357754500679e-23</v>
       </c>
+      <c r="Q117" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R117" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -7053,6 +7759,12 @@
       <c r="P118" t="n">
         <v>8.291812859495061e-25</v>
       </c>
+      <c r="Q118" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R118" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -7089,7 +7801,7 @@
         <v>0.7045212852671373</v>
       </c>
       <c r="J119" t="n">
-        <v>0.9696623647761885</v>
+        <v>0.9696623647761886</v>
       </c>
       <c r="K119" t="n">
         <v>1.000000031734816</v>
@@ -7109,6 +7821,12 @@
       <c r="P119" t="n">
         <v>1.380178310362168e-23</v>
       </c>
+      <c r="Q119" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R119" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -7165,6 +7883,12 @@
       <c r="P120" t="n">
         <v>2.281140548252207e-24</v>
       </c>
+      <c r="Q120" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R120" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -7221,6 +7945,12 @@
       <c r="P121" t="n">
         <v>2.444814907352922e-23</v>
       </c>
+      <c r="Q121" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R121" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -7251,7 +7981,7 @@
         <v>1.649396</v>
       </c>
       <c r="H122" t="n">
-        <v>0.7633430000000001</v>
+        <v>0.763343</v>
       </c>
       <c r="I122" t="n">
         <v>0.4857062996616974</v>
@@ -7260,7 +7990,7 @@
         <v>1.000000034747273</v>
       </c>
       <c r="K122" t="n">
-        <v>0.4628015507034623</v>
+        <v>0.4628015507034622</v>
       </c>
       <c r="L122" t="n">
         <v>-0.0001684804094599327</v>
@@ -7277,6 +8007,12 @@
       <c r="P122" t="n">
         <v>4.261414636086989e-23</v>
       </c>
+      <c r="Q122" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R122" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -7333,6 +8069,12 @@
       <c r="P123" t="n">
         <v>4.204400521856266e-24</v>
       </c>
+      <c r="Q123" t="n">
+        <v>4996</v>
+      </c>
+      <c r="R123" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -7389,6 +8131,12 @@
       <c r="P124" t="n">
         <v>1.44028266082732e-23</v>
       </c>
+      <c r="Q124" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R124" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -7416,7 +8164,7 @@
         <v>0.682215</v>
       </c>
       <c r="G125" t="n">
-        <v>0.664191</v>
+        <v>0.6641910000000001</v>
       </c>
       <c r="H125" t="n">
         <v>1.70957</v>
@@ -7428,7 +8176,7 @@
         <v>0.3885134744299753</v>
       </c>
       <c r="K125" t="n">
-        <v>0.9999999706127497</v>
+        <v>0.9999999706127496</v>
       </c>
       <c r="L125" t="n">
         <v>-8.881463076392004e-05</v>
@@ -7445,6 +8193,12 @@
       <c r="P125" t="n">
         <v>6.803648027514335e-25</v>
       </c>
+      <c r="Q125" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R125" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -7501,6 +8255,12 @@
       <c r="P126" t="n">
         <v>2.320683509842942e-23</v>
       </c>
+      <c r="Q126" t="n">
+        <v>4996</v>
+      </c>
+      <c r="R126" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -7537,7 +8297,7 @@
         <v>0.6832022199272507</v>
       </c>
       <c r="J127" t="n">
-        <v>0.612995285031494</v>
+        <v>0.6129952850314941</v>
       </c>
       <c r="K127" t="n">
         <v>0.9999999831267187</v>
@@ -7557,6 +8317,12 @@
       <c r="P127" t="n">
         <v>3.409789168001785e-24</v>
       </c>
+      <c r="Q127" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R127" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -7590,7 +8356,7 @@
         <v>1.106313</v>
       </c>
       <c r="I128" t="n">
-        <v>0.6075278299150355</v>
+        <v>0.6075278299150354</v>
       </c>
       <c r="J128" t="n">
         <v>1.00000002464582</v>
@@ -7613,6 +8379,12 @@
       <c r="P128" t="n">
         <v>3.889497080285541e-24</v>
       </c>
+      <c r="Q128" t="n">
+        <v>4994</v>
+      </c>
+      <c r="R128" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -7652,7 +8424,7 @@
         <v>1.000000002608881</v>
       </c>
       <c r="K129" t="n">
-        <v>0.6101167134781716</v>
+        <v>0.6101167134781718</v>
       </c>
       <c r="L129" t="n">
         <v>-0.0001013035238096788</v>
@@ -7669,6 +8441,12 @@
       <c r="P129" t="n">
         <v>9.832920282301307e-24</v>
       </c>
+      <c r="Q129" t="n">
+        <v>4996</v>
+      </c>
+      <c r="R129" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -7702,13 +8480,13 @@
         <v>0.8758550000000001</v>
       </c>
       <c r="I130" t="n">
-        <v>0.6166715457085786</v>
+        <v>0.6166715457085785</v>
       </c>
       <c r="J130" t="n">
-        <v>0.9999999757411071</v>
+        <v>0.9999999757411072</v>
       </c>
       <c r="K130" t="n">
-        <v>0.6303581968430289</v>
+        <v>0.630358196843029</v>
       </c>
       <c r="L130" t="n">
         <v>-2.210144646151044e-05</v>
@@ -7725,6 +8503,12 @@
       <c r="P130" t="n">
         <v>8.575652521612073e-25</v>
       </c>
+      <c r="Q130" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R130" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -7749,7 +8533,7 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>0.670631</v>
+        <v>0.6706309999999999</v>
       </c>
       <c r="G131" t="n">
         <v>1.640487</v>
@@ -7758,7 +8542,7 @@
         <v>0.7348669999999999</v>
       </c>
       <c r="I131" t="n">
-        <v>0.4087999588739577</v>
+        <v>0.4087999588739576</v>
       </c>
       <c r="J131" t="n">
         <v>1.000000027039105</v>
@@ -7781,6 +8565,12 @@
       <c r="P131" t="n">
         <v>2.095695673407064e-24</v>
       </c>
+      <c r="Q131" t="n">
+        <v>4996</v>
+      </c>
+      <c r="R131" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -7837,6 +8627,12 @@
       <c r="P132" t="n">
         <v>1.416727106992492e-23</v>
       </c>
+      <c r="Q132" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R132" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -7873,7 +8669,7 @@
         <v>0.5501679688524899</v>
       </c>
       <c r="J133" t="n">
-        <v>0.9999999825400252</v>
+        <v>0.9999999825400253</v>
       </c>
       <c r="K133" t="n">
         <v>0.6977067105989634</v>
@@ -7893,6 +8689,12 @@
       <c r="P133" t="n">
         <v>1.082441703240288e-23</v>
       </c>
+      <c r="Q133" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R133" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -7932,7 +8734,7 @@
         <v>1.000000015793441</v>
       </c>
       <c r="K134" t="n">
-        <v>0.6269911986972476</v>
+        <v>0.6269911986972477</v>
       </c>
       <c r="L134" t="n">
         <v>-0.0001046984555264741</v>
@@ -7949,6 +8751,12 @@
       <c r="P134" t="n">
         <v>3.543295751619611e-24</v>
       </c>
+      <c r="Q134" t="n">
+        <v>4998</v>
+      </c>
+      <c r="R134" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -7979,7 +8787,7 @@
         <v>1.425284</v>
       </c>
       <c r="H135" t="n">
-        <v>0.698174</v>
+        <v>0.6981739999999999</v>
       </c>
       <c r="I135" t="n">
         <v>0.427834023252805</v>
@@ -7988,7 +8796,7 @@
         <v>0.9999999803174083</v>
       </c>
       <c r="K135" t="n">
-        <v>0.4898490309707583</v>
+        <v>0.4898490309707582</v>
       </c>
       <c r="L135" t="n">
         <v>-6.817000345185746e-05</v>
@@ -8005,6 +8813,12 @@
       <c r="P135" t="n">
         <v>8.999580553820078e-25</v>
       </c>
+      <c r="Q135" t="n">
+        <v>5794</v>
+      </c>
+      <c r="R135" t="n">
+        <v>11588</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -8029,7 +8843,7 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>0.8276129999999999</v>
+        <v>0.827613</v>
       </c>
       <c r="G136" t="n">
         <v>1.503335</v>
@@ -8061,6 +8875,12 @@
       <c r="P136" t="n">
         <v>1.696073772638921e-23</v>
       </c>
+      <c r="Q136" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R136" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -8085,7 +8905,7 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>0.97561</v>
+        <v>0.9756099999999999</v>
       </c>
       <c r="G137" t="n">
         <v>1.639866</v>
@@ -8117,6 +8937,12 @@
       <c r="P137" t="n">
         <v>5.271872113480052e-24</v>
       </c>
+      <c r="Q137" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R137" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -8141,7 +8967,7 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>0.9419040000000001</v>
+        <v>0.941904</v>
       </c>
       <c r="G138" t="n">
         <v>1.596444</v>
@@ -8150,7 +8976,7 @@
         <v>0.969454</v>
       </c>
       <c r="I138" t="n">
-        <v>0.5900012738728055</v>
+        <v>0.5900012738728054</v>
       </c>
       <c r="J138" t="n">
         <v>0.9999999932759571</v>
@@ -8173,6 +8999,12 @@
       <c r="P138" t="n">
         <v>3.866199660660176e-24</v>
       </c>
+      <c r="Q138" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R138" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -8229,6 +9061,12 @@
       <c r="P139" t="n">
         <v>1.086168809996926e-23</v>
       </c>
+      <c r="Q139" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R139" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -8253,7 +9091,7 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>0.888512</v>
+        <v>0.8885119999999999</v>
       </c>
       <c r="G140" t="n">
         <v>1.620559</v>
@@ -8262,7 +9100,7 @@
         <v>0.9211989999999999</v>
       </c>
       <c r="I140" t="n">
-        <v>0.5482750165471626</v>
+        <v>0.5482750165471625</v>
       </c>
       <c r="J140" t="n">
         <v>1.000000014114219</v>
@@ -8285,6 +9123,12 @@
       <c r="P140" t="n">
         <v>1.143018092497242e-24</v>
       </c>
+      <c r="Q140" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R140" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -8309,7 +9153,7 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>0.771519</v>
+        <v>0.7715190000000001</v>
       </c>
       <c r="G141" t="n">
         <v>1.698185</v>
@@ -8318,7 +9162,7 @@
         <v>0.750347</v>
       </c>
       <c r="I141" t="n">
-        <v>0.4543197678544552</v>
+        <v>0.4543197678544553</v>
       </c>
       <c r="J141" t="n">
         <v>1.000000019408359</v>
@@ -8341,6 +9185,12 @@
       <c r="P141" t="n">
         <v>5.329128299677143e-24</v>
       </c>
+      <c r="Q141" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R141" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -8397,6 +9247,12 @@
       <c r="P142" t="n">
         <v>7.277540426556988e-24</v>
       </c>
+      <c r="Q142" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R142" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -8433,7 +9289,7 @@
         <v>1.000000002427045</v>
       </c>
       <c r="J143" t="n">
-        <v>0.7432938260610467</v>
+        <v>0.7432938260610468</v>
       </c>
       <c r="K143" t="n">
         <v>0.7848729394658118</v>
@@ -8453,6 +9309,12 @@
       <c r="P143" t="n">
         <v>3.376657771524257e-24</v>
       </c>
+      <c r="Q143" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R143" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -8509,6 +9371,12 @@
       <c r="P144" t="n">
         <v>1.252838009468771e-21</v>
       </c>
+      <c r="Q144" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R144" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -8565,6 +9433,12 @@
       <c r="P145" t="n">
         <v>2.430823574145381e-24</v>
       </c>
+      <c r="Q145" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R145" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -8604,7 +9478,7 @@
         <v>1.000000009740231</v>
       </c>
       <c r="K146" t="n">
-        <v>0.6724988962737626</v>
+        <v>0.6724988962737625</v>
       </c>
       <c r="L146" t="n">
         <v>-6.554808775767362e-05</v>
@@ -8621,6 +9495,12 @@
       <c r="P146" t="n">
         <v>1.702976861668235e-23</v>
       </c>
+      <c r="Q146" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R146" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -8677,6 +9557,12 @@
       <c r="P147" t="n">
         <v>5.569970829737892e-24</v>
       </c>
+      <c r="Q147" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R147" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -8710,10 +9596,10 @@
         <v>1.365564</v>
       </c>
       <c r="I148" t="n">
-        <v>0.9999999959880324</v>
+        <v>0.9999999959880325</v>
       </c>
       <c r="J148" t="n">
-        <v>0.7327692296680438</v>
+        <v>0.7327692296680439</v>
       </c>
       <c r="K148" t="n">
         <v>0.906680367171012</v>
@@ -8733,6 +9619,12 @@
       <c r="P148" t="n">
         <v>4.047418965926985e-24</v>
       </c>
+      <c r="Q148" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R148" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -8789,6 +9681,12 @@
       <c r="P149" t="n">
         <v>1.105048869760438e-23</v>
       </c>
+      <c r="Q149" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R149" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -8816,13 +9714,13 @@
         <v>1.56017</v>
       </c>
       <c r="G150" t="n">
-        <v>0.9912650000000001</v>
+        <v>0.991265</v>
       </c>
       <c r="H150" t="n">
         <v>1.291116</v>
       </c>
       <c r="I150" t="n">
-        <v>0.9999999651091047</v>
+        <v>0.9999999651091048</v>
       </c>
       <c r="J150" t="n">
         <v>0.6353570222564699</v>
@@ -8845,6 +9743,12 @@
       <c r="P150" t="n">
         <v>5.907424563665729e-24</v>
       </c>
+      <c r="Q150" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R150" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -8901,6 +9805,12 @@
       <c r="P151" t="n">
         <v>3.64912838271071e-19</v>
       </c>
+      <c r="Q151" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R151" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -8957,6 +9867,12 @@
       <c r="P152" t="n">
         <v>1.242173290603966e-23</v>
       </c>
+      <c r="Q152" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R152" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -8993,7 +9909,7 @@
         <v>1.000000037425761</v>
       </c>
       <c r="J153" t="n">
-        <v>0.9051331212108455</v>
+        <v>0.9051331212108457</v>
       </c>
       <c r="K153" t="n">
         <v>0.7245080881375645</v>
@@ -9013,6 +9929,12 @@
       <c r="P153" t="n">
         <v>5.765243903026136e-19</v>
       </c>
+      <c r="Q153" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R153" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -9069,6 +9991,12 @@
       <c r="P154" t="n">
         <v>1.947735739902021e-24</v>
       </c>
+      <c r="Q154" t="n">
+        <v>7349</v>
+      </c>
+      <c r="R154" t="n">
+        <v>14698</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -9125,6 +10053,12 @@
       <c r="P155" t="n">
         <v>3.81017268412799e-24</v>
       </c>
+      <c r="Q155" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R155" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -9181,6 +10115,12 @@
       <c r="P156" t="n">
         <v>2.1746745993088e-24</v>
       </c>
+      <c r="Q156" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R156" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -9217,7 +10157,7 @@
         <v>0.8756527267920304</v>
       </c>
       <c r="J157" t="n">
-        <v>0.9999999778899811</v>
+        <v>0.9999999778899812</v>
       </c>
       <c r="K157" t="n">
         <v>0.8335896451474563</v>
@@ -9237,6 +10177,12 @@
       <c r="P157" t="n">
         <v>8.047180923316672e-24</v>
       </c>
+      <c r="Q157" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R157" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -9267,7 +10213,7 @@
         <v>1.348718</v>
       </c>
       <c r="H158" t="n">
-        <v>1.722501</v>
+        <v>1.722501000000001</v>
       </c>
       <c r="I158" t="n">
         <v>0.7833812398672164</v>
@@ -9276,7 +10222,7 @@
         <v>0.7829998177461658</v>
       </c>
       <c r="K158" t="n">
-        <v>0.9999999770653232</v>
+        <v>0.9999999770653234</v>
       </c>
       <c r="L158" t="n">
         <v>-0.0005656838915470195</v>
@@ -9293,6 +10239,12 @@
       <c r="P158" t="n">
         <v>2.961367421646164e-22</v>
       </c>
+      <c r="Q158" t="n">
+        <v>6270</v>
+      </c>
+      <c r="R158" t="n">
+        <v>12540</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -9332,7 +10284,7 @@
         <v>0.7611390480772743</v>
       </c>
       <c r="K159" t="n">
-        <v>0.7196239993553598</v>
+        <v>0.7196239993553597</v>
       </c>
       <c r="L159" t="n">
         <v>-8.274807488077433e-05</v>
@@ -9349,6 +10301,12 @@
       <c r="P159" t="n">
         <v>7.490493145846223e-24</v>
       </c>
+      <c r="Q159" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R159" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -9388,7 +10346,7 @@
         <v>0.6703582917243989</v>
       </c>
       <c r="K160" t="n">
-        <v>0.7678231420820991</v>
+        <v>0.7678231420820992</v>
       </c>
       <c r="L160" t="n">
         <v>-5.689901721507609e-05</v>
@@ -9405,6 +10363,12 @@
       <c r="P160" t="n">
         <v>7.154351502487258e-24</v>
       </c>
+      <c r="Q160" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R160" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -9461,6 +10425,12 @@
       <c r="P161" t="n">
         <v>7.977011018192466e-25</v>
       </c>
+      <c r="Q161" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R161" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -9517,6 +10487,12 @@
       <c r="P162" t="n">
         <v>2.144223435584156e-23</v>
       </c>
+      <c r="Q162" t="n">
+        <v>7121</v>
+      </c>
+      <c r="R162" t="n">
+        <v>14238</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -9544,16 +10520,16 @@
         <v>1.811383</v>
       </c>
       <c r="G163" t="n">
-        <v>0.536234</v>
+        <v>0.5362339999999999</v>
       </c>
       <c r="H163" t="n">
-        <v>0.6831</v>
+        <v>0.6830999999999998</v>
       </c>
       <c r="I163" t="n">
         <v>0.9999999950552098</v>
       </c>
       <c r="J163" t="n">
-        <v>0.2960356795600021</v>
+        <v>0.296035679560002</v>
       </c>
       <c r="K163" t="n">
         <v>0.3771151637297102</v>
@@ -9573,6 +10549,12 @@
       <c r="P163" t="n">
         <v>6.003770546498205e-23</v>
       </c>
+      <c r="Q163" t="n">
+        <v>5255</v>
+      </c>
+      <c r="R163" t="n">
+        <v>10506</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -9600,16 +10582,16 @@
         <v>1.770317</v>
       </c>
       <c r="G164" t="n">
-        <v>0.78854</v>
+        <v>0.7885400000000001</v>
       </c>
       <c r="H164" t="n">
-        <v>0.827559</v>
+        <v>0.8275590000000002</v>
       </c>
       <c r="I164" t="n">
         <v>1.000000023483123</v>
       </c>
       <c r="J164" t="n">
-        <v>0.4454230618117443</v>
+        <v>0.4454230618117444</v>
       </c>
       <c r="K164" t="n">
         <v>0.4674637476981071</v>
@@ -9629,6 +10611,12 @@
       <c r="P164" t="n">
         <v>2.788375060769071e-23</v>
       </c>
+      <c r="Q164" t="n">
+        <v>6656</v>
+      </c>
+      <c r="R164" t="n">
+        <v>13308</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -9668,7 +10656,7 @@
         <v>0.2853218750282052</v>
       </c>
       <c r="K165" t="n">
-        <v>0.341425441895241</v>
+        <v>0.3414254418952411</v>
       </c>
       <c r="L165" t="n">
         <v>-0.0001509391424620295</v>
@@ -9685,6 +10673,12 @@
       <c r="P165" t="n">
         <v>2.051334238755164e-23</v>
       </c>
+      <c r="Q165" t="n">
+        <v>5061</v>
+      </c>
+      <c r="R165" t="n">
+        <v>10118</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -9718,10 +10712,10 @@
         <v>0.880898</v>
       </c>
       <c r="I166" t="n">
-        <v>0.9999999863159051</v>
+        <v>0.999999986315905</v>
       </c>
       <c r="J166" t="n">
-        <v>0.3445570287460576</v>
+        <v>0.3445570287460575</v>
       </c>
       <c r="K166" t="n">
         <v>0.4922056484181428</v>
@@ -9741,6 +10735,12 @@
       <c r="P166" t="n">
         <v>2.954941778339994e-23</v>
       </c>
+      <c r="Q166" t="n">
+        <v>6076</v>
+      </c>
+      <c r="R166" t="n">
+        <v>12148</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -9771,7 +10771,7 @@
         <v>0.558622</v>
       </c>
       <c r="H167" t="n">
-        <v>0.6168939999999999</v>
+        <v>0.6168940000000001</v>
       </c>
       <c r="I167" t="n">
         <v>1.000000000500595</v>
@@ -9797,6 +10797,12 @@
       <c r="P167" t="n">
         <v>2.720509733419177e-23</v>
       </c>
+      <c r="Q167" t="n">
+        <v>5216</v>
+      </c>
+      <c r="R167" t="n">
+        <v>10428</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -9827,7 +10833,7 @@
         <v>0.558622</v>
       </c>
       <c r="H168" t="n">
-        <v>0.6168939999999999</v>
+        <v>0.6168940000000001</v>
       </c>
       <c r="I168" t="n">
         <v>1.000000000500595</v>
@@ -9853,6 +10859,12 @@
       <c r="P168" t="n">
         <v>2.720509733419177e-23</v>
       </c>
+      <c r="Q168" t="n">
+        <v>5216</v>
+      </c>
+      <c r="R168" t="n">
+        <v>10428</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -9883,7 +10895,7 @@
         <v>1.79226</v>
       </c>
       <c r="H169" t="n">
-        <v>0.7880200000000001</v>
+        <v>0.7880199999999999</v>
       </c>
       <c r="I169" t="n">
         <v>0.2944628486096074</v>
@@ -9909,6 +10921,12 @@
       <c r="P169" t="n">
         <v>4.205762629002041e-23</v>
       </c>
+      <c r="Q169" t="n">
+        <v>5592</v>
+      </c>
+      <c r="R169" t="n">
+        <v>11180</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -9936,7 +10954,7 @@
         <v>0.564376</v>
       </c>
       <c r="G170" t="n">
-        <v>0.6742049999999999</v>
+        <v>0.6742050000000001</v>
       </c>
       <c r="H170" t="n">
         <v>1.874825</v>
@@ -9965,6 +10983,12 @@
       <c r="P170" t="n">
         <v>4.947193142685669e-23</v>
       </c>
+      <c r="Q170" t="n">
+        <v>5245</v>
+      </c>
+      <c r="R170" t="n">
+        <v>10486</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -10001,7 +11025,7 @@
         <v>1.000000001265405</v>
       </c>
       <c r="J171" t="n">
-        <v>0.6039300249561971</v>
+        <v>0.6039300249561972</v>
       </c>
       <c r="K171" t="n">
         <v>0.3499315346790376</v>
@@ -10021,6 +11045,12 @@
       <c r="P171" t="n">
         <v>4.791411760647877e-23</v>
       </c>
+      <c r="Q171" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R171" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -10077,6 +11107,12 @@
       <c r="P172" t="n">
         <v>4.749300694245831e-23</v>
       </c>
+      <c r="Q172" t="n">
+        <v>6264</v>
+      </c>
+      <c r="R172" t="n">
+        <v>12524</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -10133,6 +11169,12 @@
       <c r="P173" t="n">
         <v>7.221885264225979e-23</v>
       </c>
+      <c r="Q173" t="n">
+        <v>5440</v>
+      </c>
+      <c r="R173" t="n">
+        <v>10876</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -10166,10 +11208,10 @@
         <v>1.020777</v>
       </c>
       <c r="I174" t="n">
-        <v>0.9999999916425764</v>
+        <v>0.9999999916425765</v>
       </c>
       <c r="J174" t="n">
-        <v>0.5857765924323771</v>
+        <v>0.585776592432377</v>
       </c>
       <c r="K174" t="n">
         <v>0.6150626202263842</v>
@@ -10189,6 +11231,12 @@
       <c r="P174" t="n">
         <v>1.219056130109431e-23</v>
       </c>
+      <c r="Q174" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R174" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -10222,10 +11270,10 @@
         <v>0.8026869999999999</v>
       </c>
       <c r="I175" t="n">
-        <v>0.9999999953614365</v>
+        <v>0.9999999953614366</v>
       </c>
       <c r="J175" t="n">
-        <v>0.5082523399644472</v>
+        <v>0.5082523399644471</v>
       </c>
       <c r="K175" t="n">
         <v>0.4440603251792896</v>
@@ -10245,6 +11293,12 @@
       <c r="P175" t="n">
         <v>3.478014579504112e-23</v>
       </c>
+      <c r="Q175" t="n">
+        <v>7498</v>
+      </c>
+      <c r="R175" t="n">
+        <v>14992</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -10272,19 +11326,19 @@
         <v>1.817159</v>
       </c>
       <c r="G176" t="n">
-        <v>0.568072</v>
+        <v>0.5680720000000001</v>
       </c>
       <c r="H176" t="n">
-        <v>0.7060920000000001</v>
+        <v>0.7060919999999999</v>
       </c>
       <c r="I176" t="n">
-        <v>0.9999999688175271</v>
+        <v>0.999999968817527</v>
       </c>
       <c r="J176" t="n">
         <v>0.3126154520799282</v>
       </c>
       <c r="K176" t="n">
-        <v>0.3885691774810599</v>
+        <v>0.3885691774810598</v>
       </c>
       <c r="L176" t="n">
         <v>-0.000146299047619071</v>
@@ -10301,6 +11355,12 @@
       <c r="P176" t="n">
         <v>6.630806925248837e-25</v>
       </c>
+      <c r="Q176" t="n">
+        <v>5250</v>
+      </c>
+      <c r="R176" t="n">
+        <v>10496</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -10331,7 +11391,7 @@
         <v>0.54022</v>
       </c>
       <c r="H177" t="n">
-        <v>0.71135</v>
+        <v>0.7113499999999999</v>
       </c>
       <c r="I177" t="n">
         <v>1.000000009477051</v>
@@ -10357,6 +11417,12 @@
       <c r="P177" t="n">
         <v>1.422026323934262e-23</v>
       </c>
+      <c r="Q177" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R177" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -10393,7 +11459,7 @@
         <v>0.9999999770881428</v>
       </c>
       <c r="J178" t="n">
-        <v>0.2645828068629165</v>
+        <v>0.2645828068629166</v>
       </c>
       <c r="K178" t="n">
         <v>0.3093751143402525</v>
@@ -10413,6 +11479,12 @@
       <c r="P178" t="n">
         <v>1.19111087633132e-22</v>
       </c>
+      <c r="Q178" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R178" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -10443,7 +11515,7 @@
         <v>0.503695</v>
       </c>
       <c r="H179" t="n">
-        <v>0.69125</v>
+        <v>0.6912500000000001</v>
       </c>
       <c r="I179" t="n">
         <v>1.00000001791085</v>
@@ -10469,6 +11541,12 @@
       <c r="P179" t="n">
         <v>9.240703992420149e-23</v>
       </c>
+      <c r="Q179" t="n">
+        <v>5096</v>
+      </c>
+      <c r="R179" t="n">
+        <v>10188</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -10496,7 +11574,7 @@
         <v>1.856531</v>
       </c>
       <c r="G180" t="n">
-        <v>0.670034</v>
+        <v>0.6700340000000001</v>
       </c>
       <c r="H180" t="n">
         <v>0.446429</v>
@@ -10505,10 +11583,10 @@
         <v>0.9999999870838749</v>
       </c>
       <c r="J180" t="n">
-        <v>0.3609064385920607</v>
+        <v>0.3609064385920608</v>
       </c>
       <c r="K180" t="n">
-        <v>0.2404640667103685</v>
+        <v>0.2404640667103686</v>
       </c>
       <c r="L180" t="n">
         <v>-0.0001188125366144012</v>
@@ -10525,6 +11603,12 @@
       <c r="P180" t="n">
         <v>1.778855571011609e-23</v>
       </c>
+      <c r="Q180" t="n">
+        <v>5121</v>
+      </c>
+      <c r="R180" t="n">
+        <v>10238</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -10555,7 +11639,7 @@
         <v>0.7798039999999999</v>
       </c>
       <c r="H181" t="n">
-        <v>0.665031</v>
+        <v>0.6650309999999999</v>
       </c>
       <c r="I181" t="n">
         <v>0.9999999717896815</v>
@@ -10581,6 +11665,12 @@
       <c r="P181" t="n">
         <v>7.508957626763814e-24</v>
       </c>
+      <c r="Q181" t="n">
+        <v>6833</v>
+      </c>
+      <c r="R181" t="n">
+        <v>13662</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -10611,16 +11701,16 @@
         <v>1.062353</v>
       </c>
       <c r="H182" t="n">
-        <v>0.571059</v>
+        <v>0.5710589999999999</v>
       </c>
       <c r="I182" t="n">
         <v>0.9999999709975176</v>
       </c>
       <c r="J182" t="n">
-        <v>0.6501034919453273</v>
+        <v>0.6501034919453275</v>
       </c>
       <c r="K182" t="n">
-        <v>0.3494577132147287</v>
+        <v>0.3494577132147286</v>
       </c>
       <c r="L182" t="n">
         <v>0.02971288786393774</v>
@@ -10637,6 +11727,12 @@
       <c r="P182" t="n">
         <v>1.474031661143576e-19</v>
       </c>
+      <c r="Q182" t="n">
+        <v>6938</v>
+      </c>
+      <c r="R182" t="n">
+        <v>13872</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -10693,6 +11789,12 @@
       <c r="P183" t="n">
         <v>2.830189693338911e-24</v>
       </c>
+      <c r="Q183" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R183" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -10723,13 +11825,13 @@
         <v>1.800724</v>
       </c>
       <c r="H184" t="n">
-        <v>0.922001</v>
+        <v>0.9220009999999998</v>
       </c>
       <c r="I184" t="n">
-        <v>0.3283084971941472</v>
+        <v>0.3283084971941473</v>
       </c>
       <c r="J184" t="n">
-        <v>0.9999999835949235</v>
+        <v>0.9999999835949234</v>
       </c>
       <c r="K184" t="n">
         <v>0.5120168248296257</v>
@@ -10749,6 +11851,12 @@
       <c r="P184" t="n">
         <v>4.176667661798235e-19</v>
       </c>
+      <c r="Q184" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R184" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -10805,6 +11913,12 @@
       <c r="P185" t="n">
         <v>1.251817677714197e-22</v>
       </c>
+      <c r="Q185" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R185" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -10835,13 +11949,13 @@
         <v>1.325781</v>
       </c>
       <c r="H186" t="n">
-        <v>0.5083120000000001</v>
+        <v>0.508312</v>
       </c>
       <c r="I186" t="n">
         <v>0.9999999797806804</v>
       </c>
       <c r="J186" t="n">
-        <v>0.7523698305433224</v>
+        <v>0.7523698305433225</v>
       </c>
       <c r="K186" t="n">
         <v>0.2884628858786914</v>
@@ -10861,6 +11975,12 @@
       <c r="P186" t="n">
         <v>1.393573369950073e-24</v>
       </c>
+      <c r="Q186" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R186" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -10917,6 +12037,12 @@
       <c r="P187" t="n">
         <v>2.685086663624391e-24</v>
       </c>
+      <c r="Q187" t="n">
+        <v>7200</v>
+      </c>
+      <c r="R187" t="n">
+        <v>14396</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -10947,7 +12073,7 @@
         <v>1.454089</v>
       </c>
       <c r="H188" t="n">
-        <v>0.6760790000000001</v>
+        <v>0.676079</v>
       </c>
       <c r="I188" t="n">
         <v>1.000000030045021</v>
@@ -10973,6 +12099,12 @@
       <c r="P188" t="n">
         <v>1.970007772487286e-23</v>
       </c>
+      <c r="Q188" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R188" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -11029,6 +12161,12 @@
       <c r="P189" t="n">
         <v>2.17397617346879e-24</v>
       </c>
+      <c r="Q189" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R189" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -11085,6 +12223,12 @@
       <c r="P190" t="n">
         <v>4.553420752800159e-23</v>
       </c>
+      <c r="Q190" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R190" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -11141,6 +12285,12 @@
       <c r="P191" t="n">
         <v>9.486877133672819e-24</v>
       </c>
+      <c r="Q191" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R191" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -11177,7 +12327,7 @@
         <v>0.300095337030561</v>
       </c>
       <c r="J192" t="n">
-        <v>0.5762087495419392</v>
+        <v>0.5762087495419393</v>
       </c>
       <c r="K192" t="n">
         <v>1.000000020823834</v>
@@ -11197,6 +12347,12 @@
       <c r="P192" t="n">
         <v>2.211792015827445e-23</v>
       </c>
+      <c r="Q192" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R192" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -11236,7 +12392,7 @@
         <v>0.5633863848638938</v>
       </c>
       <c r="K193" t="n">
-        <v>0.3450675609404352</v>
+        <v>0.3450675609404351</v>
       </c>
       <c r="L193" t="n">
         <v>-0.0001056942446046325</v>
@@ -11253,6 +12409,12 @@
       <c r="P193" t="n">
         <v>7.173931540229284e-24</v>
       </c>
+      <c r="Q193" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R193" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -11277,7 +12439,7 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>0.438208</v>
+        <v>0.4382080000000001</v>
       </c>
       <c r="G194" t="n">
         <v>1.4026</v>
@@ -11309,6 +12471,12 @@
       <c r="P194" t="n">
         <v>1.041686698034721e-23</v>
       </c>
+      <c r="Q194" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R194" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -11348,7 +12516,7 @@
         <v>0.2921050146426153</v>
       </c>
       <c r="K195" t="n">
-        <v>0.8318010118307929</v>
+        <v>0.8318010118307928</v>
       </c>
       <c r="L195" t="n">
         <v>-0.01202073470973455</v>
@@ -11365,6 +12533,12 @@
       <c r="P195" t="n">
         <v>2.105641932617483e-19</v>
       </c>
+      <c r="Q195" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R195" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -11404,7 +12578,7 @@
         <v>0.6943631738758002</v>
       </c>
       <c r="K196" t="n">
-        <v>0.5693484031143099</v>
+        <v>0.5693484031143098</v>
       </c>
       <c r="L196" t="n">
         <v>-6.760785004275328e-06</v>
@@ -11421,6 +12595,12 @@
       <c r="P196" t="n">
         <v>1.877177091239051e-22</v>
       </c>
+      <c r="Q196" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R196" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -11460,7 +12640,7 @@
         <v>0.9245299446306067</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2638290806721326</v>
+        <v>0.2638290806721327</v>
       </c>
       <c r="L197" t="n">
         <v>0.00116510003611413</v>
@@ -11477,6 +12657,12 @@
       <c r="P197" t="n">
         <v>1.572085446731426e-21</v>
       </c>
+      <c r="Q197" t="n">
+        <v>5538</v>
+      </c>
+      <c r="R197" t="n">
+        <v>11072</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -11533,6 +12719,12 @@
       <c r="P198" t="n">
         <v>3.630368518467761e-24</v>
       </c>
+      <c r="Q198" t="n">
+        <v>7268</v>
+      </c>
+      <c r="R198" t="n">
+        <v>14532</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -11566,7 +12758,7 @@
         <v>0.331834</v>
       </c>
       <c r="I199" t="n">
-        <v>0.9999999965875013</v>
+        <v>0.9999999965875012</v>
       </c>
       <c r="J199" t="n">
         <v>0.6245257626984029</v>
@@ -11589,6 +12781,12 @@
       <c r="P199" t="n">
         <v>1.762817349549686e-21</v>
       </c>
+      <c r="Q199" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R199" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -11645,6 +12843,12 @@
       <c r="P200" t="n">
         <v>1.871016566416393e-23</v>
       </c>
+      <c r="Q200" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R200" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -11669,7 +12873,7 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>0.529954</v>
+        <v>0.5299539999999998</v>
       </c>
       <c r="G201" t="n">
         <v>1.025638</v>
@@ -11701,6 +12905,12 @@
       <c r="P201" t="n">
         <v>1.487013795266772e-23</v>
       </c>
+      <c r="Q201" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R201" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -11737,7 +12947,7 @@
         <v>0.944145626276395</v>
       </c>
       <c r="J202" t="n">
-        <v>1.000000054133441</v>
+        <v>1.000000054133442</v>
       </c>
       <c r="K202" t="n">
         <v>0.301703940190711</v>
@@ -11757,6 +12967,12 @@
       <c r="P202" t="n">
         <v>1.048025721195877e-23</v>
       </c>
+      <c r="Q202" t="n">
+        <v>7016</v>
+      </c>
+      <c r="R202" t="n">
+        <v>14028</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -11793,7 +13009,7 @@
         <v>0.9999999872464458</v>
       </c>
       <c r="J203" t="n">
-        <v>0.7234233306518822</v>
+        <v>0.7234233306518824</v>
       </c>
       <c r="K203" t="n">
         <v>0.2454767522847211</v>
@@ -11813,6 +13029,12 @@
       <c r="P203" t="n">
         <v>1.023200031086079e-23</v>
       </c>
+      <c r="Q203" t="n">
+        <v>6603</v>
+      </c>
+      <c r="R203" t="n">
+        <v>13202</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -11846,7 +13068,7 @@
         <v>0.9217029999999999</v>
       </c>
       <c r="I204" t="n">
-        <v>0.9999999704266321</v>
+        <v>0.9999999704266322</v>
       </c>
       <c r="J204" t="n">
         <v>0.1947157896831138</v>
@@ -11869,6 +13091,12 @@
       <c r="P204" t="n">
         <v>1.980062356048279e-23</v>
       </c>
+      <c r="Q204" t="n">
+        <v>5462</v>
+      </c>
+      <c r="R204" t="n">
+        <v>10920</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -11925,6 +13153,12 @@
       <c r="P205" t="n">
         <v>3.610855862183743e-23</v>
       </c>
+      <c r="Q205" t="n">
+        <v>6288</v>
+      </c>
+      <c r="R205" t="n">
+        <v>12572</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -11964,7 +13198,7 @@
         <v>0.262631587448837</v>
       </c>
       <c r="K206" t="n">
-        <v>0.8814378742163824</v>
+        <v>0.8814378742163823</v>
       </c>
       <c r="L206" t="n">
         <v>-6.213650676051397e-05</v>
@@ -11981,6 +13215,12 @@
       <c r="P206" t="n">
         <v>2.572877258727306e-23</v>
       </c>
+      <c r="Q206" t="n">
+        <v>5399</v>
+      </c>
+      <c r="R206" t="n">
+        <v>10794</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -12014,7 +13254,7 @@
         <v>0.278489</v>
       </c>
       <c r="I207" t="n">
-        <v>0.9999999864879937</v>
+        <v>0.9999999864879936</v>
       </c>
       <c r="J207" t="n">
         <v>0.305016828741433</v>
@@ -12037,6 +13277,12 @@
       <c r="P207" t="n">
         <v>3.163764339215193e-22</v>
       </c>
+      <c r="Q207" t="n">
+        <v>5003</v>
+      </c>
+      <c r="R207" t="n">
+        <v>10002</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -12093,6 +13339,12 @@
       <c r="P208" t="n">
         <v>2.202922207578821e-22</v>
       </c>
+      <c r="Q208" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R208" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -12149,6 +13401,12 @@
       <c r="P209" t="n">
         <v>2.911795996866165e-23</v>
       </c>
+      <c r="Q209" t="n">
+        <v>5176</v>
+      </c>
+      <c r="R209" t="n">
+        <v>10348</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -12182,7 +13440,7 @@
         <v>0.309264</v>
       </c>
       <c r="I210" t="n">
-        <v>0.9999999840919138</v>
+        <v>0.9999999840919139</v>
       </c>
       <c r="J210" t="n">
         <v>0.4227780461866046</v>
@@ -12205,6 +13463,12 @@
       <c r="P210" t="n">
         <v>1.928839452296604e-22</v>
       </c>
+      <c r="Q210" t="n">
+        <v>6305</v>
+      </c>
+      <c r="R210" t="n">
+        <v>12610</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -12261,6 +13525,12 @@
       <c r="P211" t="n">
         <v>5.701669725186044e-24</v>
       </c>
+      <c r="Q211" t="n">
+        <v>7420</v>
+      </c>
+      <c r="R211" t="n">
+        <v>14836</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -12297,7 +13567,7 @@
         <v>1.000000013138792</v>
       </c>
       <c r="J212" t="n">
-        <v>0.5346306464441553</v>
+        <v>0.5346306464441551</v>
       </c>
       <c r="K212" t="n">
         <v>0.1785799341709733</v>
@@ -12317,6 +13587,12 @@
       <c r="P212" t="n">
         <v>1.468255968927085e-22</v>
       </c>
+      <c r="Q212" t="n">
+        <v>5338</v>
+      </c>
+      <c r="R212" t="n">
+        <v>10672</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -12373,6 +13649,12 @@
       <c r="P213" t="n">
         <v>1.754534349619627e-21</v>
       </c>
+      <c r="Q213" t="n">
+        <v>3604</v>
+      </c>
+      <c r="R213" t="n">
+        <v>7204</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -12429,6 +13711,12 @@
       <c r="P214" t="n">
         <v>4.294464575479937e-23</v>
       </c>
+      <c r="Q214" t="n">
+        <v>5104</v>
+      </c>
+      <c r="R214" t="n">
+        <v>10204</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -12485,6 +13773,12 @@
       <c r="P215" t="n">
         <v>3.743114594845208e-24</v>
       </c>
+      <c r="Q215" t="n">
+        <v>7407</v>
+      </c>
+      <c r="R215" t="n">
+        <v>14810</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -12541,6 +13835,12 @@
       <c r="P216" t="n">
         <v>4.500335072918346e-22</v>
       </c>
+      <c r="Q216" t="n">
+        <v>5341</v>
+      </c>
+      <c r="R216" t="n">
+        <v>10678</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -12577,7 +13877,7 @@
         <v>0.99999995919719</v>
       </c>
       <c r="J217" t="n">
-        <v>0.9757682472584468</v>
+        <v>0.975768247258447</v>
       </c>
       <c r="K217" t="n">
         <v>0.3107322369762119</v>
@@ -12597,6 +13897,12 @@
       <c r="P217" t="n">
         <v>1.280723302358689e-23</v>
       </c>
+      <c r="Q217" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R217" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -12630,13 +13936,13 @@
         <v>0.331225</v>
       </c>
       <c r="I218" t="n">
-        <v>0.9492169612232233</v>
+        <v>0.9492169612232234</v>
       </c>
       <c r="J218" t="n">
         <v>1.00000000167541</v>
       </c>
       <c r="K218" t="n">
-        <v>0.3018124699234845</v>
+        <v>0.3018124699234844</v>
       </c>
       <c r="L218" t="n">
         <v>-4.838365034398957e-05</v>
@@ -12653,6 +13959,12 @@
       <c r="P218" t="n">
         <v>3.570475880149403e-24</v>
       </c>
+      <c r="Q218" t="n">
+        <v>7413</v>
+      </c>
+      <c r="R218" t="n">
+        <v>14822</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -12686,7 +13998,7 @@
         <v>0.257074</v>
       </c>
       <c r="I219" t="n">
-        <v>0.9999999922178444</v>
+        <v>0.9999999922178445</v>
       </c>
       <c r="J219" t="n">
         <v>0.1139754424008951</v>
@@ -12709,6 +14021,12 @@
       <c r="P219" t="n">
         <v>9.027513686343817e-22</v>
       </c>
+      <c r="Q219" t="n">
+        <v>4101</v>
+      </c>
+      <c r="R219" t="n">
+        <v>8198</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -12765,6 +14083,12 @@
       <c r="P220" t="n">
         <v>5.006936323122103e-22</v>
       </c>
+      <c r="Q220" t="n">
+        <v>6078</v>
+      </c>
+      <c r="R220" t="n">
+        <v>12152</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -12821,6 +14145,12 @@
       <c r="P221" t="n">
         <v>1.57550089618324e-22</v>
       </c>
+      <c r="Q221" t="n">
+        <v>5033</v>
+      </c>
+      <c r="R221" t="n">
+        <v>10062</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -12845,7 +14175,7 @@
         </is>
       </c>
       <c r="F222" t="n">
-        <v>0.9343600000000001</v>
+        <v>0.93436</v>
       </c>
       <c r="G222" t="n">
         <v>0.680823</v>
@@ -12877,6 +14207,12 @@
       <c r="P222" t="n">
         <v>2.953905606911767e-23</v>
       </c>
+      <c r="Q222" t="n">
+        <v>7242</v>
+      </c>
+      <c r="R222" t="n">
+        <v>14480</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -12901,7 +14237,7 @@
         </is>
       </c>
       <c r="F223" t="n">
-        <v>0.8728100000000001</v>
+        <v>0.87281</v>
       </c>
       <c r="G223" t="n">
         <v>1.879447</v>
@@ -12933,6 +14269,12 @@
       <c r="P223" t="n">
         <v>8.332585700739643e-24</v>
       </c>
+      <c r="Q223" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R223" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -12963,10 +14305,10 @@
         <v>1.860552</v>
       </c>
       <c r="H224" t="n">
-        <v>0.63573</v>
+        <v>0.6357299999999999</v>
       </c>
       <c r="I224" t="n">
-        <v>0.899355160181352</v>
+        <v>0.8993551601813521</v>
       </c>
       <c r="J224" t="n">
         <v>1.000000025091621</v>
@@ -12989,6 +14331,12 @@
       <c r="P224" t="n">
         <v>9.068429947669024e-24</v>
       </c>
+      <c r="Q224" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R224" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -13022,7 +14370,7 @@
         <v>1.731493</v>
       </c>
       <c r="I225" t="n">
-        <v>0.4191810198402514</v>
+        <v>0.4191810198402512</v>
       </c>
       <c r="J225" t="n">
         <v>0.5212697954727963</v>
@@ -13045,6 +14393,12 @@
       <c r="P225" t="n">
         <v>2.027483418294309e-22</v>
       </c>
+      <c r="Q225" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R225" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -13101,6 +14455,12 @@
       <c r="P226" t="n">
         <v>4.348448320073581e-20</v>
       </c>
+      <c r="Q226" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R226" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -13137,7 +14497,7 @@
         <v>0.5738779015156221</v>
       </c>
       <c r="J227" t="n">
-        <v>0.3335344020620216</v>
+        <v>0.3335344020620217</v>
       </c>
       <c r="K227" t="n">
         <v>1.000000016434424</v>
@@ -13157,6 +14517,12 @@
       <c r="P227" t="n">
         <v>4.713142401742217e-23</v>
       </c>
+      <c r="Q227" t="n">
+        <v>6607</v>
+      </c>
+      <c r="R227" t="n">
+        <v>13210</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -13190,7 +14556,7 @@
         <v>1.928293</v>
       </c>
       <c r="I228" t="n">
-        <v>0.4863114708159045</v>
+        <v>0.4863114708159044</v>
       </c>
       <c r="J228" t="n">
         <v>0.353754332786958</v>
@@ -13213,6 +14579,12 @@
       <c r="P228" t="n">
         <v>6.539597444544155e-23</v>
       </c>
+      <c r="Q228" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R228" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -13269,6 +14641,12 @@
       <c r="P229" t="n">
         <v>5.647221918171447e-23</v>
       </c>
+      <c r="Q229" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R229" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -13325,6 +14703,12 @@
       <c r="P230" t="n">
         <v>4.438215747372473e-24</v>
       </c>
+      <c r="Q230" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R230" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -13355,10 +14739,10 @@
         <v>1.609767</v>
       </c>
       <c r="H231" t="n">
-        <v>0.5124420000000001</v>
+        <v>0.512442</v>
       </c>
       <c r="I231" t="n">
-        <v>0.7224530188493469</v>
+        <v>0.7224530188493468</v>
       </c>
       <c r="J231" t="n">
         <v>1.000000024758837</v>
@@ -13381,6 +14765,12 @@
       <c r="P231" t="n">
         <v>9.170279482696811e-24</v>
       </c>
+      <c r="Q231" t="n">
+        <v>7500</v>
+      </c>
+      <c r="R231" t="n">
+        <v>14996</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -13420,7 +14810,7 @@
         <v>1.000000014181583</v>
       </c>
       <c r="K232" t="n">
-        <v>0.6472227633549781</v>
+        <v>0.6472227633549782</v>
       </c>
       <c r="L232" t="n">
         <v>-8.807031817524733e-05</v>
@@ -13437,6 +14827,12 @@
       <c r="P232" t="n">
         <v>1.166009821009083e-23</v>
       </c>
+      <c r="Q232" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R232" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -13470,7 +14866,7 @@
         <v>0.59095</v>
       </c>
       <c r="I233" t="n">
-        <v>0.6428360061827925</v>
+        <v>0.6428360061827924</v>
       </c>
       <c r="J233" t="n">
         <v>0.9999999758740945</v>
@@ -13493,6 +14889,12 @@
       <c r="P233" t="n">
         <v>2.683499384282357e-24</v>
       </c>
+      <c r="Q233" t="n">
+        <v>6991</v>
+      </c>
+      <c r="R233" t="n">
+        <v>13978</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -13523,7 +14925,7 @@
         <v>1.605342</v>
       </c>
       <c r="H234" t="n">
-        <v>0.6062730000000001</v>
+        <v>0.606273</v>
       </c>
       <c r="I234" t="n">
         <v>0.470272369155506</v>
@@ -13532,7 +14934,7 @@
         <v>0.9999999809852311</v>
       </c>
       <c r="K234" t="n">
-        <v>0.377659706450002</v>
+        <v>0.3776597064500019</v>
       </c>
       <c r="L234" t="n">
         <v>-0.0001189146841672959</v>
@@ -13549,6 +14951,12 @@
       <c r="P234" t="n">
         <v>3.711695845222816e-24</v>
       </c>
+      <c r="Q234" t="n">
+        <v>7314</v>
+      </c>
+      <c r="R234" t="n">
+        <v>14624</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -13579,7 +14987,7 @@
         <v>1.752393</v>
       </c>
       <c r="H235" t="n">
-        <v>0.661347</v>
+        <v>0.6613469999999999</v>
       </c>
       <c r="I235" t="n">
         <v>0.4544665475679208</v>
@@ -13605,6 +15013,12 @@
       <c r="P235" t="n">
         <v>1.254654267577655e-23</v>
       </c>
+      <c r="Q235" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R235" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -13661,6 +15075,12 @@
       <c r="P236" t="n">
         <v>2.340384664470379e-24</v>
       </c>
+      <c r="Q236" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R236" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -13717,6 +15137,12 @@
       <c r="P237" t="n">
         <v>5.869251203112548e-24</v>
       </c>
+      <c r="Q237" t="n">
+        <v>7112</v>
+      </c>
+      <c r="R237" t="n">
+        <v>14220</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -13741,7 +15167,7 @@
         </is>
       </c>
       <c r="F238" t="n">
-        <v>0.708622</v>
+        <v>0.7086220000000001</v>
       </c>
       <c r="G238" t="n">
         <v>1.639029</v>
@@ -13753,7 +15179,7 @@
         <v>0.4323425569318647</v>
       </c>
       <c r="J238" t="n">
-        <v>0.9999999841177346</v>
+        <v>0.9999999841177345</v>
       </c>
       <c r="K238" t="n">
         <v>0.5056261889434506</v>
@@ -13773,6 +15199,12 @@
       <c r="P238" t="n">
         <v>2.884935327074993e-24</v>
       </c>
+      <c r="Q238" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R238" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -13812,7 +15244,7 @@
         <v>0.2827560897048289</v>
       </c>
       <c r="K239" t="n">
-        <v>1.000000030412745</v>
+        <v>1.000000030412746</v>
       </c>
       <c r="L239" t="n">
         <v>-3.50648264331281e-06</v>
@@ -13829,6 +15261,12 @@
       <c r="P239" t="n">
         <v>7.614125669436363e-25</v>
       </c>
+      <c r="Q239" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R239" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -13853,7 +15291,7 @@
         </is>
       </c>
       <c r="F240" t="n">
-        <v>0.8155889999999999</v>
+        <v>0.815589</v>
       </c>
       <c r="G240" t="n">
         <v>1.881539</v>
@@ -13868,7 +15306,7 @@
         <v>1.000000006824345</v>
       </c>
       <c r="K240" t="n">
-        <v>0.3760565180039678</v>
+        <v>0.3760565180039679</v>
       </c>
       <c r="L240" t="n">
         <v>-4.448062911982496e-05</v>
@@ -13885,6 +15323,12 @@
       <c r="P240" t="n">
         <v>3.101149126253541e-24</v>
       </c>
+      <c r="Q240" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R240" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -13915,7 +15359,7 @@
         <v>1.724604</v>
       </c>
       <c r="H241" t="n">
-        <v>0.648263</v>
+        <v>0.6482629999999998</v>
       </c>
       <c r="I241" t="n">
         <v>0.7582447866155223</v>
@@ -13924,7 +15368,7 @@
         <v>0.999999993864116</v>
       </c>
       <c r="K241" t="n">
-        <v>0.3758909268576052</v>
+        <v>0.3758909268576051</v>
       </c>
       <c r="L241" t="n">
         <v>0.0003302151815181463</v>
@@ -13941,6 +15385,12 @@
       <c r="P241" t="n">
         <v>5.018437700447507e-23</v>
       </c>
+      <c r="Q241" t="n">
+        <v>5857</v>
+      </c>
+      <c r="R241" t="n">
+        <v>11710</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -13965,19 +15415,19 @@
         </is>
       </c>
       <c r="F242" t="n">
-        <v>0.727641</v>
+        <v>0.7276410000000001</v>
       </c>
       <c r="G242" t="n">
-        <v>0.293773</v>
+        <v>0.2937730000000001</v>
       </c>
       <c r="H242" t="n">
         <v>1.796086</v>
       </c>
       <c r="I242" t="n">
-        <v>0.4051259342549752</v>
+        <v>0.4051259342549753</v>
       </c>
       <c r="J242" t="n">
-        <v>0.1635628848345363</v>
+        <v>0.1635628848345364</v>
       </c>
       <c r="K242" t="n">
         <v>1.000000025771337</v>
@@ -13997,6 +15447,12 @@
       <c r="P242" t="n">
         <v>1.795368282283239e-20</v>
       </c>
+      <c r="Q242" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R242" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -14036,7 +15492,7 @@
         <v>1.000000007754477</v>
       </c>
       <c r="K243" t="n">
-        <v>0.5522031692488292</v>
+        <v>0.5522031692488291</v>
       </c>
       <c r="L243" t="n">
         <v>-1.934907446360817e-05</v>
@@ -14053,6 +15509,12 @@
       <c r="P243" t="n">
         <v>1.6155386176652e-25</v>
       </c>
+      <c r="Q243" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R243" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -14109,6 +15571,12 @@
       <c r="P244" t="n">
         <v>6.014925542645761e-24</v>
       </c>
+      <c r="Q244" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R244" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -14165,6 +15633,12 @@
       <c r="P245" t="n">
         <v>3.825037707375446e-23</v>
       </c>
+      <c r="Q245" t="n">
+        <v>5614</v>
+      </c>
+      <c r="R245" t="n">
+        <v>11224</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -14198,7 +15672,7 @@
         <v>0.715712</v>
       </c>
       <c r="I246" t="n">
-        <v>0.4302664206933863</v>
+        <v>0.4302664206933864</v>
       </c>
       <c r="J246" t="n">
         <v>0.9999999910494031</v>
@@ -14221,6 +15695,12 @@
       <c r="P246" t="n">
         <v>8.047786209805783e-22</v>
       </c>
+      <c r="Q246" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R246" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -14254,7 +15734,7 @@
         <v>0.976434</v>
       </c>
       <c r="I247" t="n">
-        <v>0.9105592984217131</v>
+        <v>0.910559298421713</v>
       </c>
       <c r="J247" t="n">
         <v>1.000000025448605</v>
@@ -14277,6 +15757,12 @@
       <c r="P247" t="n">
         <v>7.226749743792122e-21</v>
       </c>
+      <c r="Q247" t="n">
+        <v>5691</v>
+      </c>
+      <c r="R247" t="n">
+        <v>11378</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -14313,7 +15799,7 @@
         <v>0.4036969002853057</v>
       </c>
       <c r="J248" t="n">
-        <v>0.9999999616487572</v>
+        <v>0.999999961648757</v>
       </c>
       <c r="K248" t="n">
         <v>0.536163736622129</v>
@@ -14333,6 +15819,12 @@
       <c r="P248" t="n">
         <v>2.51491283938703e-21</v>
       </c>
+      <c r="Q248" t="n">
+        <v>5631</v>
+      </c>
+      <c r="R248" t="n">
+        <v>11258</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -14389,6 +15881,12 @@
       <c r="P249" t="n">
         <v>2.179750724094398e-22</v>
       </c>
+      <c r="Q249" t="n">
+        <v>4998</v>
+      </c>
+      <c r="R249" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -14445,6 +15943,12 @@
       <c r="P250" t="n">
         <v>1.542737168430665e-21</v>
       </c>
+      <c r="Q250" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R250" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -14501,6 +16005,12 @@
       <c r="P251" t="n">
         <v>1.207617220188997e-22</v>
       </c>
+      <c r="Q251" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R251" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -14557,6 +16067,12 @@
       <c r="P252" t="n">
         <v>1.936766018815704e-22</v>
       </c>
+      <c r="Q252" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R252" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -14613,6 +16129,12 @@
       <c r="P253" t="n">
         <v>3.909321334602382e-26</v>
       </c>
+      <c r="Q253" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R253" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -14643,13 +16165,13 @@
         <v>1.911769</v>
       </c>
       <c r="H254" t="n">
-        <v>0.700346</v>
+        <v>0.7003459999999999</v>
       </c>
       <c r="I254" t="n">
         <v>0.4443240713543817</v>
       </c>
       <c r="J254" t="n">
-        <v>0.9999999830113722</v>
+        <v>0.9999999830113721</v>
       </c>
       <c r="K254" t="n">
         <v>0.3663340017031778</v>
@@ -14669,6 +16191,12 @@
       <c r="P254" t="n">
         <v>3.926519464119581e-21</v>
       </c>
+      <c r="Q254" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R254" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -14705,7 +16233,7 @@
         <v>0.3678089275172858</v>
       </c>
       <c r="J255" t="n">
-        <v>0.9999999739515083</v>
+        <v>0.9999999739515084</v>
       </c>
       <c r="K255" t="n">
         <v>0.4649306926485604</v>
@@ -14725,6 +16253,12 @@
       <c r="P255" t="n">
         <v>2.808403090883916e-21</v>
       </c>
+      <c r="Q255" t="n">
+        <v>5641</v>
+      </c>
+      <c r="R255" t="n">
+        <v>11278</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -14758,7 +16292,7 @@
         <v>0.709249</v>
       </c>
       <c r="I256" t="n">
-        <v>0.4184448204715091</v>
+        <v>0.4184448204715092</v>
       </c>
       <c r="J256" t="n">
         <v>1.000000026282126</v>
@@ -14781,6 +16315,12 @@
       <c r="P256" t="n">
         <v>6.007050928401056e-22</v>
       </c>
+      <c r="Q256" t="n">
+        <v>5676</v>
+      </c>
+      <c r="R256" t="n">
+        <v>11348</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -14811,7 +16351,7 @@
         <v>1.931447</v>
       </c>
       <c r="H257" t="n">
-        <v>0.7746499999999999</v>
+        <v>0.7746500000000001</v>
       </c>
       <c r="I257" t="n">
         <v>0.5121678125720583</v>
@@ -14820,7 +16360,7 @@
         <v>0.9999999849264467</v>
       </c>
       <c r="K257" t="n">
-        <v>0.4010723505865146</v>
+        <v>0.4010723505865147</v>
       </c>
       <c r="L257" t="n">
         <v>0.003018740266596284</v>
@@ -14837,6 +16377,12 @@
       <c r="P257" t="n">
         <v>4.483028628872987e-21</v>
       </c>
+      <c r="Q257" t="n">
+        <v>5001</v>
+      </c>
+      <c r="R257" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -14893,6 +16439,12 @@
       <c r="P258" t="n">
         <v>1.019108987915663e-21</v>
       </c>
+      <c r="Q258" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R258" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -14949,6 +16501,12 @@
       <c r="P259" t="n">
         <v>1.644628612223199e-24</v>
       </c>
+      <c r="Q259" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R259" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -14973,7 +16531,7 @@
         </is>
       </c>
       <c r="F260" t="n">
-        <v>0.67111</v>
+        <v>0.6711100000000001</v>
       </c>
       <c r="G260" t="n">
         <v>0.760976</v>
@@ -15005,6 +16563,12 @@
       <c r="P260" t="n">
         <v>6.69976570125496e-24</v>
       </c>
+      <c r="Q260" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R260" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -15032,7 +16596,7 @@
         <v>0.654836</v>
       </c>
       <c r="G261" t="n">
-        <v>0.7200040000000001</v>
+        <v>0.720004</v>
       </c>
       <c r="H261" t="n">
         <v>1.825124</v>
@@ -15041,10 +16605,10 @@
         <v>0.3587898635416142</v>
       </c>
       <c r="J261" t="n">
-        <v>0.3944959301403962</v>
+        <v>0.3944959301403961</v>
       </c>
       <c r="K261" t="n">
-        <v>0.9999999861133555</v>
+        <v>0.9999999861133554</v>
       </c>
       <c r="L261" t="n">
         <v>-4.856081849181341e-05</v>
@@ -15061,6 +16625,12 @@
       <c r="P261" t="n">
         <v>3.972870768201875e-25</v>
       </c>
+      <c r="Q261" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R261" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -15097,7 +16667,7 @@
         <v>0.7407329673609904</v>
       </c>
       <c r="J262" t="n">
-        <v>0.9999999862733336</v>
+        <v>0.9999999862733335</v>
       </c>
       <c r="K262" t="n">
         <v>0.7407329673609904</v>
@@ -15117,6 +16687,12 @@
       <c r="P262" t="n">
         <v>2.631596774856199e-22</v>
       </c>
+      <c r="Q262" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R262" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -15156,7 +16732,7 @@
         <v>1.000000034604886</v>
       </c>
       <c r="K263" t="n">
-        <v>0.7407324470115543</v>
+        <v>0.7407324470115544</v>
       </c>
       <c r="L263" t="n">
         <v>-0.0001974628110198971</v>
@@ -15173,6 +16749,12 @@
       <c r="P263" t="n">
         <v>3.545324133978006e-23</v>
       </c>
+      <c r="Q263" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R263" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -15209,7 +16791,7 @@
         <v>0.7407326000573349</v>
       </c>
       <c r="J264" t="n">
-        <v>0.9999999753587815</v>
+        <v>0.9999999753587816</v>
       </c>
       <c r="K264" t="n">
         <v>0.7407326000573349</v>
@@ -15229,6 +16811,12 @@
       <c r="P264" t="n">
         <v>3.722066125372448e-22</v>
       </c>
+      <c r="Q264" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R264" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -15262,10 +16850,10 @@
         <v>1.353552</v>
       </c>
       <c r="I265" t="n">
-        <v>0.999999987426664</v>
+        <v>0.9999999874266638</v>
       </c>
       <c r="J265" t="n">
-        <v>0.9998522498813194</v>
+        <v>0.9998522498813193</v>
       </c>
       <c r="K265" t="n">
         <v>0.9998522498813193</v>
@@ -15285,6 +16873,12 @@
       <c r="P265" t="n">
         <v>3.545059513150022e-20</v>
       </c>
+      <c r="Q265" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R265" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -15341,6 +16935,12 @@
       <c r="P266" t="n">
         <v>1.194612904933295e-22</v>
       </c>
+      <c r="Q266" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R266" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -15397,6 +16997,12 @@
       <c r="P267" t="n">
         <v>2.727414998851105e-22</v>
       </c>
+      <c r="Q267" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R267" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -15430,13 +17036,13 @@
         <v>1.203905</v>
       </c>
       <c r="I268" t="n">
-        <v>0.8960392594091126</v>
+        <v>0.8960392594091127</v>
       </c>
       <c r="J268" t="n">
         <v>0.9999999684396437</v>
       </c>
       <c r="K268" t="n">
-        <v>0.8360195674606673</v>
+        <v>0.8360195674606674</v>
       </c>
       <c r="L268" t="n">
         <v>-1.636794537024722e-05</v>
@@ -15453,6 +17059,12 @@
       <c r="P268" t="n">
         <v>4.401739375530099e-22</v>
       </c>
+      <c r="Q268" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R268" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -15486,7 +17098,7 @@
         <v>1.091193</v>
       </c>
       <c r="I269" t="n">
-        <v>0.7407324653312547</v>
+        <v>0.7407324653312548</v>
       </c>
       <c r="J269" t="n">
         <v>0.9999999949193545</v>
@@ -15509,6 +17121,12 @@
       <c r="P269" t="n">
         <v>7.62485669156051e-23</v>
       </c>
+      <c r="Q269" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R269" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -15548,7 +17166,7 @@
         <v>1.000000002968312</v>
       </c>
       <c r="K270" t="n">
-        <v>0.7407328049508316</v>
+        <v>0.7407328049508317</v>
       </c>
       <c r="L270" t="n">
         <v>-5.517887859191558e-05</v>
@@ -15565,6 +17183,12 @@
       <c r="P270" t="n">
         <v>7.381360451236107e-23</v>
       </c>
+      <c r="Q270" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R270" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -15621,6 +17245,12 @@
       <c r="P271" t="n">
         <v>4.864382840803485e-22</v>
       </c>
+      <c r="Q271" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R271" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -15654,7 +17284,7 @@
         <v>1.045732</v>
       </c>
       <c r="I272" t="n">
-        <v>0.6666530751514862</v>
+        <v>0.6666530751514863</v>
       </c>
       <c r="J272" t="n">
         <v>1.000000012694338</v>
@@ -15677,6 +17307,12 @@
       <c r="P272" t="n">
         <v>6.288623768057037e-23</v>
       </c>
+      <c r="Q272" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R272" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -15733,6 +17369,12 @@
       <c r="P273" t="n">
         <v>8.474238333886564e-23</v>
       </c>
+      <c r="Q273" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R273" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -15789,6 +17431,12 @@
       <c r="P274" t="n">
         <v>8.559741365169267e-23</v>
       </c>
+      <c r="Q274" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R274" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -15845,6 +17493,12 @@
       <c r="P275" t="n">
         <v>6.574362368466216e-22</v>
       </c>
+      <c r="Q275" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R275" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -15881,10 +17535,10 @@
         <v>0.7407328190829862</v>
       </c>
       <c r="J276" t="n">
-        <v>0.9999999886785185</v>
+        <v>0.9999999886785182</v>
       </c>
       <c r="K276" t="n">
-        <v>0.7407328190829863</v>
+        <v>0.7407328190829862</v>
       </c>
       <c r="L276" t="n">
         <v>-0.0001115097699233678</v>
@@ -15901,6 +17555,12 @@
       <c r="P276" t="n">
         <v>9.652870718020322e-24</v>
       </c>
+      <c r="Q276" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R276" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -15925,7 +17585,7 @@
         </is>
       </c>
       <c r="F277" t="n">
-        <v>0.837668</v>
+        <v>0.8376680000000001</v>
       </c>
       <c r="G277" t="n">
         <v>1.465377</v>
@@ -15957,6 +17617,12 @@
       <c r="P277" t="n">
         <v>8.05927414513368e-28</v>
       </c>
+      <c r="Q277" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R277" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -15990,7 +17656,7 @@
         <v>1.078685</v>
       </c>
       <c r="I278" t="n">
-        <v>1.000000005211441</v>
+        <v>1.000000005211442</v>
       </c>
       <c r="J278" t="n">
         <v>0.9869474005130148</v>
@@ -16013,6 +17679,12 @@
       <c r="P278" t="n">
         <v>4.885132779928438e-24</v>
       </c>
+      <c r="Q278" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R278" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -16069,6 +17741,12 @@
       <c r="P279" t="n">
         <v>1.092526223332746e-22</v>
       </c>
+      <c r="Q279" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R279" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -16125,6 +17803,12 @@
       <c r="P280" t="n">
         <v>6.362949197145883e-25</v>
       </c>
+      <c r="Q280" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R280" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -16152,7 +17836,7 @@
         <v>1.317145</v>
       </c>
       <c r="G281" t="n">
-        <v>0.922001</v>
+        <v>0.9220009999999998</v>
       </c>
       <c r="H281" t="n">
         <v>1.317145</v>
@@ -16161,7 +17845,7 @@
         <v>1.00000000761697</v>
       </c>
       <c r="J281" t="n">
-        <v>0.6999996257229492</v>
+        <v>0.699999625722949</v>
       </c>
       <c r="K281" t="n">
         <v>1.00000000761697</v>
@@ -16181,6 +17865,12 @@
       <c r="P281" t="n">
         <v>9.857383139819009e-24</v>
       </c>
+      <c r="Q281" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R281" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -16214,7 +17904,7 @@
         <v>0.568014</v>
       </c>
       <c r="I282" t="n">
-        <v>0.9999999712503618</v>
+        <v>0.9999999712503617</v>
       </c>
       <c r="J282" t="n">
         <v>0.7397824247979611</v>
@@ -16237,6 +17927,12 @@
       <c r="P282" t="n">
         <v>7.960650667632903e-23</v>
       </c>
+      <c r="Q282" t="n">
+        <v>5944</v>
+      </c>
+      <c r="R282" t="n">
+        <v>11888</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -16270,7 +17966,7 @@
         <v>0.666084</v>
       </c>
       <c r="I283" t="n">
-        <v>0.99999998619604</v>
+        <v>0.9999999861960399</v>
       </c>
       <c r="J283" t="n">
         <v>0.822424065914116</v>
@@ -16293,6 +17989,12 @@
       <c r="P283" t="n">
         <v>4.293414672296214e-23</v>
       </c>
+      <c r="Q283" t="n">
+        <v>7251</v>
+      </c>
+      <c r="R283" t="n">
+        <v>14498</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -16349,6 +18051,12 @@
       <c r="P284" t="n">
         <v>1.162493492197948e-23</v>
       </c>
+      <c r="Q284" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R284" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -16405,6 +18113,12 @@
       <c r="P285" t="n">
         <v>1.542862750121127e-22</v>
       </c>
+      <c r="Q285" t="n">
+        <v>3837</v>
+      </c>
+      <c r="R285" t="n">
+        <v>7670</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -16461,6 +18175,12 @@
       <c r="P286" t="n">
         <v>1.570653133292809e-17</v>
       </c>
+      <c r="Q286" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R286" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -16517,6 +18237,12 @@
       <c r="P287" t="n">
         <v>6.397138171412663e-24</v>
       </c>
+      <c r="Q287" t="n">
+        <v>6325</v>
+      </c>
+      <c r="R287" t="n">
+        <v>12646</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -16573,6 +18299,12 @@
       <c r="P288" t="n">
         <v>9.761605742096816e-24</v>
       </c>
+      <c r="Q288" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R288" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -16629,6 +18361,12 @@
       <c r="P289" t="n">
         <v>3.403799108704232e-23</v>
       </c>
+      <c r="Q289" t="n">
+        <v>6164</v>
+      </c>
+      <c r="R289" t="n">
+        <v>12324</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -16685,6 +18423,12 @@
       <c r="P290" t="n">
         <v>9.585478672469192e-23</v>
       </c>
+      <c r="Q290" t="n">
+        <v>6144</v>
+      </c>
+      <c r="R290" t="n">
+        <v>12284</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -16741,6 +18485,12 @@
       <c r="P291" t="n">
         <v>4.9339461843411e-23</v>
       </c>
+      <c r="Q291" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R291" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -16797,6 +18547,12 @@
       <c r="P292" t="n">
         <v>8.036794373249158e-24</v>
       </c>
+      <c r="Q292" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R292" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -16824,7 +18580,7 @@
         <v>0.513533</v>
       </c>
       <c r="G293" t="n">
-        <v>0.576561</v>
+        <v>0.5765610000000001</v>
       </c>
       <c r="H293" t="n">
         <v>1.922768</v>
@@ -16836,7 +18592,7 @@
         <v>0.2998598899935627</v>
       </c>
       <c r="K293" t="n">
-        <v>1.000000001670496</v>
+        <v>1.000000001670495</v>
       </c>
       <c r="L293" t="n">
         <v>-0.0001527403993855865</v>
@@ -16853,6 +18609,12 @@
       <c r="P293" t="n">
         <v>4.120344693569752e-23</v>
       </c>
+      <c r="Q293" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R293" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -16909,6 +18671,12 @@
       <c r="P294" t="n">
         <v>1.446727609435939e-23</v>
       </c>
+      <c r="Q294" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R294" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -16965,6 +18733,12 @@
       <c r="P295" t="n">
         <v>3.131228396499239e-24</v>
       </c>
+      <c r="Q295" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R295" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -17001,10 +18775,10 @@
         <v>0.7865732061500167</v>
       </c>
       <c r="J296" t="n">
-        <v>0.9999999655888759</v>
+        <v>0.9999999655888758</v>
       </c>
       <c r="K296" t="n">
-        <v>0.8280681490985654</v>
+        <v>0.8280681490985653</v>
       </c>
       <c r="L296" t="n">
         <v>-6.341951187422837e-05</v>
@@ -17021,6 +18795,12 @@
       <c r="P296" t="n">
         <v>8.800497744125879e-24</v>
       </c>
+      <c r="Q296" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R296" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -17051,7 +18831,7 @@
         <v>1.351493</v>
       </c>
       <c r="H297" t="n">
-        <v>0.956705</v>
+        <v>0.9567050000000001</v>
       </c>
       <c r="I297" t="n">
         <v>1.000000032066436</v>
@@ -17060,7 +18840,7 @@
         <v>0.9621173976762154</v>
       </c>
       <c r="K297" t="n">
-        <v>0.6810708786089337</v>
+        <v>0.6810708786089338</v>
       </c>
       <c r="L297" t="n">
         <v>-6.775973382415578e-05</v>
@@ -17077,6 +18857,12 @@
       <c r="P297" t="n">
         <v>1.024271156138883e-24</v>
       </c>
+      <c r="Q297" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R297" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -17113,7 +18899,7 @@
         <v>0.8524969335932183</v>
       </c>
       <c r="J298" t="n">
-        <v>0.9999999921199236</v>
+        <v>0.9999999921199235</v>
       </c>
       <c r="K298" t="n">
         <v>0.7536234888491589</v>
@@ -17133,6 +18919,12 @@
       <c r="P298" t="n">
         <v>1.914540527297381e-23</v>
       </c>
+      <c r="Q298" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R298" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -17189,6 +18981,12 @@
       <c r="P299" t="n">
         <v>3.790161897517869e-24</v>
       </c>
+      <c r="Q299" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R299" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -17245,6 +19043,12 @@
       <c r="P300" t="n">
         <v>4.934532875480022e-24</v>
       </c>
+      <c r="Q300" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R300" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -17301,6 +19105,12 @@
       <c r="P301" t="n">
         <v>2.47599308820578e-25</v>
       </c>
+      <c r="Q301" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R301" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -17357,6 +19167,12 @@
       <c r="P302" t="n">
         <v>1.312351605632143e-22</v>
       </c>
+      <c r="Q302" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R302" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -17390,7 +19206,7 @@
         <v>1.831551</v>
       </c>
       <c r="I303" t="n">
-        <v>0.6560445376706823</v>
+        <v>0.6560445376706822</v>
       </c>
       <c r="J303" t="n">
         <v>0.0899003107071957</v>
@@ -17413,6 +19229,12 @@
       <c r="P303" t="n">
         <v>1.554855836846163e-22</v>
       </c>
+      <c r="Q303" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R303" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -17449,7 +19271,7 @@
         <v>0.6687465299715443</v>
       </c>
       <c r="J304" t="n">
-        <v>0.09065332101643718</v>
+        <v>0.09065332101643717</v>
       </c>
       <c r="K304" t="n">
         <v>0.9999999709692324</v>
@@ -17469,6 +19291,12 @@
       <c r="P304" t="n">
         <v>2.040372988583139e-22</v>
       </c>
+      <c r="Q304" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R304" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -17525,6 +19353,12 @@
       <c r="P305" t="n">
         <v>9.928865479608775e-23</v>
       </c>
+      <c r="Q305" t="n">
+        <v>6819</v>
+      </c>
+      <c r="R305" t="n">
+        <v>13634</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -17581,6 +19415,12 @@
       <c r="P306" t="n">
         <v>3.490994503839742e-23</v>
       </c>
+      <c r="Q306" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R306" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -17637,6 +19477,12 @@
       <c r="P307" t="n">
         <v>4.080634555938162e-23</v>
       </c>
+      <c r="Q307" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R307" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -17676,7 +19522,7 @@
         <v>0.09053226763098696</v>
       </c>
       <c r="K308" t="n">
-        <v>0.9999999748487388</v>
+        <v>0.9999999748487389</v>
       </c>
       <c r="L308" t="n">
         <v>-0.0001716805074969585</v>
@@ -17693,6 +19539,12 @@
       <c r="P308" t="n">
         <v>3.971183342769017e-23</v>
       </c>
+      <c r="Q308" t="n">
+        <v>5202</v>
+      </c>
+      <c r="R308" t="n">
+        <v>10400</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -17749,6 +19601,12 @@
       <c r="P309" t="n">
         <v>1.491096071253239e-23</v>
       </c>
+      <c r="Q309" t="n">
+        <v>6104</v>
+      </c>
+      <c r="R309" t="n">
+        <v>12204</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -17805,6 +19663,12 @@
       <c r="P310" t="n">
         <v>5.736450599379793e-23</v>
       </c>
+      <c r="Q310" t="n">
+        <v>5110</v>
+      </c>
+      <c r="R310" t="n">
+        <v>10216</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -17841,7 +19705,7 @@
         <v>0.9999999997353576</v>
       </c>
       <c r="J311" t="n">
-        <v>0.09825511364638043</v>
+        <v>0.09825511364638041</v>
       </c>
       <c r="K311" t="n">
         <v>0.8566981600353731</v>
@@ -17861,6 +19725,12 @@
       <c r="P311" t="n">
         <v>3.38368485559877e-23</v>
       </c>
+      <c r="Q311" t="n">
+        <v>5508</v>
+      </c>
+      <c r="R311" t="n">
+        <v>11012</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -17894,13 +19764,13 @@
         <v>1.418121</v>
       </c>
       <c r="I312" t="n">
-        <v>0.9999999984369756</v>
+        <v>0.9999999984369755</v>
       </c>
       <c r="J312" t="n">
         <v>0.08871634243457914</v>
       </c>
       <c r="K312" t="n">
-        <v>0.8277170486895651</v>
+        <v>0.827717048689565</v>
       </c>
       <c r="L312" t="n">
         <v>-0.000323329131652549</v>
@@ -17917,6 +19787,12 @@
       <c r="P312" t="n">
         <v>3.199018473265579e-22</v>
       </c>
+      <c r="Q312" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R312" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -17973,6 +19849,12 @@
       <c r="P313" t="n">
         <v>8.357133296166329e-23</v>
       </c>
+      <c r="Q313" t="n">
+        <v>7398</v>
+      </c>
+      <c r="R313" t="n">
+        <v>14792</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -18029,6 +19911,12 @@
       <c r="P314" t="n">
         <v>1.622327113995699e-22</v>
       </c>
+      <c r="Q314" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R314" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -18068,7 +19956,7 @@
         <v>0.09113745032425719</v>
       </c>
       <c r="K315" t="n">
-        <v>0.9999999968270349</v>
+        <v>0.9999999968270348</v>
       </c>
       <c r="L315" t="n">
         <v>-0.000349217402734266</v>
@@ -18085,6 +19973,12 @@
       <c r="P315" t="n">
         <v>2.55737583985034e-22</v>
       </c>
+      <c r="Q315" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R315" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -18118,7 +20012,7 @@
         <v>1.860784</v>
       </c>
       <c r="I316" t="n">
-        <v>0.6505381414497481</v>
+        <v>0.650538141449748</v>
       </c>
       <c r="J316" t="n">
         <v>0.09002764165872486</v>
@@ -18141,6 +20035,12 @@
       <c r="P316" t="n">
         <v>7.079381624588625e-24</v>
       </c>
+      <c r="Q316" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R316" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -18174,7 +20074,7 @@
         <v>1.870715</v>
       </c>
       <c r="I317" t="n">
-        <v>0.6504619814526442</v>
+        <v>0.6504619814526441</v>
       </c>
       <c r="J317" t="n">
         <v>0.09005166367459511</v>
@@ -18197,6 +20097,12 @@
       <c r="P317" t="n">
         <v>1.777720782335177e-23</v>
       </c>
+      <c r="Q317" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R317" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -18253,6 +20159,12 @@
       <c r="P318" t="n">
         <v>3.725601183415458e-23</v>
       </c>
+      <c r="Q318" t="n">
+        <v>5201</v>
+      </c>
+      <c r="R318" t="n">
+        <v>10398</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -18309,6 +20221,12 @@
       <c r="P319" t="n">
         <v>1.224729708713547e-23</v>
       </c>
+      <c r="Q319" t="n">
+        <v>6198</v>
+      </c>
+      <c r="R319" t="n">
+        <v>12392</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -18365,6 +20283,12 @@
       <c r="P320" t="n">
         <v>5.975184847575743e-22</v>
       </c>
+      <c r="Q320" t="n">
+        <v>6564</v>
+      </c>
+      <c r="R320" t="n">
+        <v>13124</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -18421,6 +20345,12 @@
       <c r="P321" t="n">
         <v>1.715621738932254e-22</v>
       </c>
+      <c r="Q321" t="n">
+        <v>7124</v>
+      </c>
+      <c r="R321" t="n">
+        <v>14244</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -18454,7 +20384,7 @@
         <v>0.858125</v>
       </c>
       <c r="I322" t="n">
-        <v>0.9999999980023959</v>
+        <v>0.999999998002396</v>
       </c>
       <c r="J322" t="n">
         <v>0.649901217401174</v>
@@ -18477,6 +20407,12 @@
       <c r="P322" t="n">
         <v>3.617525463469678e-24</v>
       </c>
+      <c r="Q322" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R322" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -18513,7 +20449,7 @@
         <v>1.000000026367493</v>
       </c>
       <c r="J323" t="n">
-        <v>0.1571630654730681</v>
+        <v>0.1571630654730682</v>
       </c>
       <c r="K323" t="n">
         <v>0.5069151194683209</v>
@@ -18533,6 +20469,12 @@
       <c r="P323" t="n">
         <v>3.934561288957012e-23</v>
       </c>
+      <c r="Q323" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R323" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -18572,7 +20514,7 @@
         <v>0.1569240317511403</v>
       </c>
       <c r="K324" t="n">
-        <v>0.5069901856003113</v>
+        <v>0.5069901856003112</v>
       </c>
       <c r="L324" t="n">
         <v>-0.0001030325782092838</v>
@@ -18589,6 +20531,12 @@
       <c r="P324" t="n">
         <v>7.534672837510349e-24</v>
       </c>
+      <c r="Q324" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R324" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -18645,6 +20593,12 @@
       <c r="P325" t="n">
         <v>2.73701997235868e-24</v>
       </c>
+      <c r="Q325" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R325" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -18672,19 +20626,19 @@
         <v>1.272061</v>
       </c>
       <c r="G326" t="n">
-        <v>0.9759989999999999</v>
+        <v>0.9759990000000001</v>
       </c>
       <c r="H326" t="n">
         <v>1.272035</v>
       </c>
       <c r="I326" t="n">
-        <v>1.000000007599041</v>
+        <v>1.00000000759904</v>
       </c>
       <c r="J326" t="n">
-        <v>0.7672580225450318</v>
+        <v>0.7672580225450319</v>
       </c>
       <c r="K326" t="n">
-        <v>0.999979568327498</v>
+        <v>0.9999795683274979</v>
       </c>
       <c r="L326" t="n">
         <v>-5.970112070271359e-05</v>
@@ -18701,6 +20655,12 @@
       <c r="P326" t="n">
         <v>1.041123829255062e-24</v>
       </c>
+      <c r="Q326" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R326" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -18737,7 +20697,7 @@
         <v>0.9998593543898822</v>
       </c>
       <c r="J327" t="n">
-        <v>0.6834261812942388</v>
+        <v>0.6834261812942387</v>
       </c>
       <c r="K327" t="n">
         <v>1.000000026639831</v>
@@ -18757,6 +20717,12 @@
       <c r="P327" t="n">
         <v>1.204398815007975e-23</v>
       </c>
+      <c r="Q327" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R327" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -18784,7 +20750,7 @@
         <v>1.619892</v>
       </c>
       <c r="G328" t="n">
-        <v>0.73254</v>
+        <v>0.7325400000000001</v>
       </c>
       <c r="H328" t="n">
         <v>1.619927</v>
@@ -18813,6 +20779,12 @@
       <c r="P328" t="n">
         <v>7.389992155158412e-24</v>
       </c>
+      <c r="Q328" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R328" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -18846,10 +20818,10 @@
         <v>1.968642</v>
       </c>
       <c r="I329" t="n">
-        <v>0.9999563169007747</v>
+        <v>0.9999563169007748</v>
       </c>
       <c r="J329" t="n">
-        <v>0.3050971182690061</v>
+        <v>0.3050971182690062</v>
       </c>
       <c r="K329" t="n">
         <v>1.000000001836968</v>
@@ -18869,6 +20841,12 @@
       <c r="P329" t="n">
         <v>4.997991143135685e-24</v>
       </c>
+      <c r="Q329" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R329" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -18925,6 +20903,12 @@
       <c r="P330" t="n">
         <v>2.439303402911693e-24</v>
       </c>
+      <c r="Q330" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R330" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -18955,7 +20939,7 @@
         <v>1.13311</v>
       </c>
       <c r="H331" t="n">
-        <v>0.9336960000000001</v>
+        <v>0.933696</v>
       </c>
       <c r="I331" t="n">
         <v>0.8241609038574189</v>
@@ -18964,7 +20948,7 @@
         <v>0.9999999590624769</v>
       </c>
       <c r="K331" t="n">
-        <v>0.824011756825726</v>
+        <v>0.8240117568257259</v>
       </c>
       <c r="L331" t="n">
         <v>-4.555276529937402e-05</v>
@@ -18981,6 +20965,12 @@
       <c r="P331" t="n">
         <v>7.848813985355993e-24</v>
       </c>
+      <c r="Q331" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R331" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -19020,7 +21010,7 @@
         <v>0.4462185670842821</v>
       </c>
       <c r="K332" t="n">
-        <v>0.9999999871582632</v>
+        <v>0.9999999871582631</v>
       </c>
       <c r="L332" t="n">
         <v>-1.818903591682681e-05</v>
@@ -19037,6 +21027,12 @@
       <c r="P332" t="n">
         <v>3.554104364030832e-24</v>
       </c>
+      <c r="Q332" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R332" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -19070,7 +21066,7 @@
         <v>1.646401</v>
       </c>
       <c r="I333" t="n">
-        <v>0.3916153970492968</v>
+        <v>0.3916153970492969</v>
       </c>
       <c r="J333" t="n">
         <v>0.4307711058541469</v>
@@ -19093,6 +21089,12 @@
       <c r="P333" t="n">
         <v>4.180334770715689e-23</v>
       </c>
+      <c r="Q333" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R333" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -19126,13 +21128,13 @@
         <v>0.567774</v>
       </c>
       <c r="I334" t="n">
-        <v>0.7363988985504749</v>
+        <v>0.736398898550475</v>
       </c>
       <c r="J334" t="n">
         <v>1.00000002215612</v>
       </c>
       <c r="K334" t="n">
-        <v>0.3536770344708671</v>
+        <v>0.3536770344708672</v>
       </c>
       <c r="L334" t="n">
         <v>-3.794433399602055e-05</v>
@@ -19149,6 +21151,12 @@
       <c r="P334" t="n">
         <v>2.99765041070593e-24</v>
       </c>
+      <c r="Q334" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R334" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -19179,10 +21187,10 @@
         <v>1.590725</v>
       </c>
       <c r="H335" t="n">
-        <v>0.9477530000000001</v>
+        <v>0.947753</v>
       </c>
       <c r="I335" t="n">
-        <v>0.961684170945254</v>
+        <v>0.9616841709452539</v>
       </c>
       <c r="J335" t="n">
         <v>1.000000034532457</v>
@@ -19205,6 +21213,12 @@
       <c r="P335" t="n">
         <v>1.398460784070385e-23</v>
       </c>
+      <c r="Q335" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R335" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -19232,7 +21246,7 @@
         <v>1.913528</v>
       </c>
       <c r="G336" t="n">
-        <v>0.921137</v>
+        <v>0.9211369999999999</v>
       </c>
       <c r="H336" t="n">
         <v>1.425513</v>
@@ -19261,6 +21275,12 @@
       <c r="P336" t="n">
         <v>1.232413524756182e-23</v>
       </c>
+      <c r="Q336" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R336" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -19297,7 +21317,7 @@
         <v>0.9999999684288026</v>
       </c>
       <c r="J337" t="n">
-        <v>0.4015595487554298</v>
+        <v>0.4015595487554299</v>
       </c>
       <c r="K337" t="n">
         <v>0.8628422854307706</v>
@@ -19317,6 +21337,12 @@
       <c r="P337" t="n">
         <v>3.131445698429749e-23</v>
       </c>
+      <c r="Q337" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R337" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -19344,7 +21370,7 @@
         <v>1.936362</v>
       </c>
       <c r="G338" t="n">
-        <v>0.785578</v>
+        <v>0.7855780000000001</v>
       </c>
       <c r="H338" t="n">
         <v>1.947643</v>
@@ -19356,7 +21382,7 @@
         <v>0.4033480382269228</v>
       </c>
       <c r="K338" t="n">
-        <v>0.999999978635347</v>
+        <v>0.9999999786353471</v>
       </c>
       <c r="L338" t="n">
         <v>-7.701620687171572e-05</v>
@@ -19373,6 +21399,12 @@
       <c r="P338" t="n">
         <v>1.271159097802146e-23</v>
       </c>
+      <c r="Q338" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R338" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -19412,7 +21444,7 @@
         <v>0.7026452683457048</v>
       </c>
       <c r="K339" t="n">
-        <v>0.9999999579425187</v>
+        <v>0.9999999579425188</v>
       </c>
       <c r="L339" t="n">
         <v>-5.556721738558083e-05</v>
@@ -19429,6 +21461,12 @@
       <c r="P339" t="n">
         <v>6.736732553132556e-24</v>
       </c>
+      <c r="Q339" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R339" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -19485,6 +21523,12 @@
       <c r="P340" t="n">
         <v>4.045676162510326e-24</v>
       </c>
+      <c r="Q340" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R340" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -19521,7 +21565,7 @@
         <v>0.7130916128705225</v>
       </c>
       <c r="J341" t="n">
-        <v>0.9999999741454585</v>
+        <v>0.9999999741454584</v>
       </c>
       <c r="K341" t="n">
         <v>0.2969496774901857</v>
@@ -19541,6 +21585,12 @@
       <c r="P341" t="n">
         <v>2.211016294776102e-23</v>
       </c>
+      <c r="Q341" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R341" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -19577,7 +21627,7 @@
         <v>0.8079225829606854</v>
       </c>
       <c r="J342" t="n">
-        <v>0.9999999652096992</v>
+        <v>0.9999999652096991</v>
       </c>
       <c r="K342" t="n">
         <v>0.3926315211927777</v>
@@ -19597,6 +21647,12 @@
       <c r="P342" t="n">
         <v>4.193509887437602e-24</v>
       </c>
+      <c r="Q342" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R342" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -19633,7 +21689,7 @@
         <v>0.5511345945395978</v>
       </c>
       <c r="J343" t="n">
-        <v>0.9999999880809328</v>
+        <v>0.9999999880809327</v>
       </c>
       <c r="K343" t="n">
         <v>0.501916846272381</v>
@@ -19653,6 +21709,12 @@
       <c r="P343" t="n">
         <v>1.965164580177365e-23</v>
       </c>
+      <c r="Q343" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R343" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -19683,7 +21745,7 @@
         <v>1.863775</v>
       </c>
       <c r="H344" t="n">
-        <v>0.841098</v>
+        <v>0.8410980000000001</v>
       </c>
       <c r="I344" t="n">
         <v>0.6480299340634206</v>
@@ -19709,6 +21771,12 @@
       <c r="P344" t="n">
         <v>1.638062986058047e-23</v>
       </c>
+      <c r="Q344" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R344" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -19745,7 +21813,7 @@
         <v>0.7782182850365749</v>
       </c>
       <c r="J345" t="n">
-        <v>0.9999999780566876</v>
+        <v>0.9999999780566875</v>
       </c>
       <c r="K345" t="n">
         <v>0.4748282657464363</v>
@@ -19765,6 +21833,12 @@
       <c r="P345" t="n">
         <v>1.498446978478391e-23</v>
       </c>
+      <c r="Q345" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R345" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -19804,7 +21878,7 @@
         <v>0.9999999813332989</v>
       </c>
       <c r="K346" t="n">
-        <v>0.4123158340166685</v>
+        <v>0.4123158340166686</v>
       </c>
       <c r="L346" t="n">
         <v>-0.0001470956708688078</v>
@@ -19821,6 +21895,12 @@
       <c r="P346" t="n">
         <v>4.713004146447783e-23</v>
       </c>
+      <c r="Q346" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R346" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -19877,6 +21957,12 @@
       <c r="P347" t="n">
         <v>6.807201868070945e-24</v>
       </c>
+      <c r="Q347" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R347" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -19933,6 +22019,12 @@
       <c r="P348" t="n">
         <v>3.133354545567244e-23</v>
       </c>
+      <c r="Q348" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R348" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -19966,7 +22058,7 @@
         <v>0.652934</v>
       </c>
       <c r="I349" t="n">
-        <v>0.6531994561100201</v>
+        <v>0.6531994561100202</v>
       </c>
       <c r="J349" t="n">
         <v>1.000000003327119</v>
@@ -19989,6 +22081,12 @@
       <c r="P349" t="n">
         <v>4.782857761698666e-23</v>
       </c>
+      <c r="Q349" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R349" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -20019,7 +22117,7 @@
         <v>1.815483</v>
       </c>
       <c r="H350" t="n">
-        <v>0.585582</v>
+        <v>0.5855819999999998</v>
       </c>
       <c r="I350" t="n">
         <v>0.8731918848357205</v>
@@ -20028,7 +22126,7 @@
         <v>1.000000014292379</v>
       </c>
       <c r="K350" t="n">
-        <v>0.3225488800332253</v>
+        <v>0.3225488800332252</v>
       </c>
       <c r="L350" t="n">
         <v>-8.27800334368247e-05</v>
@@ -20045,6 +22143,12 @@
       <c r="P350" t="n">
         <v>2.287296645435349e-24</v>
       </c>
+      <c r="Q350" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R350" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -20075,7 +22179,7 @@
         <v>1.743237</v>
       </c>
       <c r="H351" t="n">
-        <v>0.557333</v>
+        <v>0.5573330000000001</v>
       </c>
       <c r="I351" t="n">
         <v>0.8734847778965834</v>
@@ -20101,6 +22205,12 @@
       <c r="P351" t="n">
         <v>1.233789067950256e-23</v>
       </c>
+      <c r="Q351" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R351" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -20134,10 +22244,10 @@
         <v>0.8851290000000001</v>
       </c>
       <c r="I352" t="n">
-        <v>0.5887035890644567</v>
+        <v>0.5887035890644566</v>
       </c>
       <c r="J352" t="n">
-        <v>0.9999999860718523</v>
+        <v>0.9999999860718524</v>
       </c>
       <c r="K352" t="n">
         <v>0.4924970455439366</v>
@@ -20157,6 +22267,12 @@
       <c r="P352" t="n">
         <v>2.031701083179815e-24</v>
       </c>
+      <c r="Q352" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R352" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -20213,6 +22329,12 @@
       <c r="P353" t="n">
         <v>1.674620491029199e-23</v>
       </c>
+      <c r="Q353" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R353" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -20237,7 +22359,7 @@
         </is>
       </c>
       <c r="F354" t="n">
-        <v>0.900467</v>
+        <v>0.9004669999999999</v>
       </c>
       <c r="G354" t="n">
         <v>1.595283</v>
@@ -20246,10 +22368,10 @@
         <v>0.907945</v>
       </c>
       <c r="I354" t="n">
-        <v>0.5644559505994678</v>
+        <v>0.5644559505994677</v>
       </c>
       <c r="J354" t="n">
-        <v>0.9999999802770905</v>
+        <v>0.9999999802770904</v>
       </c>
       <c r="K354" t="n">
         <v>0.5691435200479682</v>
@@ -20269,6 +22391,12 @@
       <c r="P354" t="n">
         <v>1.499370772978462e-25</v>
       </c>
+      <c r="Q354" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R354" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -20325,6 +22453,12 @@
       <c r="P355" t="n">
         <v>9.750229677243107e-26</v>
       </c>
+      <c r="Q355" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R355" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -20355,7 +22489,7 @@
         <v>1.901507</v>
       </c>
       <c r="H356" t="n">
-        <v>0.82036</v>
+        <v>0.8203600000000002</v>
       </c>
       <c r="I356" t="n">
         <v>0.6297978326696445</v>
@@ -20364,7 +22498,7 @@
         <v>0.9999999894837922</v>
       </c>
       <c r="K356" t="n">
-        <v>0.4314262273938112</v>
+        <v>0.4314262273938113</v>
       </c>
       <c r="L356" t="n">
         <v>-0.0001512229957805388</v>
@@ -20381,6 +22515,12 @@
       <c r="P356" t="n">
         <v>8.158209676387715e-24</v>
       </c>
+      <c r="Q356" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R356" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -20411,7 +22551,7 @@
         <v>1.632647</v>
       </c>
       <c r="H357" t="n">
-        <v>0.936437</v>
+        <v>0.9364370000000001</v>
       </c>
       <c r="I357" t="n">
         <v>0.8709243132992144</v>
@@ -20437,6 +22577,12 @@
       <c r="P357" t="n">
         <v>1.243183650771938e-23</v>
       </c>
+      <c r="Q357" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R357" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -20493,6 +22639,12 @@
       <c r="P358" t="n">
         <v>2.756878499863981e-24</v>
       </c>
+      <c r="Q358" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R358" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -20532,7 +22684,7 @@
         <v>0.9999999782071367</v>
       </c>
       <c r="K359" t="n">
-        <v>0.5469120118518115</v>
+        <v>0.5469120118518116</v>
       </c>
       <c r="L359" t="n">
         <v>-8.743917864483348e-05</v>
@@ -20549,6 +22701,12 @@
       <c r="P359" t="n">
         <v>4.112802072205485e-24</v>
       </c>
+      <c r="Q359" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R359" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -20585,7 +22743,7 @@
         <v>0.7893965562395187</v>
       </c>
       <c r="J360" t="n">
-        <v>0.9999999943273347</v>
+        <v>0.9999999943273346</v>
       </c>
       <c r="K360" t="n">
         <v>0.5616256508681201</v>
@@ -20605,6 +22763,12 @@
       <c r="P360" t="n">
         <v>7.752833326707193e-24</v>
       </c>
+      <c r="Q360" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R360" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -20661,6 +22825,12 @@
       <c r="P361" t="n">
         <v>1.30951887687729e-23</v>
       </c>
+      <c r="Q361" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R361" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -20694,7 +22864,7 @@
         <v>1.044893</v>
       </c>
       <c r="I362" t="n">
-        <v>0.5192346719139826</v>
+        <v>0.5192346719139828</v>
       </c>
       <c r="J362" t="n">
         <v>1.000000024910681</v>
@@ -20717,6 +22887,12 @@
       <c r="P362" t="n">
         <v>3.62825801983895e-24</v>
       </c>
+      <c r="Q362" t="n">
+        <v>4992</v>
+      </c>
+      <c r="R362" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -20741,7 +22917,7 @@
         </is>
       </c>
       <c r="F363" t="n">
-        <v>0.738683</v>
+        <v>0.7386829999999999</v>
       </c>
       <c r="G363" t="n">
         <v>1.633511</v>
@@ -20750,13 +22926,13 @@
         <v>0.7373810000000001</v>
       </c>
       <c r="I363" t="n">
-        <v>0.4522057236615098</v>
+        <v>0.4522057236615097</v>
       </c>
       <c r="J363" t="n">
         <v>1.000000032306194</v>
       </c>
       <c r="K363" t="n">
-        <v>0.4514086674788073</v>
+        <v>0.4514086674788072</v>
       </c>
       <c r="L363" t="n">
         <v>6.182025421340739e-06</v>
@@ -20773,6 +22949,12 @@
       <c r="P363" t="n">
         <v>1.961565616435804e-25</v>
       </c>
+      <c r="Q363" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R363" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -20809,7 +22991,7 @@
         <v>0.3669591195421031</v>
       </c>
       <c r="J364" t="n">
-        <v>0.9999999671720124</v>
+        <v>0.9999999671720123</v>
       </c>
       <c r="K364" t="n">
         <v>0.3600048551984045</v>
@@ -20829,6 +23011,12 @@
       <c r="P364" t="n">
         <v>5.701170891439292e-25</v>
       </c>
+      <c r="Q364" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R364" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -20885,6 +23073,12 @@
       <c r="P365" t="n">
         <v>1.436452042401213e-25</v>
       </c>
+      <c r="Q365" t="n">
+        <v>4998</v>
+      </c>
+      <c r="R365" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -20921,10 +23115,10 @@
         <v>1.000000020329711</v>
       </c>
       <c r="J366" t="n">
-        <v>0.7992527797373649</v>
+        <v>0.7992527797373647</v>
       </c>
       <c r="K366" t="n">
-        <v>0.9972338762711345</v>
+        <v>0.9972338762711346</v>
       </c>
       <c r="L366" t="n">
         <v>4.56664200090647e-05</v>
@@ -20941,6 +23135,12 @@
       <c r="P366" t="n">
         <v>7.890526338092092e-25</v>
       </c>
+      <c r="Q366" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R366" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -20965,13 +23165,13 @@
         </is>
       </c>
       <c r="F367" t="n">
-        <v>0.915131</v>
+        <v>0.9151309999999999</v>
       </c>
       <c r="G367" t="n">
         <v>1.844393</v>
       </c>
       <c r="H367" t="n">
-        <v>0.941354</v>
+        <v>0.9413539999999998</v>
       </c>
       <c r="I367" t="n">
         <v>0.496169196371484</v>
@@ -20980,7 +23180,7 @@
         <v>0.9999999919172124</v>
       </c>
       <c r="K367" t="n">
-        <v>0.5103868819667151</v>
+        <v>0.510386881966715</v>
       </c>
       <c r="L367" t="n">
         <v>2.160665601215932e-06</v>
@@ -20997,6 +23197,12 @@
       <c r="P367" t="n">
         <v>4.85679809124972e-25</v>
       </c>
+      <c r="Q367" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R367" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -21053,6 +23259,12 @@
       <c r="P368" t="n">
         <v>5.535226991850852e-22</v>
       </c>
+      <c r="Q368" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R368" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -21089,7 +23301,7 @@
         <v>0.8025557912732286</v>
       </c>
       <c r="J369" t="n">
-        <v>0.9999999697292615</v>
+        <v>0.9999999697292616</v>
       </c>
       <c r="K369" t="n">
         <v>0.9178348861599129</v>
@@ -21109,6 +23321,12 @@
       <c r="P369" t="n">
         <v>1.353350298691968e-24</v>
       </c>
+      <c r="Q369" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R369" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -21148,7 +23366,7 @@
         <v>1.0000000075949</v>
       </c>
       <c r="K370" t="n">
-        <v>0.6596231574930181</v>
+        <v>0.659623157493018</v>
       </c>
       <c r="L370" t="n">
         <v>-5.8574158456164e-06</v>
@@ -21165,6 +23383,12 @@
       <c r="P370" t="n">
         <v>1.668570578381686e-25</v>
       </c>
+      <c r="Q370" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R370" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -21221,6 +23445,12 @@
       <c r="P371" t="n">
         <v>1.199172314760121e-25</v>
       </c>
+      <c r="Q371" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R371" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -21257,7 +23487,7 @@
         <v>0.6514335241861142</v>
       </c>
       <c r="J372" t="n">
-        <v>0.9999999985155975</v>
+        <v>0.9999999985155974</v>
       </c>
       <c r="K372" t="n">
         <v>0.6545073990656334</v>
@@ -21277,6 +23507,12 @@
       <c r="P372" t="n">
         <v>8.121066465290072e-25</v>
       </c>
+      <c r="Q372" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R372" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -21313,7 +23549,7 @@
         <v>1.000000030821035</v>
       </c>
       <c r="J373" t="n">
-        <v>0.7864781187423953</v>
+        <v>0.7864781187423954</v>
       </c>
       <c r="K373" t="n">
         <v>0.5163845556180848</v>
@@ -21333,6 +23569,12 @@
       <c r="P373" t="n">
         <v>1.168117366743623e-24</v>
       </c>
+      <c r="Q373" t="n">
+        <v>6684</v>
+      </c>
+      <c r="R373" t="n">
+        <v>13368</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -21389,6 +23631,12 @@
       <c r="P374" t="n">
         <v>2.442877859231058e-26</v>
       </c>
+      <c r="Q374" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R374" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -21419,7 +23667,7 @@
         <v>1.929384</v>
       </c>
       <c r="H375" t="n">
-        <v>0.675355</v>
+        <v>0.6753550000000001</v>
       </c>
       <c r="I375" t="n">
         <v>0.3521979048302344</v>
@@ -21445,6 +23693,12 @@
       <c r="P375" t="n">
         <v>4.637020094678956e-26</v>
       </c>
+      <c r="Q375" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R375" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -21478,7 +23732,7 @@
         <v>1.10368</v>
       </c>
       <c r="I376" t="n">
-        <v>0.9999999968724332</v>
+        <v>0.9999999968724333</v>
       </c>
       <c r="J376" t="n">
         <v>0.3687308995356757</v>
@@ -21501,6 +23755,12 @@
       <c r="P376" t="n">
         <v>1.130370182429624e-24</v>
       </c>
+      <c r="Q376" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R376" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -21557,6 +23817,12 @@
       <c r="P377" t="n">
         <v>4.142903461180508e-25</v>
       </c>
+      <c r="Q377" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R377" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -21593,7 +23859,7 @@
         <v>0.6320140670709313</v>
       </c>
       <c r="J378" t="n">
-        <v>0.9999999776231009</v>
+        <v>0.9999999776231007</v>
       </c>
       <c r="K378" t="n">
         <v>0.3910806871098854</v>
@@ -21613,6 +23879,12 @@
       <c r="P378" t="n">
         <v>2.776717799560667e-24</v>
       </c>
+      <c r="Q378" t="n">
+        <v>4998</v>
+      </c>
+      <c r="R378" t="n">
+        <v>10000</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -21669,6 +23941,12 @@
       <c r="P379" t="n">
         <v>1.173173793901159e-23</v>
       </c>
+      <c r="Q379" t="n">
+        <v>6684</v>
+      </c>
+      <c r="R379" t="n">
+        <v>13368</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -21705,7 +23983,7 @@
         <v>1.000000029986625</v>
       </c>
       <c r="J380" t="n">
-        <v>0.6408858209703966</v>
+        <v>0.6408858209703967</v>
       </c>
       <c r="K380" t="n">
         <v>0.506114253125341</v>
@@ -21725,6 +24003,12 @@
       <c r="P380" t="n">
         <v>7.051857755207935e-23</v>
       </c>
+      <c r="Q380" t="n">
+        <v>6923</v>
+      </c>
+      <c r="R380" t="n">
+        <v>13842</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -21780,6 +24064,12 @@
       </c>
       <c r="P381" t="n">
         <v>8.321585973758217e-25</v>
+      </c>
+      <c r="Q381" t="n">
+        <v>5002</v>
+      </c>
+      <c r="R381" t="n">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>

--- a/filter.xlsx
+++ b/filter.xlsx
@@ -553,19 +553,19 @@
         <v>0.2078255348573445</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.0001619698685142768</v>
+        <v>3.333647673752504e-12</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.0002181110645774014</v>
+        <v>5.899997332256443e-12</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0002044250316843923</v>
+        <v>-2.519171424961884e-12</v>
       </c>
       <c r="O2" t="n">
-        <v>1.155962683767843e-07</v>
+        <v>5.226940000169311e-23</v>
       </c>
       <c r="P2" t="n">
-        <v>5.226868590739096e-23</v>
+        <v>1.795461046039239e-32</v>
       </c>
       <c r="Q2" t="n">
         <v>5400</v>
@@ -615,19 +615,19 @@
         <v>0.1832733571101013</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0002199151551657749</v>
+        <v>1.07231806634047e-12</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.0002518670649157713</v>
+        <v>5.639992985343333e-12</v>
       </c>
       <c r="N3" t="n">
-        <v>-5.30278527196503e-05</v>
+        <v>1.319486389008563e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.146116470249292e-07</v>
+        <v>2.070638199880079e-22</v>
       </c>
       <c r="P3" t="n">
-        <v>2.070601529694745e-22</v>
+        <v>6.446946258029554e-31</v>
       </c>
       <c r="Q3" t="n">
         <v>5619</v>
@@ -677,19 +677,19 @@
         <v>0.1768129404424818</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0002302177644424806</v>
+        <v>-9.317342452325441e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.0002586307406793129</v>
+        <v>-4.483557339505679e-12</v>
       </c>
       <c r="N4" t="n">
-        <v>-7.960241032154398e-05</v>
+        <v>1.208176772474093e-11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.262266228182229e-07</v>
+        <v>1.669395264749659e-22</v>
       </c>
       <c r="P4" t="n">
-        <v>1.669388013027448e-22</v>
+        <v>5.874176637311259e-32</v>
       </c>
       <c r="Q4" t="n">
         <v>5519</v>

--- a/filter.xlsx
+++ b/filter.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.964937260569925</v>
+        <v>1.000000025693909</v>
       </c>
       <c r="G2" t="n">
-        <v>1.056611597794677</v>
+        <v>0.537733008654277</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4083641266465994</v>
+        <v>0.2078255348573445</v>
       </c>
       <c r="I2" t="n">
         <v>1.000000025693909</v>
@@ -597,13 +597,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.952257018319785</v>
+        <v>0.9999999903480966</v>
       </c>
       <c r="G3" t="n">
-        <v>1.612475222297122</v>
+        <v>0.8259543654356784</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3577967011426426</v>
+        <v>0.1832733571101013</v>
       </c>
       <c r="I3" t="n">
         <v>0.9999999903480966</v>
@@ -659,22 +659,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.717831498377894</v>
+        <v>0.8612752032017199</v>
       </c>
       <c r="G4" t="n">
-        <v>1.994520973487298</v>
+        <v>0.9999999757557537</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3526571266463967</v>
+        <v>0.1768129404424819</v>
       </c>
       <c r="I4" t="n">
         <v>0.8612752032017199</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9999999757557541</v>
+        <v>0.9999999757557537</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1768129404424818</v>
+        <v>0.1768129404424819</v>
       </c>
       <c r="L4" t="n">
         <v>-9.317342452325441e-13</v>
@@ -721,19 +721,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.853829318830543</v>
+        <v>1.000000029231244</v>
       </c>
       <c r="G5" t="n">
-        <v>1.539912230324001</v>
+        <v>0.830665617214954</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4110262063657221</v>
+        <v>0.2217174009524341</v>
       </c>
       <c r="I5" t="n">
         <v>1.000000029231244</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8306656172149541</v>
+        <v>0.830665617214954</v>
       </c>
       <c r="K5" t="n">
         <v>0.2217174009524341</v>
@@ -783,22 +783,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.696446839844403</v>
+        <v>0.98390598556124</v>
       </c>
       <c r="G6" t="n">
-        <v>1.724196022479481</v>
+        <v>0.9999999687311398</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3358040109394219</v>
+        <v>0.1947597582067903</v>
       </c>
       <c r="I6" t="n">
-        <v>0.98390598556124</v>
+        <v>0.9839060442066103</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9999999687311397</v>
+        <v>1.000000028335786</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1947597582067903</v>
+        <v>0.1947597698153772</v>
       </c>
       <c r="L6" t="n">
         <v>-9.800938787143797e-05</v>
@@ -845,13 +845,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.691207670373026</v>
+        <v>1.00000001362897</v>
       </c>
       <c r="G7" t="n">
-        <v>1.476586269409014</v>
+        <v>0.8730957855741492</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3054991541134507</v>
+        <v>0.1806396480035513</v>
       </c>
       <c r="I7" t="n">
         <v>1.00000001362897</v>
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.785033811552221</v>
+        <v>0.9999999941136068</v>
       </c>
       <c r="G8" t="n">
-        <v>1.624532478646993</v>
+        <v>0.9100849847049695</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4471574572529175</v>
+        <v>0.2505036328874555</v>
       </c>
       <c r="I8" t="n">
         <v>0.9999999941136068</v>
@@ -969,22 +969,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.764724749065293</v>
+        <v>1.000000009984549</v>
       </c>
       <c r="G9" t="n">
-        <v>1.41222649757494</v>
+        <v>0.8002531343334913</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3961713750094199</v>
+        <v>0.2244947146430904</v>
       </c>
       <c r="I9" t="n">
         <v>1.000000009984549</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8002531343334914</v>
+        <v>0.8002531343334913</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2244947146430905</v>
+        <v>0.2244947146430904</v>
       </c>
       <c r="L9" t="n">
         <v>-0.0002860987302028672</v>
@@ -1031,22 +1031,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.899471443225917</v>
+        <v>1.000000021615299</v>
       </c>
       <c r="G10" t="n">
-        <v>1.419641974973502</v>
+        <v>0.7473879171610377</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3309783228319832</v>
+        <v>0.1742475945961423</v>
       </c>
       <c r="I10" t="n">
         <v>1.000000021615299</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7473879171610378</v>
+        <v>0.7473879171610377</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1742475945961422</v>
+        <v>0.1742475945961423</v>
       </c>
       <c r="L10" t="n">
         <v>-7.741015260960027e-05</v>
@@ -1093,19 +1093,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.98447669025831</v>
+        <v>1.000000002385678</v>
       </c>
       <c r="G11" t="n">
-        <v>1.194272649978993</v>
+        <v>0.6018073473428861</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4218403416767076</v>
+        <v>0.2125700668361965</v>
       </c>
       <c r="I11" t="n">
         <v>1.000000002385678</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6018073473428862</v>
+        <v>0.6018073473428861</v>
       </c>
       <c r="K11" t="n">
         <v>0.2125700668361965</v>
@@ -1155,13 +1155,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.609877971979711</v>
+        <v>0.8137838297221032</v>
       </c>
       <c r="G12" t="n">
-        <v>1.978262402341841</v>
+        <v>0.9999999888148543</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3919375430059169</v>
+        <v>0.1981221187634502</v>
       </c>
       <c r="I12" t="n">
         <v>0.8137838297221032</v>
@@ -1217,13 +1217,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.978927559898048</v>
+        <v>0.9999999735176571</v>
       </c>
       <c r="G13" t="n">
-        <v>1.447807210056963</v>
+        <v>0.7316120109976259</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3568062334316757</v>
+        <v>0.1803028222018359</v>
       </c>
       <c r="I13" t="n">
         <v>0.9999999735176571</v>
@@ -1279,19 +1279,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.956722631962212</v>
+        <v>1.000000007570239</v>
       </c>
       <c r="G14" t="n">
-        <v>1.582184794754401</v>
+        <v>0.8085892097774205</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3738082221305029</v>
+        <v>0.1910379217035292</v>
       </c>
       <c r="I14" t="n">
         <v>1.000000007570239</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8085892097774204</v>
+        <v>0.8085892097774205</v>
       </c>
       <c r="K14" t="n">
         <v>0.1910379217035292</v>
@@ -1341,13 +1341,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.958081848751626</v>
+        <v>1.000000003719362</v>
       </c>
       <c r="G15" t="n">
-        <v>1.366834854098072</v>
+        <v>0.6980478676380408</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3718260328811339</v>
+        <v>0.1898929988555621</v>
       </c>
       <c r="I15" t="n">
         <v>1.000000003719362</v>
@@ -1403,13 +1403,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.73980231235292</v>
+        <v>0.9999999723061945</v>
       </c>
       <c r="G16" t="n">
-        <v>1.673635718356036</v>
+        <v>0.9619688743505914</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3237880890354022</v>
+        <v>0.1861062476866034</v>
       </c>
       <c r="I16" t="n">
         <v>0.9999999723061945</v>
@@ -1465,22 +1465,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.836196009175487</v>
+        <v>0.9999999696254939</v>
       </c>
       <c r="G17" t="n">
-        <v>1.475667766183082</v>
+        <v>0.803654791746893</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4376424922920381</v>
+        <v>0.2383419181895399</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9999999696254938</v>
+        <v>1.00000002923014</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8036547917468931</v>
+        <v>0.8036548396484543</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2383419181895399</v>
+        <v>0.2383419323958261</v>
       </c>
       <c r="L17" t="n">
         <v>-5.02897218542813e-05</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.788544663367311</v>
+        <v>1.000000004764275</v>
       </c>
       <c r="G18" t="n">
-        <v>1.747588342852471</v>
+        <v>0.9771007607314994</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4088196682843657</v>
+        <v>0.2285767186056211</v>
       </c>
       <c r="I18" t="n">
         <v>1.000000004764275</v>
@@ -1542,7 +1542,7 @@
         <v>0.9771007607314994</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2285767186056212</v>
+        <v>0.2285767186056211</v>
       </c>
       <c r="L18" t="n">
         <v>-0.0001710139692637015</v>
@@ -1589,13 +1589,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.870597982439538</v>
+        <v>1.000000012763181</v>
       </c>
       <c r="G19" t="n">
-        <v>1.808013018056532</v>
+        <v>0.9665428157762744</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5048535131751208</v>
+        <v>0.2698888400169519</v>
       </c>
       <c r="I19" t="n">
         <v>1.000000012763181</v>
@@ -1651,13 +1651,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.750000716398558</v>
+        <v>1.00000000065304</v>
       </c>
       <c r="G20" t="n">
-        <v>1.572795121283159</v>
+        <v>0.8987397019739602</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5435096151533279</v>
+        <v>0.3105767960065672</v>
       </c>
       <c r="I20" t="n">
         <v>1.00000000065304</v>
@@ -1713,19 +1713,19 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.632189829165081</v>
+        <v>0.9047694280258611</v>
       </c>
       <c r="G21" t="n">
-        <v>1.803984237374522</v>
+        <v>0.9999999739319138</v>
       </c>
       <c r="H21" t="n">
-        <v>0.515007451706416</v>
+        <v>0.2854833360576851</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9047694280258612</v>
+        <v>0.9047694280258611</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9999999739319136</v>
+        <v>0.9999999739319138</v>
       </c>
       <c r="K21" t="n">
         <v>0.2854833360576851</v>
@@ -1775,13 +1775,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.709948702874533</v>
+        <v>1.000000025691623</v>
       </c>
       <c r="G22" t="n">
-        <v>1.048332412969471</v>
+        <v>0.6130782976942633</v>
       </c>
       <c r="H22" t="n">
-        <v>0.7680027470007167</v>
+        <v>0.449137898371391</v>
       </c>
       <c r="I22" t="n">
         <v>1.000000025691623</v>
@@ -1837,16 +1837,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.823797929884712</v>
+        <v>0.9999999937914317</v>
       </c>
       <c r="G23" t="n">
-        <v>1.000020248117927</v>
+        <v>0.5483174564039821</v>
       </c>
       <c r="H23" t="n">
-        <v>0.7407614823688971</v>
+        <v>0.4061642277533755</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9999999937914318</v>
+        <v>0.9999999937914317</v>
       </c>
       <c r="J23" t="n">
         <v>0.5483174564039821</v>
@@ -1899,13 +1899,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.812953145962276</v>
+        <v>1.000000017348873</v>
       </c>
       <c r="G24" t="n">
-        <v>1.089507467147051</v>
+        <v>0.6009573322263061</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8946554568543662</v>
+        <v>0.4934796436235348</v>
       </c>
       <c r="I24" t="n">
         <v>1.000000017348873</v>
@@ -1961,13 +1961,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.900764521827288</v>
+        <v>1.000000029722387</v>
       </c>
       <c r="G25" t="n">
-        <v>1.104277842178163</v>
+        <v>0.5809651128895994</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6342934921019423</v>
+        <v>0.3337044140243552</v>
       </c>
       <c r="I25" t="n">
         <v>1.000000029722387</v>
@@ -2023,13 +2023,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.732085708156178</v>
+        <v>1.00000000193565</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8682052571182088</v>
+        <v>0.5012484397916792</v>
       </c>
       <c r="H26" t="n">
-        <v>1.004765293027628</v>
+        <v>0.5800898247939958</v>
       </c>
       <c r="I26" t="n">
         <v>1.00000000193565</v>
@@ -2085,19 +2085,19 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.794591380496411</v>
+        <v>0.9999999741707479</v>
       </c>
       <c r="G27" t="n">
-        <v>1.200630096808441</v>
+        <v>0.6690269878956799</v>
       </c>
       <c r="H27" t="n">
-        <v>0.5956917391279335</v>
+        <v>0.3319372477855567</v>
       </c>
       <c r="I27" t="n">
         <v>0.9999999741707479</v>
       </c>
       <c r="J27" t="n">
-        <v>0.6690269878956798</v>
+        <v>0.6690269878956799</v>
       </c>
       <c r="K27" t="n">
         <v>0.3319372477855567</v>
@@ -2147,13 +2147,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.850500284414937</v>
+        <v>1.000000031555859</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8772102611596937</v>
+        <v>0.4740395320275024</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6556678773173426</v>
+        <v>0.354319263568665</v>
       </c>
       <c r="I28" t="n">
         <v>1.000000031555859</v>
@@ -2209,13 +2209,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.845756024592466</v>
+        <v>0.9999999841083578</v>
       </c>
       <c r="G29" t="n">
-        <v>1.210011199563348</v>
+        <v>0.6555639879877665</v>
       </c>
       <c r="H29" t="n">
-        <v>1.056154917112017</v>
+        <v>0.5722072073751864</v>
       </c>
       <c r="I29" t="n">
         <v>0.9999999841083578</v>
@@ -2271,13 +2271,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.812716606871878</v>
+        <v>1.000000001981978</v>
       </c>
       <c r="G30" t="n">
-        <v>1.533132991762623</v>
+        <v>0.8457654048014247</v>
       </c>
       <c r="H30" t="n">
-        <v>0.9861398611062111</v>
+        <v>0.5440121524359259</v>
       </c>
       <c r="I30" t="n">
         <v>1.000000001981978</v>
@@ -2333,22 +2333,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.83902714268683</v>
+        <v>0.9999999871237644</v>
       </c>
       <c r="G31" t="n">
-        <v>1.044776280191131</v>
+        <v>0.5681135653125385</v>
       </c>
       <c r="H31" t="n">
-        <v>0.593327947802522</v>
+        <v>0.3226314209239108</v>
       </c>
       <c r="I31" t="n">
         <v>0.9999999871237644</v>
       </c>
       <c r="J31" t="n">
-        <v>0.5681135653125384</v>
+        <v>0.5681135653125385</v>
       </c>
       <c r="K31" t="n">
-        <v>0.3226314209239107</v>
+        <v>0.3226314209239108</v>
       </c>
       <c r="L31" t="n">
         <v>0.001598225460682991</v>
@@ -2395,19 +2395,19 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.80020486992762</v>
+        <v>0.9999999982460874</v>
       </c>
       <c r="G32" t="n">
-        <v>1.121268767969192</v>
+        <v>0.6228562008321126</v>
       </c>
       <c r="H32" t="n">
-        <v>0.8692108568212252</v>
+        <v>0.4828399643934156</v>
       </c>
       <c r="I32" t="n">
         <v>0.9999999982460874</v>
       </c>
       <c r="J32" t="n">
-        <v>0.6228562008321125</v>
+        <v>0.6228562008321126</v>
       </c>
       <c r="K32" t="n">
         <v>0.4828399643934156</v>
@@ -2457,13 +2457,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.772139659818914</v>
+        <v>0.9999999951212952</v>
       </c>
       <c r="G33" t="n">
-        <v>1.161222704106294</v>
+        <v>0.6552659052614909</v>
       </c>
       <c r="H33" t="n">
-        <v>0.9446168444567655</v>
+        <v>0.5330374694874693</v>
       </c>
       <c r="I33" t="n">
         <v>0.9999999951212952</v>
@@ -2519,13 +2519,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.92359304222662</v>
+        <v>0.9999999989320061</v>
       </c>
       <c r="G34" t="n">
-        <v>0.956885592456117</v>
+        <v>0.4974470017455166</v>
       </c>
       <c r="H34" t="n">
-        <v>0.6357287480528048</v>
+        <v>0.3304902510137873</v>
       </c>
       <c r="I34" t="n">
         <v>0.9999999989320061</v>
@@ -2581,19 +2581,19 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.863068324040715</v>
+        <v>0.9999999902482658</v>
       </c>
       <c r="G35" t="n">
-        <v>1.539664341904285</v>
+        <v>0.8264132383242864</v>
       </c>
       <c r="H35" t="n">
-        <v>0.636548424929403</v>
+        <v>0.3416667067482389</v>
       </c>
       <c r="I35" t="n">
         <v>0.9999999902482658</v>
       </c>
       <c r="J35" t="n">
-        <v>0.8264132383242863</v>
+        <v>0.8264132383242864</v>
       </c>
       <c r="K35" t="n">
         <v>0.3416667067482389</v>
@@ -2643,13 +2643,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.827522311070807</v>
+        <v>1.000000018187891</v>
       </c>
       <c r="G36" t="n">
-        <v>1.606639725198595</v>
+        <v>0.8791355075050211</v>
       </c>
       <c r="H36" t="n">
-        <v>0.5456596722663716</v>
+        <v>0.298578944226979</v>
       </c>
       <c r="I36" t="n">
         <v>1.000000018187891</v>
@@ -2658,7 +2658,7 @@
         <v>0.8791355075050211</v>
       </c>
       <c r="K36" t="n">
-        <v>0.2985789442269789</v>
+        <v>0.298578944226979</v>
       </c>
       <c r="L36" t="n">
         <v>-8.168398947002509e-05</v>
@@ -2705,13 +2705,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.849640104147378</v>
+        <v>0.9999999854840271</v>
       </c>
       <c r="G37" t="n">
-        <v>1.213084081310339</v>
+        <v>0.655848703205121</v>
       </c>
       <c r="H37" t="n">
-        <v>0.5428817661100414</v>
+        <v>0.2935066973365798</v>
       </c>
       <c r="I37" t="n">
         <v>0.9999999854840271</v>
@@ -2720,7 +2720,7 @@
         <v>0.655848703205121</v>
       </c>
       <c r="K37" t="n">
-        <v>0.2935066973365797</v>
+        <v>0.2935066973365798</v>
       </c>
       <c r="L37" t="n">
         <v>-7.967161385499604e-05</v>
@@ -2767,13 +2767,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.807781265810252</v>
+        <v>1.000000025626901</v>
       </c>
       <c r="G38" t="n">
-        <v>1.476794055217087</v>
+        <v>0.8169097229806941</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4047009211500702</v>
+        <v>0.2238660944082262</v>
       </c>
       <c r="I38" t="n">
         <v>1.000000025626901</v>
@@ -2829,22 +2829,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.762158392715662</v>
+        <v>0.9999999993506821</v>
       </c>
       <c r="G39" t="n">
-        <v>1.151807407051179</v>
+        <v>0.6536344355107826</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3956890198498649</v>
+        <v>0.2245479301001658</v>
       </c>
       <c r="I39" t="n">
         <v>0.9999999993506821</v>
       </c>
       <c r="J39" t="n">
-        <v>0.6536344355107828</v>
+        <v>0.6536344355107826</v>
       </c>
       <c r="K39" t="n">
-        <v>0.2245479301001657</v>
+        <v>0.2245479301001658</v>
       </c>
       <c r="L39" t="n">
         <v>-0.003263816805067929</v>
@@ -2891,19 +2891,19 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.922099578314021</v>
+        <v>0.9999999937633341</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8581474923864346</v>
+        <v>0.4464635946630734</v>
       </c>
       <c r="H40" t="n">
-        <v>0.7757503805917685</v>
+        <v>0.403595310308598</v>
       </c>
       <c r="I40" t="n">
-        <v>0.9999999937633343</v>
+        <v>0.9999999937633341</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4464635946630735</v>
+        <v>0.4464635946630734</v>
       </c>
       <c r="K40" t="n">
         <v>0.403595310308598</v>
@@ -2953,19 +2953,19 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.78749219519874</v>
+        <v>1.000000021913379</v>
       </c>
       <c r="G41" t="n">
-        <v>1.269363719872738</v>
+        <v>0.7101366658261985</v>
       </c>
       <c r="H41" t="n">
-        <v>0.7252413845759476</v>
+        <v>0.4057312263608522</v>
       </c>
       <c r="I41" t="n">
         <v>1.000000021913379</v>
       </c>
       <c r="J41" t="n">
-        <v>0.7101366658261987</v>
+        <v>0.7101366658261985</v>
       </c>
       <c r="K41" t="n">
         <v>0.4057312263608522</v>
@@ -3015,19 +3015,19 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.626043540277402</v>
+        <v>0.9999999890265386</v>
       </c>
       <c r="G42" t="n">
-        <v>1.46437874228701</v>
+        <v>0.9005778073863168</v>
       </c>
       <c r="H42" t="n">
-        <v>0.7661119943761658</v>
+        <v>0.4711509667438349</v>
       </c>
       <c r="I42" t="n">
-        <v>0.9999999890265387</v>
+        <v>0.9999999890265386</v>
       </c>
       <c r="J42" t="n">
-        <v>0.9005778073863169</v>
+        <v>0.9005778073863168</v>
       </c>
       <c r="K42" t="n">
         <v>0.4711509667438349</v>
@@ -3077,19 +3077,19 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.703446485807559</v>
+        <v>0.9999999872926099</v>
       </c>
       <c r="G43" t="n">
-        <v>1.034251631229657</v>
+        <v>0.6071523976268072</v>
       </c>
       <c r="H43" t="n">
-        <v>0.787290293220922</v>
+        <v>0.462174943431395</v>
       </c>
       <c r="I43" t="n">
         <v>0.9999999872926099</v>
       </c>
       <c r="J43" t="n">
-        <v>0.6071523976268071</v>
+        <v>0.6071523976268072</v>
       </c>
       <c r="K43" t="n">
         <v>0.462174943431395</v>
@@ -3139,13 +3139,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.946341700701042</v>
+        <v>0.999999973126539</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8647181805911881</v>
+        <v>0.4442786983610122</v>
       </c>
       <c r="H44" t="n">
-        <v>0.6793322515607437</v>
+        <v>0.3490303028805528</v>
       </c>
       <c r="I44" t="n">
         <v>0.999999973126539</v>
@@ -3201,22 +3201,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.636762069887977</v>
+        <v>1.000000028663831</v>
       </c>
       <c r="G45" t="n">
-        <v>1.21396281193319</v>
+        <v>0.7416855931987117</v>
       </c>
       <c r="H45" t="n">
-        <v>0.9551867177326459</v>
+        <v>0.5835831381266864</v>
       </c>
       <c r="I45" t="n">
         <v>1.000000028663831</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7416855931987116</v>
+        <v>0.7416855931987117</v>
       </c>
       <c r="K45" t="n">
-        <v>0.5835831381266865</v>
+        <v>0.5835831381266864</v>
       </c>
       <c r="L45" t="n">
         <v>-0.002918434875455786</v>
@@ -3263,22 +3263,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.625016873993643</v>
+        <v>0.9999999669385149</v>
       </c>
       <c r="G46" t="n">
-        <v>1.06465638074151</v>
+        <v>0.6551663324737598</v>
       </c>
       <c r="H46" t="n">
-        <v>0.9300224883017583</v>
+        <v>0.5723155694181865</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9999999669385149</v>
+        <v>1.000000026543161</v>
       </c>
       <c r="J46" t="n">
-        <v>0.6551663324737598</v>
+        <v>0.6551663715247185</v>
       </c>
       <c r="K46" t="n">
-        <v>0.5723155694181867</v>
+        <v>0.5723156035308548</v>
       </c>
       <c r="L46" t="n">
         <v>0.008701622842572549</v>
@@ -3325,19 +3325,19 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.517219086691946</v>
+        <v>1.000000013229515</v>
       </c>
       <c r="G47" t="n">
-        <v>1.299162615062987</v>
+        <v>0.8562788615340288</v>
       </c>
       <c r="H47" t="n">
-        <v>1.254975333877235</v>
+        <v>0.8271549979088545</v>
       </c>
       <c r="I47" t="n">
         <v>1.000000013229515</v>
       </c>
       <c r="J47" t="n">
-        <v>0.8562788615340289</v>
+        <v>0.8562788615340288</v>
       </c>
       <c r="K47" t="n">
         <v>0.8271549979088545</v>
@@ -3387,13 +3387,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.68613091863994</v>
+        <v>1.0000000221397</v>
       </c>
       <c r="G48" t="n">
-        <v>1.312939161969467</v>
+        <v>0.7786697797443765</v>
       </c>
       <c r="H48" t="n">
-        <v>1.004982178512957</v>
+        <v>0.5960285702925103</v>
       </c>
       <c r="I48" t="n">
         <v>1.0000000221397</v>
@@ -3449,22 +3449,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.561874046427984</v>
+        <v>1.000000009224441</v>
       </c>
       <c r="G49" t="n">
-        <v>1.347198367341944</v>
+        <v>0.8625525104602048</v>
       </c>
       <c r="H49" t="n">
-        <v>1.304754954275414</v>
+        <v>0.8353778393943048</v>
       </c>
       <c r="I49" t="n">
         <v>1.000000009224441</v>
       </c>
       <c r="J49" t="n">
-        <v>0.8625525104602049</v>
+        <v>0.8625525104602048</v>
       </c>
       <c r="K49" t="n">
-        <v>0.8353778393943047</v>
+        <v>0.8353778393943048</v>
       </c>
       <c r="L49" t="n">
         <v>-0.006291805517647658</v>
@@ -3511,13 +3511,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.638632341588161</v>
+        <v>0.9778946335916356</v>
       </c>
       <c r="G50" t="n">
-        <v>1.675673690531693</v>
+        <v>0.9999999804919467</v>
       </c>
       <c r="H50" t="n">
-        <v>1.163046744963442</v>
+        <v>0.6940770920056802</v>
       </c>
       <c r="I50" t="n">
         <v>0.9778946335916356</v>
@@ -3573,13 +3573,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.82774388329879</v>
+        <v>0.9999999974818594</v>
       </c>
       <c r="G51" t="n">
-        <v>1.149279241503622</v>
+        <v>0.6287966542310663</v>
       </c>
       <c r="H51" t="n">
-        <v>0.9405886084226905</v>
+        <v>0.5146172911034678</v>
       </c>
       <c r="I51" t="n">
         <v>0.9999999974818594</v>
@@ -3588,7 +3588,7 @@
         <v>0.6287966542310663</v>
       </c>
       <c r="K51" t="n">
-        <v>0.5146172911034679</v>
+        <v>0.5146172911034678</v>
       </c>
       <c r="L51" t="n">
         <v>-0.01140681100250456</v>
@@ -3635,22 +3635,22 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.911953329401895</v>
+        <v>0.9999999996662665</v>
       </c>
       <c r="G52" t="n">
-        <v>0.9082234559026232</v>
+        <v>0.4750238625770393</v>
       </c>
       <c r="H52" t="n">
-        <v>0.8759680536692767</v>
+        <v>0.4581534705404972</v>
       </c>
       <c r="I52" t="n">
         <v>0.9999999996662665</v>
       </c>
       <c r="J52" t="n">
-        <v>0.4750238625770394</v>
+        <v>0.4750238625770393</v>
       </c>
       <c r="K52" t="n">
-        <v>0.4581534705404973</v>
+        <v>0.4581534705404972</v>
       </c>
       <c r="L52" t="n">
         <v>-0.009655787148081844</v>
@@ -3697,13 +3697,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.523946009090953</v>
+        <v>0.9999999752364788</v>
       </c>
       <c r="G53" t="n">
-        <v>1.346887695596389</v>
+        <v>0.8838158663154585</v>
       </c>
       <c r="H53" t="n">
-        <v>0.78603243388846</v>
+        <v>0.5157875736637181</v>
       </c>
       <c r="I53" t="n">
         <v>0.9999999752364788</v>
@@ -3759,19 +3759,19 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.749187622802693</v>
+        <v>1.000000019501043</v>
       </c>
       <c r="G54" t="n">
-        <v>1.047680171252739</v>
+        <v>0.5989524382781278</v>
       </c>
       <c r="H54" t="n">
-        <v>0.8021167858426566</v>
+        <v>0.4585653311447244</v>
       </c>
       <c r="I54" t="n">
         <v>1.000000019501043</v>
       </c>
       <c r="J54" t="n">
-        <v>0.5989524382781279</v>
+        <v>0.5989524382781278</v>
       </c>
       <c r="K54" t="n">
         <v>0.4585653311447244</v>
@@ -3821,22 +3821,22 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.924683293403864</v>
+        <v>0.9999999797164696</v>
       </c>
       <c r="G55" t="n">
-        <v>0.7131906717673601</v>
+        <v>0.3705496170437656</v>
       </c>
       <c r="H55" t="n">
-        <v>0.6791815440249311</v>
+        <v>0.3528796309379178</v>
       </c>
       <c r="I55" t="n">
         <v>0.9999999797164696</v>
       </c>
       <c r="J55" t="n">
-        <v>0.3705496170437655</v>
+        <v>0.3705496170437656</v>
       </c>
       <c r="K55" t="n">
-        <v>0.3528796309379177</v>
+        <v>0.3528796309379178</v>
       </c>
       <c r="L55" t="n">
         <v>-0.003714637549263777</v>
@@ -3883,22 +3883,22 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.594399891187406</v>
+        <v>0.9999999762548755</v>
       </c>
       <c r="G56" t="n">
-        <v>1.131576015666286</v>
+        <v>0.7097190579674134</v>
       </c>
       <c r="H56" t="n">
-        <v>0.8604044013559451</v>
+        <v>0.5396415200986762</v>
       </c>
       <c r="I56" t="n">
         <v>0.9999999762548755</v>
       </c>
       <c r="J56" t="n">
-        <v>0.7097190579674135</v>
+        <v>0.7097190579674134</v>
       </c>
       <c r="K56" t="n">
-        <v>0.5396415200986761</v>
+        <v>0.5396415200986762</v>
       </c>
       <c r="L56" t="n">
         <v>-0.003214910216111177</v>
@@ -3945,22 +3945,22 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.641483493399031</v>
+        <v>0.9999999683796322</v>
       </c>
       <c r="G57" t="n">
-        <v>1.093680368146439</v>
+        <v>0.6662755598590711</v>
       </c>
       <c r="H57" t="n">
-        <v>0.7404405229208517</v>
+        <v>0.451080076336689</v>
       </c>
       <c r="I57" t="n">
-        <v>0.9999999683796322</v>
+        <v>1.000000027984279</v>
       </c>
       <c r="J57" t="n">
-        <v>0.6662755598590711</v>
+        <v>0.6662755995721915</v>
       </c>
       <c r="K57" t="n">
-        <v>0.4510800763366891</v>
+        <v>0.4510801032231583</v>
       </c>
       <c r="L57" t="n">
         <v>-0.001477639705772291</v>
@@ -4007,13 +4007,13 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.699774498363521</v>
+        <v>0.9999999968558388</v>
       </c>
       <c r="G58" t="n">
-        <v>1.220514227970599</v>
+        <v>0.7180447908285311</v>
       </c>
       <c r="H58" t="n">
-        <v>1.116397302091572</v>
+        <v>0.6567914153649581</v>
       </c>
       <c r="I58" t="n">
         <v>0.9999999968558388</v>
@@ -4069,13 +4069,13 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.686668198364424</v>
+        <v>1.000000024181941</v>
       </c>
       <c r="G59" t="n">
-        <v>1.325012496241245</v>
+        <v>0.785579836963485</v>
       </c>
       <c r="H59" t="n">
-        <v>0.9952302871901417</v>
+        <v>0.5900569609492992</v>
       </c>
       <c r="I59" t="n">
         <v>1.000000024181941</v>
@@ -4084,7 +4084,7 @@
         <v>0.785579836963485</v>
       </c>
       <c r="K59" t="n">
-        <v>0.590056960949299</v>
+        <v>0.5900569609492992</v>
       </c>
       <c r="L59" t="n">
         <v>0.006065295716385821</v>
@@ -4131,22 +4131,22 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.538054483159291</v>
+        <v>1.000000010995535</v>
       </c>
       <c r="G60" t="n">
-        <v>1.343877091039472</v>
+        <v>0.8737513010954501</v>
       </c>
       <c r="H60" t="n">
-        <v>1.19492873947019</v>
+        <v>0.7769092484647155</v>
       </c>
       <c r="I60" t="n">
         <v>1.000000010995535</v>
       </c>
       <c r="J60" t="n">
-        <v>0.87375130109545</v>
+        <v>0.8737513010954501</v>
       </c>
       <c r="K60" t="n">
-        <v>0.7769092484647157</v>
+        <v>0.7769092484647155</v>
       </c>
       <c r="L60" t="n">
         <v>0.005685189603080991</v>
@@ -4193,19 +4193,19 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.71047684083896</v>
+        <v>0.9999999798499374</v>
       </c>
       <c r="G61" t="n">
-        <v>1.475432111653236</v>
+        <v>0.8625852433053184</v>
       </c>
       <c r="H61" t="n">
-        <v>1.143151920595235</v>
+        <v>0.6683235167334718</v>
       </c>
       <c r="I61" t="n">
         <v>0.9999999798499374</v>
       </c>
       <c r="J61" t="n">
-        <v>0.8625852433053185</v>
+        <v>0.8625852433053184</v>
       </c>
       <c r="K61" t="n">
         <v>0.6683235167334718</v>
@@ -4255,13 +4255,13 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.540799364005855</v>
+        <v>0.9999999900422467</v>
       </c>
       <c r="G62" t="n">
-        <v>0.4611897813772003</v>
+        <v>0.299318514505198</v>
       </c>
       <c r="H62" t="n">
-        <v>0.4604340161436319</v>
+        <v>0.2988280124685943</v>
       </c>
       <c r="I62" t="n">
         <v>0.9999999900422467</v>
@@ -4270,7 +4270,7 @@
         <v>0.299318514505198</v>
       </c>
       <c r="K62" t="n">
-        <v>0.2988280124685941</v>
+        <v>0.2988280124685943</v>
       </c>
       <c r="L62" t="n">
         <v>-0.001299886534199772</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.908568931029743</v>
+        <v>0.9999999752275716</v>
       </c>
       <c r="G63" t="n">
-        <v>0.5712708824022575</v>
+        <v>0.2993189603805763</v>
       </c>
       <c r="H63" t="n">
-        <v>0.5703243160508943</v>
+        <v>0.2988230043202396</v>
       </c>
       <c r="I63" t="n">
-        <v>0.9999999752275714</v>
+        <v>0.9999999752275716</v>
       </c>
       <c r="J63" t="n">
         <v>0.2993189603805763</v>
@@ -4379,13 +4379,13 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1.838481881344968</v>
+        <v>0.9999999881798106</v>
       </c>
       <c r="G64" t="n">
-        <v>0.5502608109474377</v>
+        <v>0.2993017282502124</v>
       </c>
       <c r="H64" t="n">
-        <v>0.5497217981464574</v>
+        <v>0.2990085446186093</v>
       </c>
       <c r="I64" t="n">
         <v>0.9999999881798106</v>
@@ -4394,7 +4394,7 @@
         <v>0.2993017282502124</v>
       </c>
       <c r="K64" t="n">
-        <v>0.2990085446186094</v>
+        <v>0.2990085446186093</v>
       </c>
       <c r="L64" t="n">
         <v>-0.000145027980957839</v>
@@ -4441,16 +4441,16 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.225440853235506</v>
+        <v>0.9999999946475499</v>
       </c>
       <c r="G65" t="n">
-        <v>0.5231005076396695</v>
+        <v>0.4268671992276648</v>
       </c>
       <c r="H65" t="n">
-        <v>0.517383171458515</v>
+        <v>0.4222016650768672</v>
       </c>
       <c r="I65" t="n">
-        <v>0.99999999464755</v>
+        <v>0.9999999946475499</v>
       </c>
       <c r="J65" t="n">
         <v>0.4268671992276648</v>
@@ -4503,13 +4503,13 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1.227555643009054</v>
+        <v>1.000000008486627</v>
       </c>
       <c r="G66" t="n">
-        <v>0.5249662742349255</v>
+        <v>0.4276517171989785</v>
       </c>
       <c r="H66" t="n">
-        <v>0.5265087202198633</v>
+        <v>0.4289082353917075</v>
       </c>
       <c r="I66" t="n">
         <v>1.000000008486627</v>
@@ -4565,13 +4565,13 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1.223884988316072</v>
+        <v>1.00000003935719</v>
       </c>
       <c r="G67" t="n">
-        <v>0.5304801423797652</v>
+        <v>0.433439553816126</v>
       </c>
       <c r="H67" t="n">
-        <v>0.5310618549794572</v>
+        <v>0.4339148538877342</v>
       </c>
       <c r="I67" t="n">
         <v>1.00000003935719</v>
@@ -4627,13 +4627,13 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.823938268671946</v>
+        <v>1.000000009940172</v>
       </c>
       <c r="G68" t="n">
-        <v>0.6824302485265292</v>
+        <v>0.3741520571345308</v>
       </c>
       <c r="H68" t="n">
-        <v>0.6785857518118831</v>
+        <v>0.3720442573153733</v>
       </c>
       <c r="I68" t="n">
         <v>1.000000009940172</v>
@@ -4689,13 +4689,13 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1.008322624326113</v>
+        <v>1.000000027546863</v>
       </c>
       <c r="G69" t="n">
-        <v>0.1550955806801348</v>
+        <v>0.153815436856022</v>
       </c>
       <c r="H69" t="n">
-        <v>0.1578077977288779</v>
+        <v>0.1565052675292837</v>
       </c>
       <c r="I69" t="n">
         <v>1.000000027546863</v>
@@ -4751,13 +4751,13 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1.754716110117985</v>
+        <v>0.9999999727618496</v>
       </c>
       <c r="G70" t="n">
-        <v>0.2698460597513786</v>
+        <v>0.1537833104997975</v>
       </c>
       <c r="H70" t="n">
-        <v>0.2704799171792432</v>
+        <v>0.1541445412464377</v>
       </c>
       <c r="I70" t="n">
         <v>0.9999999727618496</v>
@@ -4813,13 +4813,13 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1.855469466707546</v>
+        <v>1.000000000782448</v>
       </c>
       <c r="G71" t="n">
-        <v>0.2846171565688848</v>
+        <v>0.1533936084093178</v>
       </c>
       <c r="H71" t="n">
-        <v>0.2891941108803911</v>
+        <v>0.1558603449399971</v>
       </c>
       <c r="I71" t="n">
         <v>1.000000000782448</v>
@@ -4875,13 +4875,13 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1.842445104527658</v>
+        <v>0.9999999833976498</v>
       </c>
       <c r="G72" t="n">
-        <v>0.5248938515907854</v>
+        <v>0.2848898138600875</v>
       </c>
       <c r="H72" t="n">
-        <v>0.524171457779689</v>
+        <v>0.2844977295600843</v>
       </c>
       <c r="I72" t="n">
         <v>0.9999999833976498</v>
@@ -4937,22 +4937,22 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1.630882568034443</v>
+        <v>0.9999999676389837</v>
       </c>
       <c r="G73" t="n">
-        <v>0.4657874521409319</v>
+        <v>0.2856045224819273</v>
       </c>
       <c r="H73" t="n">
-        <v>0.4644254370298338</v>
+        <v>0.2847693826050793</v>
       </c>
       <c r="I73" t="n">
-        <v>0.9999999676389837</v>
+        <v>1.00000002724363</v>
       </c>
       <c r="J73" t="n">
-        <v>0.2856045224819274</v>
+        <v>0.2856045395052844</v>
       </c>
       <c r="K73" t="n">
-        <v>0.2847693826050793</v>
+        <v>0.2847693995786582</v>
       </c>
       <c r="L73" t="n">
         <v>-0.0002031139743477812</v>
@@ -4999,13 +4999,13 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1.814324188933373</v>
+        <v>1.000000026668149</v>
       </c>
       <c r="G74" t="n">
-        <v>0.3810353840696373</v>
+        <v>0.2100150549473485</v>
       </c>
       <c r="H74" t="n">
-        <v>0.381152852775523</v>
+        <v>0.2100798001068602</v>
       </c>
       <c r="I74" t="n">
         <v>1.000000026668149</v>
@@ -5061,22 +5061,22 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1.219738563483129</v>
+        <v>0.999999967898765</v>
       </c>
       <c r="G75" t="n">
-        <v>0.3446657639581927</v>
+        <v>0.2825734655053917</v>
       </c>
       <c r="H75" t="n">
-        <v>0.3443324475399235</v>
+        <v>0.2823001967758883</v>
       </c>
       <c r="I75" t="n">
-        <v>0.9999999678987649</v>
+        <v>1.000000027503411</v>
       </c>
       <c r="J75" t="n">
-        <v>0.2825734655053917</v>
+        <v>0.2825734823480838</v>
       </c>
       <c r="K75" t="n">
-        <v>0.2823001967758883</v>
+        <v>0.2823002136022922</v>
       </c>
       <c r="L75" t="n">
         <v>-0.00143857930718628</v>
@@ -5123,13 +5123,13 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1.98953036108908</v>
+        <v>1.000000018171709</v>
       </c>
       <c r="G76" t="n">
-        <v>0.2519258075718614</v>
+        <v>0.1266257691146158</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2513268385638759</v>
+        <v>0.1263247086077824</v>
       </c>
       <c r="I76" t="n">
         <v>1.000000018171709</v>
@@ -5185,13 +5185,13 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1.989509503887603</v>
+        <v>1.000000020395661</v>
       </c>
       <c r="G77" t="n">
-        <v>0.2495625156515518</v>
+        <v>0.1254392201966799</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2512195258555028</v>
+        <v>0.1262720939449625</v>
       </c>
       <c r="I77" t="n">
         <v>1.000000020395661</v>
@@ -5247,13 +5247,13 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1.969947686128197</v>
+        <v>0.9999999951247844</v>
       </c>
       <c r="G78" t="n">
-        <v>0.2701434813319903</v>
+        <v>0.1371323116432254</v>
       </c>
       <c r="H78" t="n">
-        <v>0.131400947645201</v>
+        <v>0.0667027596366546</v>
       </c>
       <c r="I78" t="n">
         <v>0.9999999951247844</v>
@@ -5262,7 +5262,7 @@
         <v>0.1371323116432254</v>
       </c>
       <c r="K78" t="n">
-        <v>0.06670275963665459</v>
+        <v>0.0667027596366546</v>
       </c>
       <c r="L78" t="n">
         <v>-0.004626826610352246</v>
@@ -5309,13 +5309,13 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1.247085086456289</v>
+        <v>0.9999999935885564</v>
       </c>
       <c r="G79" t="n">
-        <v>0.9494859007890328</v>
+        <v>0.7613641643326138</v>
       </c>
       <c r="H79" t="n">
-        <v>0.949282183169105</v>
+        <v>0.7612008093050906</v>
       </c>
       <c r="I79" t="n">
         <v>0.9999999935885564</v>
@@ -5371,13 +5371,13 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1.250320485859195</v>
+        <v>1.000000041020591</v>
       </c>
       <c r="G80" t="n">
-        <v>0.9499322132617514</v>
+        <v>0.759751010218598</v>
       </c>
       <c r="H80" t="n">
-        <v>0.9500059115896005</v>
+        <v>0.7598099537708358</v>
       </c>
       <c r="I80" t="n">
         <v>1.000000041020591</v>
@@ -5433,22 +5433,22 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.1916869672599865</v>
+        <v>0.9999999701818842</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03722279922692339</v>
+        <v>0.1941853358581446</v>
       </c>
       <c r="H81" t="n">
-        <v>0.03726269377691431</v>
+        <v>0.1943934592865216</v>
       </c>
       <c r="I81" t="n">
-        <v>0.9999999701818842</v>
+        <v>1.000000029786531</v>
       </c>
       <c r="J81" t="n">
-        <v>0.1941853358581446</v>
+        <v>0.1941853474324933</v>
       </c>
       <c r="K81" t="n">
-        <v>0.1943934592865216</v>
+        <v>0.1943934708732754</v>
       </c>
       <c r="L81" t="n">
         <v>-0.001123332119272964</v>
@@ -5495,19 +5495,19 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.983898534271539</v>
+        <v>1.000000006956945</v>
       </c>
       <c r="G82" t="n">
-        <v>1.383916103110546</v>
+        <v>0.6975740386070349</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2866913140614622</v>
+        <v>0.1445090618816487</v>
       </c>
       <c r="I82" t="n">
         <v>1.000000006956945</v>
       </c>
       <c r="J82" t="n">
-        <v>0.6975740386070348</v>
+        <v>0.6975740386070349</v>
       </c>
       <c r="K82" t="n">
         <v>0.1445090618816487</v>
@@ -5557,13 +5557,13 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1.818026890158896</v>
+        <v>0.9999999944266242</v>
       </c>
       <c r="G83" t="n">
-        <v>1.271883803847025</v>
+        <v>0.6995957010554317</v>
       </c>
       <c r="H83" t="n">
-        <v>0.7503270064854712</v>
+        <v>0.4127150188840377</v>
       </c>
       <c r="I83" t="n">
         <v>0.9999999944266242</v>
@@ -5619,16 +5619,16 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1.989539096637817</v>
+        <v>0.9999999749763543</v>
       </c>
       <c r="G84" t="n">
-        <v>0.7055019670331337</v>
+        <v>0.3546057227883341</v>
       </c>
       <c r="H84" t="n">
-        <v>0.2830444454372227</v>
+        <v>0.1422663363754672</v>
       </c>
       <c r="I84" t="n">
-        <v>0.9999999749763544</v>
+        <v>0.9999999749763543</v>
       </c>
       <c r="J84" t="n">
         <v>0.3546057227883341</v>
@@ -5681,13 +5681,13 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1.964694081020384</v>
+        <v>1.00000002946416</v>
       </c>
       <c r="G85" t="n">
-        <v>0.9158726919036507</v>
+        <v>0.4661655612121571</v>
       </c>
       <c r="H85" t="n">
-        <v>0.2873576621769908</v>
+        <v>0.14626077078346</v>
       </c>
       <c r="I85" t="n">
         <v>1.00000002946416</v>
@@ -5743,13 +5743,13 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1.81521645306837</v>
+        <v>1.000000017070899</v>
       </c>
       <c r="G86" t="n">
-        <v>1.232939957371859</v>
+        <v>0.6792247703215446</v>
       </c>
       <c r="H86" t="n">
-        <v>0.7189131476319871</v>
+        <v>0.3960481730370273</v>
       </c>
       <c r="I86" t="n">
         <v>1.000000017070899</v>
@@ -5805,13 +5805,13 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1.946142308676634</v>
+        <v>0.999999996306576</v>
       </c>
       <c r="G87" t="n">
-        <v>0.5884022175369898</v>
+        <v>0.3023428516714594</v>
       </c>
       <c r="H87" t="n">
-        <v>0.4913389207657201</v>
+        <v>0.2524681349151209</v>
       </c>
       <c r="I87" t="n">
         <v>0.999999996306576</v>
@@ -5820,7 +5820,7 @@
         <v>0.3023428516714594</v>
       </c>
       <c r="K87" t="n">
-        <v>0.2524681349151208</v>
+        <v>0.2524681349151209</v>
       </c>
       <c r="L87" t="n">
         <v>-0.001701667055005202</v>
@@ -5867,13 +5867,13 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1.8560028795331</v>
+        <v>0.999999974518695</v>
       </c>
       <c r="G88" t="n">
-        <v>0.9187661116203676</v>
+        <v>0.4950240639929043</v>
       </c>
       <c r="H88" t="n">
-        <v>0.7008040710376826</v>
+        <v>0.3775878049050096</v>
       </c>
       <c r="I88" t="n">
         <v>0.999999974518695</v>
@@ -5929,19 +5929,19 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1.410475058244781</v>
+        <v>0.9837332387112406</v>
       </c>
       <c r="G89" t="n">
-        <v>1.433798331301877</v>
+        <v>1.000000012666362</v>
       </c>
       <c r="H89" t="n">
-        <v>1.187181001829138</v>
+        <v>0.8279972091949996</v>
       </c>
       <c r="I89" t="n">
-        <v>0.9837332387112405</v>
+        <v>0.9837332387112406</v>
       </c>
       <c r="J89" t="n">
-        <v>1.000000012666361</v>
+        <v>1.000000012666362</v>
       </c>
       <c r="K89" t="n">
         <v>0.8279972091949996</v>
@@ -5991,19 +5991,19 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.962208340608891</v>
+        <v>0.9999999747085935</v>
       </c>
       <c r="G90" t="n">
-        <v>0.9479376387831514</v>
+        <v>0.4830973323221741</v>
       </c>
       <c r="H90" t="n">
-        <v>0.3781414019978568</v>
+        <v>0.1927121522257867</v>
       </c>
       <c r="I90" t="n">
-        <v>0.9999999747085936</v>
+        <v>0.9999999747085935</v>
       </c>
       <c r="J90" t="n">
-        <v>0.4830973323221742</v>
+        <v>0.4830973323221741</v>
       </c>
       <c r="K90" t="n">
         <v>0.1927121522257867</v>
@@ -6053,13 +6053,13 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1.905436181807004</v>
+        <v>1.000000012399664</v>
       </c>
       <c r="G91" t="n">
-        <v>1.338635652761761</v>
+        <v>0.7025350322102675</v>
       </c>
       <c r="H91" t="n">
-        <v>0.1886461203756646</v>
+        <v>0.09900416740061696</v>
       </c>
       <c r="I91" t="n">
         <v>1.000000012399664</v>
@@ -6115,16 +6115,16 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1.989539096637817</v>
+        <v>0.9999999749763543</v>
       </c>
       <c r="G92" t="n">
-        <v>0.7055019670331337</v>
+        <v>0.3546057227883341</v>
       </c>
       <c r="H92" t="n">
-        <v>0.2830444454372227</v>
+        <v>0.1422663363754672</v>
       </c>
       <c r="I92" t="n">
-        <v>0.9999999749763544</v>
+        <v>0.9999999749763543</v>
       </c>
       <c r="J92" t="n">
         <v>0.3546057227883341</v>
@@ -6177,16 +6177,16 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1.737288683212591</v>
+        <v>0.9999999825920649</v>
       </c>
       <c r="G93" t="n">
-        <v>1.09380527281785</v>
+        <v>0.6296047768838831</v>
       </c>
       <c r="H93" t="n">
-        <v>0.7560117343481056</v>
+        <v>0.4351675852682624</v>
       </c>
       <c r="I93" t="n">
-        <v>0.999999982592065</v>
+        <v>0.9999999825920649</v>
       </c>
       <c r="J93" t="n">
         <v>0.6296047768838831</v>
@@ -6239,13 +6239,13 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1.835658184091508</v>
+        <v>0.9999999953460428</v>
       </c>
       <c r="G94" t="n">
-        <v>1.616270035891681</v>
+        <v>0.8804852898959197</v>
       </c>
       <c r="H94" t="n">
-        <v>0.4306476158539118</v>
+        <v>0.2346012005839909</v>
       </c>
       <c r="I94" t="n">
         <v>0.9999999953460428</v>
@@ -6254,7 +6254,7 @@
         <v>0.8804852898959197</v>
       </c>
       <c r="K94" t="n">
-        <v>0.2346012005839908</v>
+        <v>0.2346012005839909</v>
       </c>
       <c r="L94" t="n">
         <v>-0.0001983226051539642</v>
@@ -6301,16 +6301,16 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1.990915037044645</v>
+        <v>0.9999999884481813</v>
       </c>
       <c r="G95" t="n">
-        <v>0.9478503987820697</v>
+        <v>0.4760878139931487</v>
       </c>
       <c r="H95" t="n">
-        <v>0.2081739691761433</v>
+        <v>0.1045619541255628</v>
       </c>
       <c r="I95" t="n">
-        <v>0.9999999884481814</v>
+        <v>0.9999999884481813</v>
       </c>
       <c r="J95" t="n">
         <v>0.4760878139931487</v>
@@ -6363,13 +6363,13 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1.941567903368647</v>
+        <v>1.000000002869854</v>
       </c>
       <c r="G96" t="n">
-        <v>1.066996227276062</v>
+        <v>0.5495539087182746</v>
       </c>
       <c r="H96" t="n">
-        <v>0.5253529551014184</v>
+        <v>0.2705818095249773</v>
       </c>
       <c r="I96" t="n">
         <v>1.000000002869854</v>
@@ -6378,7 +6378,7 @@
         <v>0.5495539087182746</v>
       </c>
       <c r="K96" t="n">
-        <v>0.2705818095249772</v>
+        <v>0.2705818095249773</v>
       </c>
       <c r="L96" t="n">
         <v>-0.0002170139712983762</v>
@@ -6425,13 +6425,13 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1.932655287432122</v>
+        <v>0.9999999756601532</v>
       </c>
       <c r="G97" t="n">
-        <v>1.695786215095331</v>
+        <v>0.8774385090024563</v>
       </c>
       <c r="H97" t="n">
-        <v>0.4189717241766182</v>
+        <v>0.2167855368225492</v>
       </c>
       <c r="I97" t="n">
         <v>0.9999999756601532</v>
@@ -6487,19 +6487,19 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1.850360130170066</v>
+        <v>0.9999999865239615</v>
       </c>
       <c r="G98" t="n">
-        <v>0.9405184005557359</v>
+        <v>0.5082893716450921</v>
       </c>
       <c r="H98" t="n">
-        <v>0.263361155529273</v>
+        <v>0.1423296728491455</v>
       </c>
       <c r="I98" t="n">
         <v>0.9999999865239615</v>
       </c>
       <c r="J98" t="n">
-        <v>0.508289371645092</v>
+        <v>0.5082893716450921</v>
       </c>
       <c r="K98" t="n">
         <v>0.1423296728491455</v>
@@ -6549,13 +6549,13 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1.595260589780034</v>
+        <v>0.9999999809829487</v>
       </c>
       <c r="G99" t="n">
-        <v>1.24440303625176</v>
+        <v>0.7800625305728076</v>
       </c>
       <c r="H99" t="n">
-        <v>0.9078081806462022</v>
+        <v>0.5690657496325051</v>
       </c>
       <c r="I99" t="n">
         <v>0.9999999809829487</v>
@@ -6611,22 +6611,22 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1.799169963379087</v>
+        <v>0.9999999700621152</v>
       </c>
       <c r="G100" t="n">
-        <v>1.663450622069905</v>
+        <v>0.924565553076222</v>
       </c>
       <c r="H100" t="n">
-        <v>0.6496427220140064</v>
+        <v>0.3610791174753494</v>
       </c>
       <c r="I100" t="n">
-        <v>0.9999999700621152</v>
+        <v>1.000000029666762</v>
       </c>
       <c r="J100" t="n">
-        <v>0.924565553076222</v>
+        <v>0.9245656081846267</v>
       </c>
       <c r="K100" t="n">
-        <v>0.3610791174753494</v>
+        <v>0.3610791389973432</v>
       </c>
       <c r="L100" t="n">
         <v>0.0008727977630910097</v>
@@ -6673,13 +6673,13 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1.075707906263938</v>
+        <v>0.8333499056076115</v>
       </c>
       <c r="G101" t="n">
-        <v>0.9624174773093137</v>
+        <v>0.7455839166009105</v>
       </c>
       <c r="H101" t="n">
-        <v>1.290823848590583</v>
+        <v>1.000000024277109</v>
       </c>
       <c r="I101" t="n">
         <v>0.8333499056076115</v>
@@ -6735,13 +6735,13 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1.886618241939461</v>
+        <v>0.9999999922456768</v>
       </c>
       <c r="G102" t="n">
-        <v>1.008737334667126</v>
+        <v>0.5346801511937357</v>
       </c>
       <c r="H102" t="n">
-        <v>0.8481038462139208</v>
+        <v>0.4495365415133434</v>
       </c>
       <c r="I102" t="n">
         <v>0.9999999922456768</v>
@@ -6750,7 +6750,7 @@
         <v>0.5346801511937357</v>
       </c>
       <c r="K102" t="n">
-        <v>0.4495365415133433</v>
+        <v>0.4495365415133434</v>
       </c>
       <c r="L102" t="n">
         <v>0.009476442026496893</v>
@@ -6797,19 +6797,19 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1.79988699525344</v>
+        <v>1.000000029637223</v>
       </c>
       <c r="G103" t="n">
-        <v>1.403961643282281</v>
+        <v>0.7800276842903211</v>
       </c>
       <c r="H103" t="n">
-        <v>0.9261466035878033</v>
+        <v>0.5145582103090904</v>
       </c>
       <c r="I103" t="n">
         <v>1.000000029637223</v>
       </c>
       <c r="J103" t="n">
-        <v>0.7800276842903209</v>
+        <v>0.7800276842903211</v>
       </c>
       <c r="K103" t="n">
         <v>0.5145582103090904</v>
@@ -6859,13 +6859,13 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1.51945043309758</v>
+        <v>1.000000004604228</v>
       </c>
       <c r="G104" t="n">
-        <v>1.105528259187598</v>
+        <v>0.7275842898171747</v>
       </c>
       <c r="H104" t="n">
-        <v>0.6783045500027587</v>
+        <v>0.4464143998057395</v>
       </c>
       <c r="I104" t="n">
         <v>1.000000004604228</v>
@@ -6921,13 +6921,13 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1.939515380385541</v>
+        <v>1.000000014506921</v>
       </c>
       <c r="G105" t="n">
-        <v>1.031597690232599</v>
+        <v>0.5318842612079938</v>
       </c>
       <c r="H105" t="n">
-        <v>0.7685736619098447</v>
+        <v>0.3962709864701889</v>
       </c>
       <c r="I105" t="n">
         <v>1.000000014506921</v>
@@ -6936,7 +6936,7 @@
         <v>0.5318842612079938</v>
       </c>
       <c r="K105" t="n">
-        <v>0.3962709864701888</v>
+        <v>0.3962709864701889</v>
       </c>
       <c r="L105" t="n">
         <v>0.1559130640723347</v>
@@ -6983,13 +6983,13 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1.908049777313796</v>
+        <v>0.9999999766568772</v>
       </c>
       <c r="G106" t="n">
-        <v>1.536281745448816</v>
+        <v>0.8051580875159459</v>
       </c>
       <c r="H106" t="n">
-        <v>1.303864598846143</v>
+        <v>0.6833493464963409</v>
       </c>
       <c r="I106" t="n">
         <v>0.9999999766568772</v>
@@ -7045,13 +7045,13 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1.68036040833705</v>
+        <v>0.9999999832759306</v>
       </c>
       <c r="G107" t="n">
-        <v>1.290370491087015</v>
+        <v>0.7679129210047089</v>
       </c>
       <c r="H107" t="n">
-        <v>0.9043136166999415</v>
+        <v>0.5381664535116499</v>
       </c>
       <c r="I107" t="n">
         <v>0.9999999832759306</v>
@@ -7107,13 +7107,13 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1.798814365429804</v>
+        <v>0.999999971924898</v>
       </c>
       <c r="G108" t="n">
-        <v>1.382696497732551</v>
+        <v>0.7686710121323876</v>
       </c>
       <c r="H108" t="n">
-        <v>1.301525285691671</v>
+        <v>0.7235461725035938</v>
       </c>
       <c r="I108" t="n">
         <v>0.999999971924898</v>
@@ -7122,7 +7122,7 @@
         <v>0.7686710121323876</v>
       </c>
       <c r="K108" t="n">
-        <v>0.7235461725035939</v>
+        <v>0.7235461725035938</v>
       </c>
       <c r="L108" t="n">
         <v>-0.04725492830049285</v>
@@ -7169,22 +7169,22 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1.768485106047826</v>
+        <v>1.00000002079346</v>
       </c>
       <c r="G109" t="n">
-        <v>1.508525658898446</v>
+        <v>0.8530044641637589</v>
       </c>
       <c r="H109" t="n">
-        <v>1.431000678072756</v>
+        <v>0.8091675202321509</v>
       </c>
       <c r="I109" t="n">
         <v>1.00000002079346</v>
       </c>
       <c r="J109" t="n">
-        <v>0.8530044641637587</v>
+        <v>0.8530044641637589</v>
       </c>
       <c r="K109" t="n">
-        <v>0.8091675202321508</v>
+        <v>0.8091675202321509</v>
       </c>
       <c r="L109" t="n">
         <v>0.02417301148796309</v>
@@ -7231,13 +7231,13 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1.660122721484856</v>
+        <v>0.9999999815045117</v>
       </c>
       <c r="G110" t="n">
-        <v>1.116602068683412</v>
+        <v>0.672602111627383</v>
       </c>
       <c r="H110" t="n">
-        <v>1.26031651835863</v>
+        <v>0.7591706798164906</v>
       </c>
       <c r="I110" t="n">
         <v>0.9999999815045117</v>
@@ -7246,7 +7246,7 @@
         <v>0.672602111627383</v>
       </c>
       <c r="K110" t="n">
-        <v>0.7591706798164907</v>
+        <v>0.7591706798164906</v>
       </c>
       <c r="L110" t="n">
         <v>-0.0003115320769934557</v>
@@ -7293,22 +7293,22 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1.892673105493502</v>
+        <v>0.9999999845138239</v>
       </c>
       <c r="G111" t="n">
-        <v>1.784217606899628</v>
+        <v>0.9426971694637655</v>
       </c>
       <c r="H111" t="n">
-        <v>1.280475621027518</v>
+        <v>0.6765434545887792</v>
       </c>
       <c r="I111" t="n">
         <v>0.9999999845138239</v>
       </c>
       <c r="J111" t="n">
-        <v>0.9426971694637656</v>
+        <v>0.9426971694637655</v>
       </c>
       <c r="K111" t="n">
-        <v>0.6765434545887791</v>
+        <v>0.6765434545887792</v>
       </c>
       <c r="L111" t="n">
         <v>0.01452163378444949</v>
@@ -7355,19 +7355,19 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1.763940907199546</v>
+        <v>0.9999999868663573</v>
       </c>
       <c r="G112" t="n">
-        <v>1.086640161146585</v>
+        <v>0.61602979013634</v>
       </c>
       <c r="H112" t="n">
-        <v>1.078288638159967</v>
+        <v>0.6112952081314411</v>
       </c>
       <c r="I112" t="n">
-        <v>0.9999999868663574</v>
+        <v>0.9999999868663573</v>
       </c>
       <c r="J112" t="n">
-        <v>0.6160297901363401</v>
+        <v>0.61602979013634</v>
       </c>
       <c r="K112" t="n">
         <v>0.6112952081314411</v>
@@ -7417,13 +7417,13 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1.661144711032777</v>
+        <v>0.9999999865176239</v>
       </c>
       <c r="G113" t="n">
-        <v>1.55954861215743</v>
+        <v>0.9388396933590432</v>
       </c>
       <c r="H113" t="n">
-        <v>0.9439608189235885</v>
+        <v>0.5682592250556358</v>
       </c>
       <c r="I113" t="n">
         <v>0.9999999865176239</v>
@@ -7479,13 +7479,13 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1.684958131499193</v>
+        <v>1.00000001850508</v>
       </c>
       <c r="G114" t="n">
-        <v>1.323614359546639</v>
+        <v>0.785547343459829</v>
       </c>
       <c r="H114" t="n">
-        <v>1.026688411240407</v>
+        <v>0.6093257814815027</v>
       </c>
       <c r="I114" t="n">
         <v>1.00000001850508</v>
@@ -7541,19 +7541,19 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1.587265018104417</v>
+        <v>1.000000002177317</v>
       </c>
       <c r="G115" t="n">
-        <v>1.46663456075138</v>
+        <v>0.9240010629707127</v>
       </c>
       <c r="H115" t="n">
-        <v>0.8297561528101574</v>
+        <v>0.5227584210277196</v>
       </c>
       <c r="I115" t="n">
         <v>1.000000002177317</v>
       </c>
       <c r="J115" t="n">
-        <v>0.9240010629707128</v>
+        <v>0.9240010629707127</v>
       </c>
       <c r="K115" t="n">
         <v>0.5227584210277196</v>
@@ -7603,22 +7603,22 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1.717297378935616</v>
+        <v>0.9999999674656199</v>
       </c>
       <c r="G116" t="n">
-        <v>1.062561861290465</v>
+        <v>0.6187407258370424</v>
       </c>
       <c r="H116" t="n">
-        <v>1.107255658921268</v>
+        <v>0.6447663849482321</v>
       </c>
       <c r="I116" t="n">
-        <v>0.9999999674656199</v>
+        <v>1.000000027070266</v>
       </c>
       <c r="J116" t="n">
-        <v>0.6187407258370424</v>
+        <v>0.6187407627168657</v>
       </c>
       <c r="K116" t="n">
-        <v>0.6447663849482321</v>
+        <v>0.6447664233793058</v>
       </c>
       <c r="L116" t="n">
         <v>-0.05531874917002229</v>
@@ -7665,13 +7665,13 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1.756934927851023</v>
+        <v>1.000000026546628</v>
       </c>
       <c r="G117" t="n">
-        <v>1.08827305051551</v>
+        <v>0.6194157006922274</v>
       </c>
       <c r="H117" t="n">
-        <v>1.123451311166421</v>
+        <v>0.6394382189011423</v>
       </c>
       <c r="I117" t="n">
         <v>1.000000026546628</v>
@@ -7727,13 +7727,13 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1.794741656895095</v>
+        <v>1.000000014676706</v>
       </c>
       <c r="G118" t="n">
-        <v>1.284383879978114</v>
+        <v>0.7156372026549072</v>
       </c>
       <c r="H118" t="n">
-        <v>1.063988956471032</v>
+        <v>0.5928368397753623</v>
       </c>
       <c r="I118" t="n">
         <v>1.000000014676706</v>
@@ -7789,13 +7789,13 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1.711250474230224</v>
+        <v>1.000000029127913</v>
       </c>
       <c r="G119" t="n">
-        <v>1.036462204899261</v>
+        <v>0.6056753530224595</v>
       </c>
       <c r="H119" t="n">
-        <v>0.8831353871968015</v>
+        <v>0.5160760661398531</v>
       </c>
       <c r="I119" t="n">
         <v>1.000000029127913</v>
@@ -7851,13 +7851,13 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1.936469936916388</v>
+        <v>1.000000012593739</v>
       </c>
       <c r="G120" t="n">
-        <v>1.258289734333933</v>
+        <v>0.6497853264813351</v>
       </c>
       <c r="H120" t="n">
-        <v>0.9870237325707388</v>
+        <v>0.5097025913930701</v>
       </c>
       <c r="I120" t="n">
         <v>1.000000012593739</v>
@@ -7913,13 +7913,13 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1.658736604942534</v>
+        <v>0.9347901827595937</v>
       </c>
       <c r="G121" t="n">
-        <v>1.774448087149382</v>
+        <v>1.000000028178825</v>
       </c>
       <c r="H121" t="n">
-        <v>1.217544198213762</v>
+        <v>0.6861537631561195</v>
       </c>
       <c r="I121" t="n">
         <v>0.9347901827595937</v>
@@ -7975,19 +7975,19 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1.815501015660346</v>
+        <v>1.000000022586159</v>
       </c>
       <c r="G122" t="n">
-        <v>0.7636114460515504</v>
+        <v>0.4206064643928908</v>
       </c>
       <c r="H122" t="n">
-        <v>0.969889123255521</v>
+        <v>0.5342267158186177</v>
       </c>
       <c r="I122" t="n">
         <v>1.000000022586159</v>
       </c>
       <c r="J122" t="n">
-        <v>0.4206064643928907</v>
+        <v>0.4206064643928908</v>
       </c>
       <c r="K122" t="n">
         <v>0.5342267158186177</v>
@@ -8037,22 +8037,22 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1.890241444227931</v>
+        <v>0.9999999685291092</v>
       </c>
       <c r="G123" t="n">
-        <v>1.001151231258652</v>
+        <v>0.5296419686536133</v>
       </c>
       <c r="H123" t="n">
-        <v>1.201966788921562</v>
+        <v>0.6358800113948084</v>
       </c>
       <c r="I123" t="n">
-        <v>0.9999999685291092</v>
+        <v>1.000000028133756</v>
       </c>
       <c r="J123" t="n">
-        <v>0.5296419686536133</v>
+        <v>0.5296420002227367</v>
       </c>
       <c r="K123" t="n">
-        <v>0.6358800113948084</v>
+        <v>0.6358800492962129</v>
       </c>
       <c r="L123" t="n">
         <v>0.02870968612950329</v>
@@ -8099,13 +8099,13 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>1.806253300604244</v>
+        <v>0.9999999925735747</v>
       </c>
       <c r="G124" t="n">
-        <v>0.8687774822350898</v>
+        <v>0.4809831907255463</v>
       </c>
       <c r="H124" t="n">
-        <v>1.035282720934346</v>
+        <v>0.5731658527071282</v>
       </c>
       <c r="I124" t="n">
         <v>0.9999999925735747</v>
@@ -8161,13 +8161,13 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1.798397096595563</v>
+        <v>1.000000018008581</v>
       </c>
       <c r="G125" t="n">
-        <v>0.7171114956065757</v>
+        <v>0.3987503704706021</v>
       </c>
       <c r="H125" t="n">
-        <v>0.8640562026245819</v>
+        <v>0.4804590820462846</v>
       </c>
       <c r="I125" t="n">
         <v>1.000000018008581</v>
@@ -8223,13 +8223,13 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1.741726903821372</v>
+        <v>1.00000001637237</v>
       </c>
       <c r="G126" t="n">
-        <v>0.7449409105930356</v>
+        <v>0.4277024837562498</v>
       </c>
       <c r="H126" t="n">
-        <v>0.865218689082123</v>
+        <v>0.4967591080722826</v>
       </c>
       <c r="I126" t="n">
         <v>1.00000001637237</v>
@@ -8285,22 +8285,22 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>1.688901341518552</v>
+        <v>1.000000021505036</v>
       </c>
       <c r="G127" t="n">
-        <v>0.9499017103758007</v>
+        <v>0.5624376672881199</v>
       </c>
       <c r="H127" t="n">
-        <v>1.276139095750989</v>
+        <v>0.7556031201011322</v>
       </c>
       <c r="I127" t="n">
-        <v>1.000000021505035</v>
+        <v>1.000000021505036</v>
       </c>
       <c r="J127" t="n">
         <v>0.5624376672881199</v>
       </c>
       <c r="K127" t="n">
-        <v>0.7556031201011321</v>
+        <v>0.7556031201011322</v>
       </c>
       <c r="L127" t="n">
         <v>0.04816437352021923</v>
@@ -8347,13 +8347,13 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>1.830672501178003</v>
+        <v>0.9999999992681941</v>
       </c>
       <c r="G128" t="n">
-        <v>0.8945248578815224</v>
+        <v>0.4886318315544118</v>
       </c>
       <c r="H128" t="n">
-        <v>0.9983936254088803</v>
+        <v>0.5453698703814049</v>
       </c>
       <c r="I128" t="n">
         <v>0.9999999992681941</v>
@@ -8409,13 +8409,13 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>1.835894994524633</v>
+        <v>1.000000028455333</v>
       </c>
       <c r="G129" t="n">
-        <v>0.9214179095408802</v>
+        <v>0.5018903251592099</v>
       </c>
       <c r="H129" t="n">
-        <v>1.003974202226174</v>
+        <v>0.5468581992918138</v>
       </c>
       <c r="I129" t="n">
         <v>1.000000028455333</v>
@@ -8471,16 +8471,16 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>1.623235183314931</v>
+        <v>0.9999999739023901</v>
       </c>
       <c r="G130" t="n">
-        <v>0.8568237265977832</v>
+        <v>0.5278493917849586</v>
       </c>
       <c r="H130" t="n">
-        <v>1.074269453124814</v>
+        <v>0.6618076272195521</v>
       </c>
       <c r="I130" t="n">
-        <v>0.9999999739023903</v>
+        <v>0.9999999739023901</v>
       </c>
       <c r="J130" t="n">
         <v>0.5278493917849586</v>
@@ -8533,13 +8533,13 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>1.7805388020163</v>
+        <v>1.000000002604695</v>
       </c>
       <c r="G131" t="n">
-        <v>0.6744020838707436</v>
+        <v>0.3787629255052771</v>
       </c>
       <c r="H131" t="n">
-        <v>0.8017950409198973</v>
+        <v>0.45031034544171</v>
       </c>
       <c r="I131" t="n">
         <v>1.000000002604695</v>
@@ -8595,13 +8595,13 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>1.811340876451121</v>
+        <v>0.9999999714981447</v>
       </c>
       <c r="G132" t="n">
-        <v>0.6909473500680493</v>
+        <v>0.3814562677614332</v>
       </c>
       <c r="H132" t="n">
-        <v>0.8221602214624992</v>
+        <v>0.4538959003896766</v>
       </c>
       <c r="I132" t="n">
         <v>0.9999999714981447</v>
@@ -8657,22 +8657,22 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>1.702249899391003</v>
+        <v>1.000000008685913</v>
       </c>
       <c r="G133" t="n">
-        <v>0.8039042068976066</v>
+        <v>0.4722598098950418</v>
       </c>
       <c r="H133" t="n">
-        <v>1.209504862131329</v>
+        <v>0.710533085106773</v>
       </c>
       <c r="I133" t="n">
         <v>1.000000008685913</v>
       </c>
       <c r="J133" t="n">
-        <v>0.4722598098950417</v>
+        <v>0.4722598098950418</v>
       </c>
       <c r="K133" t="n">
-        <v>0.7105330851067732</v>
+        <v>0.710533085106773</v>
       </c>
       <c r="L133" t="n">
         <v>0.0002193874808028163</v>
@@ -8719,16 +8719,16 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1.653547393844853</v>
+        <v>0.9999999925301561</v>
       </c>
       <c r="G134" t="n">
-        <v>0.9294119012947775</v>
+        <v>0.5620715183682357</v>
       </c>
       <c r="H134" t="n">
-        <v>0.8958910868863343</v>
+        <v>0.5417994570515625</v>
       </c>
       <c r="I134" t="n">
-        <v>0.999999992530156</v>
+        <v>0.9999999925301561</v>
       </c>
       <c r="J134" t="n">
         <v>0.5620715183682357</v>
@@ -8781,22 +8781,22 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>1.575133065982216</v>
+        <v>0.9999999877669776</v>
       </c>
       <c r="G135" t="n">
-        <v>0.9175135527210593</v>
+        <v>0.5824990671025978</v>
       </c>
       <c r="H135" t="n">
-        <v>0.6096805934006652</v>
+        <v>0.3870660829294737</v>
       </c>
       <c r="I135" t="n">
         <v>0.9999999877669776</v>
       </c>
       <c r="J135" t="n">
-        <v>0.5824990671025977</v>
+        <v>0.5824990671025978</v>
       </c>
       <c r="K135" t="n">
-        <v>0.3870660829294738</v>
+        <v>0.3870660829294737</v>
       </c>
       <c r="L135" t="n">
         <v>-6.775153285803571e-05</v>
@@ -8843,22 +8843,22 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>1.670322198794409</v>
+        <v>1.000000011375109</v>
       </c>
       <c r="G136" t="n">
-        <v>0.9403065962177231</v>
+        <v>0.5629492367355829</v>
       </c>
       <c r="H136" t="n">
-        <v>0.9068470404247356</v>
+        <v>0.5429174391591972</v>
       </c>
       <c r="I136" t="n">
         <v>1.000000011375109</v>
       </c>
       <c r="J136" t="n">
-        <v>0.5629492367355831</v>
+        <v>0.5629492367355829</v>
       </c>
       <c r="K136" t="n">
-        <v>0.5429174391591971</v>
+        <v>0.5429174391591972</v>
       </c>
       <c r="L136" t="n">
         <v>0.08357677541925873</v>
@@ -8905,13 +8905,13 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1.812811517845375</v>
+        <v>1.000000013223536</v>
       </c>
       <c r="G137" t="n">
-        <v>0.9964633540357468</v>
+        <v>0.5496784179730207</v>
       </c>
       <c r="H137" t="n">
-        <v>1.032302603626634</v>
+        <v>0.5694483994145584</v>
       </c>
       <c r="I137" t="n">
         <v>1.000000013223536</v>
@@ -8967,19 +8967,19 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>1.758082595876733</v>
+        <v>0.999999981585968</v>
       </c>
       <c r="G138" t="n">
-        <v>0.9587936629135999</v>
+        <v>0.5453632539830729</v>
       </c>
       <c r="H138" t="n">
-        <v>1.036773434381909</v>
+        <v>0.5897182633639033</v>
       </c>
       <c r="I138" t="n">
-        <v>0.9999999815859681</v>
+        <v>0.999999981585968</v>
       </c>
       <c r="J138" t="n">
-        <v>0.5453632539830731</v>
+        <v>0.5453632539830729</v>
       </c>
       <c r="K138" t="n">
         <v>0.5897182633639033</v>
@@ -9029,16 +9029,16 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1.784420594252376</v>
+        <v>0.9999999914696086</v>
       </c>
       <c r="G139" t="n">
-        <v>0.7978624204546305</v>
+        <v>0.4471268804106324</v>
       </c>
       <c r="H139" t="n">
-        <v>0.9110918268218027</v>
+        <v>0.5105813180953314</v>
       </c>
       <c r="I139" t="n">
-        <v>0.9999999914696087</v>
+        <v>0.9999999914696086</v>
       </c>
       <c r="J139" t="n">
         <v>0.4471268804106324</v>
@@ -9091,19 +9091,19 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>1.772436212797725</v>
+        <v>0.9999999727046105</v>
       </c>
       <c r="G140" t="n">
-        <v>0.9992656039398512</v>
+        <v>0.5637808398685351</v>
       </c>
       <c r="H140" t="n">
-        <v>1.276101711644433</v>
+        <v>0.7199704382018131</v>
       </c>
       <c r="I140" t="n">
         <v>0.9999999727046105</v>
       </c>
       <c r="J140" t="n">
-        <v>0.5637808398685353</v>
+        <v>0.5637808398685351</v>
       </c>
       <c r="K140" t="n">
         <v>0.7199704382018131</v>
@@ -9153,22 +9153,22 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>1.776557269301066</v>
+        <v>0.9999999679065983</v>
       </c>
       <c r="G141" t="n">
-        <v>0.772146017981528</v>
+        <v>0.4346305106755797</v>
       </c>
       <c r="H141" t="n">
-        <v>0.8123662038174153</v>
+        <v>0.4572699072433629</v>
       </c>
       <c r="I141" t="n">
-        <v>0.9999999679065983</v>
+        <v>1.000000027511245</v>
       </c>
       <c r="J141" t="n">
-        <v>0.4346305106755798</v>
+        <v>0.4346305365815785</v>
       </c>
       <c r="K141" t="n">
-        <v>0.4572699072433629</v>
+        <v>0.457269934498775</v>
       </c>
       <c r="L141" t="n">
         <v>0.000290981626264053</v>
@@ -9215,13 +9215,13 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>1.670133869010946</v>
+        <v>1.000000023886783</v>
       </c>
       <c r="G142" t="n">
-        <v>1.239946516529106</v>
+        <v>0.7424234482962355</v>
       </c>
       <c r="H142" t="n">
-        <v>1.167875542731344</v>
+        <v>0.6992706347065161</v>
       </c>
       <c r="I142" t="n">
         <v>1.000000023886783</v>
@@ -9277,13 +9277,13 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>1.757848375071421</v>
+        <v>0.9999999960606761</v>
       </c>
       <c r="G143" t="n">
-        <v>1.32876267768264</v>
+        <v>0.7559028931572249</v>
       </c>
       <c r="H143" t="n">
-        <v>1.38597460603668</v>
+        <v>0.7884494591409599</v>
       </c>
       <c r="I143" t="n">
         <v>0.9999999960606761</v>
@@ -9339,13 +9339,13 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>1.771028675387404</v>
+        <v>1.000000021174901</v>
       </c>
       <c r="G144" t="n">
-        <v>1.428779218617997</v>
+        <v>0.8067510530622646</v>
       </c>
       <c r="H144" t="n">
-        <v>1.044227443649531</v>
+        <v>0.5896163513741663</v>
       </c>
       <c r="I144" t="n">
         <v>1.000000021174901</v>
@@ -9401,13 +9401,13 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>1.780564470957484</v>
+        <v>1.000000024476335</v>
       </c>
       <c r="G145" t="n">
-        <v>1.405619125353493</v>
+        <v>0.7894233444981842</v>
       </c>
       <c r="H145" t="n">
-        <v>1.40963589867749</v>
+        <v>0.7916792433930737</v>
       </c>
       <c r="I145" t="n">
         <v>1.000000024476335</v>
@@ -9463,13 +9463,13 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>1.709749934179574</v>
+        <v>0.9999999983167589</v>
       </c>
       <c r="G146" t="n">
-        <v>1.168516978073356</v>
+        <v>0.6834432057850468</v>
       </c>
       <c r="H146" t="n">
-        <v>1.151344484246117</v>
+        <v>0.673399342963333</v>
       </c>
       <c r="I146" t="n">
         <v>0.9999999983167589</v>
@@ -9478,7 +9478,7 @@
         <v>0.6834432057850468</v>
       </c>
       <c r="K146" t="n">
-        <v>0.6733993429633329</v>
+        <v>0.673399342963333</v>
       </c>
       <c r="L146" t="n">
         <v>-0.0004556569207901457</v>
@@ -9525,13 +9525,13 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>1.779919662997881</v>
+        <v>1.000000021725289</v>
       </c>
       <c r="G147" t="n">
-        <v>1.610987138590698</v>
+        <v>0.9050898234791716</v>
       </c>
       <c r="H147" t="n">
-        <v>1.045446222549921</v>
+        <v>0.5873558604896356</v>
       </c>
       <c r="I147" t="n">
         <v>1.000000021725289</v>
@@ -9587,19 +9587,19 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>1.670104515773119</v>
+        <v>1.00000000726992</v>
       </c>
       <c r="G148" t="n">
-        <v>1.517834291011039</v>
+        <v>0.9088259373653289</v>
       </c>
       <c r="H148" t="n">
-        <v>1.106995406133535</v>
+        <v>0.662830022747922</v>
       </c>
       <c r="I148" t="n">
-        <v>1.000000007269921</v>
+        <v>1.00000000726992</v>
       </c>
       <c r="J148" t="n">
-        <v>0.908825937365329</v>
+        <v>0.9088259373653289</v>
       </c>
       <c r="K148" t="n">
         <v>0.662830022747922</v>
@@ -9649,19 +9649,19 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>1.687090780025899</v>
+        <v>1.00000001512481</v>
       </c>
       <c r="G149" t="n">
-        <v>1.284437673969199</v>
+        <v>0.7613328865304786</v>
       </c>
       <c r="H149" t="n">
-        <v>1.230955587191738</v>
+        <v>0.7296321101291362</v>
       </c>
       <c r="I149" t="n">
         <v>1.00000001512481</v>
       </c>
       <c r="J149" t="n">
-        <v>0.7613328865304785</v>
+        <v>0.7613328865304786</v>
       </c>
       <c r="K149" t="n">
         <v>0.7296321101291362</v>
@@ -9711,13 +9711,13 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>1.845491496738883</v>
+        <v>0.999999982783901</v>
       </c>
       <c r="G150" t="n">
-        <v>1.694766227073708</v>
+        <v>0.9183278280562219</v>
       </c>
       <c r="H150" t="n">
-        <v>0.9921229891308555</v>
+        <v>0.5375928167664392</v>
       </c>
       <c r="I150" t="n">
         <v>0.999999982783901</v>
@@ -9773,13 +9773,13 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>1.45291722534707</v>
+        <v>1.000000004913395</v>
       </c>
       <c r="G151" t="n">
-        <v>1.096678684735477</v>
+        <v>0.754811541216273</v>
       </c>
       <c r="H151" t="n">
-        <v>1.097024336253983</v>
+        <v>0.7550494429454113</v>
       </c>
       <c r="I151" t="n">
         <v>1.000000004913395</v>
@@ -9835,13 +9835,13 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>1.803904776919735</v>
+        <v>1.000000002835474</v>
       </c>
       <c r="G152" t="n">
-        <v>1.740668162338912</v>
+        <v>0.964944596602719</v>
       </c>
       <c r="H152" t="n">
-        <v>1.292983456242748</v>
+        <v>0.7167692421751928</v>
       </c>
       <c r="I152" t="n">
         <v>1.000000002835474</v>
@@ -9897,13 +9897,13 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>1.659535206376147</v>
+        <v>1.000000022159643</v>
       </c>
       <c r="G153" t="n">
-        <v>1.489967058957178</v>
+        <v>0.8978219240240706</v>
       </c>
       <c r="H153" t="n">
-        <v>1.067630035190308</v>
+        <v>0.6433307680045814</v>
       </c>
       <c r="I153" t="n">
         <v>1.000000022159643</v>
@@ -9959,13 +9959,13 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>1.714582933999367</v>
+        <v>1.000000008121453</v>
       </c>
       <c r="G154" t="n">
-        <v>1.398772927596163</v>
+        <v>0.8158094375134772</v>
       </c>
       <c r="H154" t="n">
-        <v>1.371455364523991</v>
+        <v>0.7998769546032978</v>
       </c>
       <c r="I154" t="n">
         <v>1.000000008121453</v>
@@ -10021,13 +10021,13 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>1.705191572764946</v>
+        <v>0.9999999768479353</v>
       </c>
       <c r="G155" t="n">
-        <v>1.662777967220549</v>
+        <v>0.9751267571816773</v>
       </c>
       <c r="H155" t="n">
-        <v>1.256221112911996</v>
+        <v>0.7367037838399221</v>
       </c>
       <c r="I155" t="n">
         <v>0.9999999768479353</v>
@@ -10036,7 +10036,7 @@
         <v>0.9751267571816773</v>
       </c>
       <c r="K155" t="n">
-        <v>0.7367037838399222</v>
+        <v>0.7367037838399221</v>
       </c>
       <c r="L155" t="n">
         <v>7.142523363427466e-05</v>
@@ -10083,13 +10083,13 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>1.539292502881981</v>
+        <v>1.000000031288685</v>
       </c>
       <c r="G156" t="n">
-        <v>0.9998392020967946</v>
+        <v>0.6495446651682337</v>
       </c>
       <c r="H156" t="n">
-        <v>0.9577016171620056</v>
+        <v>0.6221700198852057</v>
       </c>
       <c r="I156" t="n">
         <v>1.000000031288685</v>
@@ -10098,7 +10098,7 @@
         <v>0.6495446651682337</v>
       </c>
       <c r="K156" t="n">
-        <v>0.6221700198852058</v>
+        <v>0.6221700198852057</v>
       </c>
       <c r="L156" t="n">
         <v>0.001567852284963679</v>
@@ -10145,16 +10145,16 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>1.547202082081995</v>
+        <v>0.9999999817680368</v>
       </c>
       <c r="G157" t="n">
-        <v>1.450020227464116</v>
+        <v>0.9371886308969917</v>
       </c>
       <c r="H157" t="n">
-        <v>1.043905217823178</v>
+        <v>0.6747051408992439</v>
       </c>
       <c r="I157" t="n">
-        <v>0.9999999817680367</v>
+        <v>0.9999999817680368</v>
       </c>
       <c r="J157" t="n">
         <v>0.9371886308969917</v>
@@ -10207,13 +10207,13 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1.741062289526603</v>
+        <v>1.000000003452302</v>
       </c>
       <c r="G158" t="n">
-        <v>1.390529642956761</v>
+        <v>0.7986673745804789</v>
       </c>
       <c r="H158" t="n">
-        <v>1.362295630486827</v>
+        <v>0.7824508309580887</v>
       </c>
       <c r="I158" t="n">
         <v>1.000000003452302</v>
@@ -10222,7 +10222,7 @@
         <v>0.7986673745804789</v>
       </c>
       <c r="K158" t="n">
-        <v>0.7824508309580888</v>
+        <v>0.7824508309580887</v>
       </c>
       <c r="L158" t="n">
         <v>-0.0005654794501321586</v>
@@ -10269,19 +10269,19 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1.859316752889955</v>
+        <v>1.000000024865342</v>
       </c>
       <c r="G159" t="n">
-        <v>1.736177976306728</v>
+        <v>0.933772051899617</v>
       </c>
       <c r="H159" t="n">
-        <v>1.231862897172993</v>
+        <v>0.6625352704906187</v>
       </c>
       <c r="I159" t="n">
         <v>1.000000024865342</v>
       </c>
       <c r="J159" t="n">
-        <v>0.9337720518996171</v>
+        <v>0.933772051899617</v>
       </c>
       <c r="K159" t="n">
         <v>0.6625352704906187</v>
@@ -10331,13 +10331,13 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>1.848056103530293</v>
+        <v>1.000000013837859</v>
       </c>
       <c r="G160" t="n">
-        <v>1.45421051150678</v>
+        <v>0.7868865717074285</v>
       </c>
       <c r="H160" t="n">
-        <v>1.311964837563668</v>
+        <v>0.7099161401064833</v>
       </c>
       <c r="I160" t="n">
         <v>1.000000013837859</v>
@@ -10393,13 +10393,13 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>1.847786649129145</v>
+        <v>0.9999999914310325</v>
       </c>
       <c r="G161" t="n">
-        <v>1.04118178272157</v>
+        <v>0.563475103735825</v>
       </c>
       <c r="H161" t="n">
-        <v>1.041010203584326</v>
+        <v>0.5633822471628791</v>
       </c>
       <c r="I161" t="n">
         <v>0.9999999914310325</v>
@@ -10455,13 +10455,13 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>1.787342474001106</v>
+        <v>1.000000025087545</v>
       </c>
       <c r="G162" t="n">
-        <v>0.9955123771283044</v>
+        <v>0.5569790997439533</v>
       </c>
       <c r="H162" t="n">
-        <v>0.5968792133903323</v>
+        <v>0.3339478790700955</v>
       </c>
       <c r="I162" t="n">
         <v>1.000000025087545</v>
@@ -10517,19 +10517,19 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>1.812637479736875</v>
+        <v>1.000000017337181</v>
       </c>
       <c r="G163" t="n">
-        <v>0.676469455973536</v>
+        <v>0.3731962266386582</v>
       </c>
       <c r="H163" t="n">
-        <v>0.5361557874293374</v>
+        <v>0.2957876589877179</v>
       </c>
       <c r="I163" t="n">
         <v>1.000000017337181</v>
       </c>
       <c r="J163" t="n">
-        <v>0.3731962266386583</v>
+        <v>0.3731962266386582</v>
       </c>
       <c r="K163" t="n">
         <v>0.2957876589877179</v>
@@ -10579,22 +10579,22 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>1.795811273411459</v>
+        <v>0.9999999876947656</v>
       </c>
       <c r="G164" t="n">
-        <v>0.7893231587747482</v>
+        <v>0.4395356910542629</v>
       </c>
       <c r="H164" t="n">
-        <v>0.8575036090505406</v>
+        <v>0.4775020689505856</v>
       </c>
       <c r="I164" t="n">
-        <v>0.9999999876947657</v>
+        <v>0.9999999876947656</v>
       </c>
       <c r="J164" t="n">
         <v>0.4395356910542629</v>
       </c>
       <c r="K164" t="n">
-        <v>0.4775020689505857</v>
+        <v>0.4775020689505856</v>
       </c>
       <c r="L164" t="n">
         <v>-0.0001560004583936525</v>
@@ -10641,13 +10641,13 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>1.835308968447259</v>
+        <v>1.000000032164101</v>
       </c>
       <c r="G165" t="n">
-        <v>0.5185920063373698</v>
+        <v>0.2825638799423313</v>
       </c>
       <c r="H165" t="n">
-        <v>0.6249047589206949</v>
+        <v>0.3404902333958993</v>
       </c>
       <c r="I165" t="n">
         <v>1.000000032164101</v>
@@ -10703,22 +10703,22 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>1.815860099949844</v>
+        <v>0.9999999712011283</v>
       </c>
       <c r="G166" t="n">
-        <v>0.9232522943832897</v>
+        <v>0.5084379946561778</v>
       </c>
       <c r="H166" t="n">
-        <v>0.6161548559938659</v>
+        <v>0.3393184520472255</v>
       </c>
       <c r="I166" t="n">
         <v>0.9999999712011283</v>
       </c>
       <c r="J166" t="n">
-        <v>0.5084379946561777</v>
+        <v>0.5084379946561778</v>
       </c>
       <c r="K166" t="n">
-        <v>0.3393184520472254</v>
+        <v>0.3393184520472255</v>
       </c>
       <c r="L166" t="n">
         <v>-0.0001696546600723193</v>
@@ -10765,13 +10765,13 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>1.877132584982642</v>
+        <v>1.000000026637367</v>
       </c>
       <c r="G167" t="n">
-        <v>0.6131008434461465</v>
+        <v>0.326615639557079</v>
       </c>
       <c r="H167" t="n">
-        <v>0.5586701537965655</v>
+        <v>0.2976189178897202</v>
       </c>
       <c r="I167" t="n">
         <v>1.000000026637367</v>
@@ -10780,7 +10780,7 @@
         <v>0.326615639557079</v>
       </c>
       <c r="K167" t="n">
-        <v>0.2976189178897203</v>
+        <v>0.2976189178897202</v>
       </c>
       <c r="L167" t="n">
         <v>-0.0001921352707245438</v>
@@ -10827,13 +10827,13 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>1.877132584982642</v>
+        <v>1.000000026637367</v>
       </c>
       <c r="G168" t="n">
-        <v>0.6131008434461465</v>
+        <v>0.326615639557079</v>
       </c>
       <c r="H168" t="n">
-        <v>0.5586701537965655</v>
+        <v>0.2976189178897202</v>
       </c>
       <c r="I168" t="n">
         <v>1.000000026637367</v>
@@ -10842,7 +10842,7 @@
         <v>0.326615639557079</v>
       </c>
       <c r="K168" t="n">
-        <v>0.2976189178897203</v>
+        <v>0.2976189178897202</v>
       </c>
       <c r="L168" t="n">
         <v>-0.0001921352707245438</v>
@@ -10889,13 +10889,13 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>1.791392240542949</v>
+        <v>1.000000018643186</v>
       </c>
       <c r="G169" t="n">
-        <v>0.7986656499818894</v>
+        <v>0.4458351704311814</v>
       </c>
       <c r="H169" t="n">
-        <v>0.5275472162109021</v>
+        <v>0.2944900698499005</v>
       </c>
       <c r="I169" t="n">
         <v>1.000000018643186</v>
@@ -10904,7 +10904,7 @@
         <v>0.4458351704311814</v>
       </c>
       <c r="K169" t="n">
-        <v>0.2944900698499006</v>
+        <v>0.2944900698499005</v>
       </c>
       <c r="L169" t="n">
         <v>-0.0002462879858486223</v>
@@ -10951,22 +10951,22 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>1.874980221112964</v>
+        <v>1.000000005256071</v>
       </c>
       <c r="G170" t="n">
-        <v>0.6885957444692796</v>
+        <v>0.3672549397240288</v>
       </c>
       <c r="H170" t="n">
-        <v>0.5642884927780683</v>
+        <v>0.300957039114287</v>
       </c>
       <c r="I170" t="n">
         <v>1.000000005256071</v>
       </c>
       <c r="J170" t="n">
-        <v>0.3672549397240289</v>
+        <v>0.3672549397240288</v>
       </c>
       <c r="K170" t="n">
-        <v>0.3009570391142871</v>
+        <v>0.300957039114287</v>
       </c>
       <c r="L170" t="n">
         <v>-0.0001793242216295689</v>
@@ -11013,16 +11013,16 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>1.795857790330969</v>
+        <v>1.000000001781158</v>
       </c>
       <c r="G171" t="n">
-        <v>1.020929679437913</v>
+        <v>0.5684913843140086</v>
       </c>
       <c r="H171" t="n">
-        <v>0.626636526835691</v>
+        <v>0.3489343818456488</v>
       </c>
       <c r="I171" t="n">
-        <v>1.000000001781157</v>
+        <v>1.000000001781158</v>
       </c>
       <c r="J171" t="n">
         <v>0.5684913843140086</v>
@@ -11075,13 +11075,13 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>1.804376407265433</v>
+        <v>1.000000024114238</v>
       </c>
       <c r="G172" t="n">
-        <v>0.681581636139809</v>
+        <v>0.3777380649797903</v>
       </c>
       <c r="H172" t="n">
-        <v>0.74840426014818</v>
+        <v>0.4147717046076873</v>
       </c>
       <c r="I172" t="n">
         <v>1.000000024114238</v>
@@ -11137,19 +11137,19 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>1.827601628741946</v>
+        <v>0.9999999767581049</v>
       </c>
       <c r="G173" t="n">
-        <v>0.573682754505825</v>
+        <v>0.3138992284479703</v>
       </c>
       <c r="H173" t="n">
-        <v>0.5165799716130058</v>
+        <v>0.2826545738867081</v>
       </c>
       <c r="I173" t="n">
         <v>0.9999999767581049</v>
       </c>
       <c r="J173" t="n">
-        <v>0.3138992284479702</v>
+        <v>0.3138992284479703</v>
       </c>
       <c r="K173" t="n">
         <v>0.2826545738867081</v>
@@ -11199,22 +11199,22 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>1.705428511513968</v>
+        <v>1.000000017832456</v>
       </c>
       <c r="G174" t="n">
-        <v>0.9748597584137701</v>
+        <v>0.5716216007978527</v>
       </c>
       <c r="H174" t="n">
-        <v>1.053002641829524</v>
+        <v>0.6174416889936709</v>
       </c>
       <c r="I174" t="n">
         <v>1.000000017832456</v>
       </c>
       <c r="J174" t="n">
-        <v>0.5716216007978528</v>
+        <v>0.5716216007978527</v>
       </c>
       <c r="K174" t="n">
-        <v>0.617441688993671</v>
+        <v>0.6174416889936709</v>
       </c>
       <c r="L174" t="n">
         <v>-0.01576887855623785</v>
@@ -11261,13 +11261,13 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1.824215276842047</v>
+        <v>0.9999999911805606</v>
       </c>
       <c r="G175" t="n">
-        <v>0.9183170760327779</v>
+        <v>0.5034038907532131</v>
       </c>
       <c r="H175" t="n">
-        <v>0.8467869255054095</v>
+        <v>0.4641924277178083</v>
       </c>
       <c r="I175" t="n">
         <v>0.9999999911805606</v>
@@ -11323,22 +11323,22 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1.838206270277354</v>
+        <v>0.9999999886185915</v>
       </c>
       <c r="G176" t="n">
-        <v>0.579130140825711</v>
+        <v>0.3150517673661365</v>
       </c>
       <c r="H176" t="n">
-        <v>0.6795633565321904</v>
+        <v>0.3696882987431371</v>
       </c>
       <c r="I176" t="n">
-        <v>0.9999999886185916</v>
+        <v>0.9999999886185915</v>
       </c>
       <c r="J176" t="n">
         <v>0.3150517673661365</v>
       </c>
       <c r="K176" t="n">
-        <v>0.369688298743137</v>
+        <v>0.3696882987431371</v>
       </c>
       <c r="L176" t="n">
         <v>-0.0001457239152548632</v>
@@ -11385,13 +11385,13 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>1.815955236909611</v>
+        <v>0.9999999755786835</v>
       </c>
       <c r="G177" t="n">
-        <v>0.5375810973124714</v>
+        <v>0.2960321230708791</v>
       </c>
       <c r="H177" t="n">
-        <v>0.6198247306067839</v>
+        <v>0.341321582642458</v>
       </c>
       <c r="I177" t="n">
         <v>0.9999999755786835</v>
@@ -11400,7 +11400,7 @@
         <v>0.2960321230708791</v>
       </c>
       <c r="K177" t="n">
-        <v>0.3413215826424579</v>
+        <v>0.341321582642458</v>
       </c>
       <c r="L177" t="n">
         <v>-0.01546120566320131</v>
@@ -11447,13 +11447,13 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>1.824035519371467</v>
+        <v>0.9999999967377315</v>
       </c>
       <c r="G178" t="n">
-        <v>0.4714085737626909</v>
+        <v>0.2584426493993216</v>
       </c>
       <c r="H178" t="n">
-        <v>0.4644734468544318</v>
+        <v>0.2546405705406683</v>
       </c>
       <c r="I178" t="n">
         <v>0.9999999967377315</v>
@@ -11462,7 +11462,7 @@
         <v>0.2584426493993216</v>
       </c>
       <c r="K178" t="n">
-        <v>0.2546405705406684</v>
+        <v>0.2546405705406683</v>
       </c>
       <c r="L178" t="n">
         <v>-0.01239139472440922</v>
@@ -11509,22 +11509,22 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>1.805660964785943</v>
+        <v>1.000000000956698</v>
       </c>
       <c r="G179" t="n">
-        <v>0.507707842911139</v>
+        <v>0.281175621170417</v>
       </c>
       <c r="H179" t="n">
-        <v>0.5929248065660104</v>
+        <v>0.3283699535496965</v>
       </c>
       <c r="I179" t="n">
         <v>1.000000000956698</v>
       </c>
       <c r="J179" t="n">
-        <v>0.2811756211704169</v>
+        <v>0.281175621170417</v>
       </c>
       <c r="K179" t="n">
-        <v>0.3283699535496964</v>
+        <v>0.3283699535496965</v>
       </c>
       <c r="L179" t="n">
         <v>-0.0001370858720301121</v>
@@ -11571,13 +11571,13 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>1.873668719536965</v>
+        <v>1.000000026089281</v>
       </c>
       <c r="G180" t="n">
-        <v>0.6710997167695403</v>
+        <v>0.3581741677599743</v>
       </c>
       <c r="H180" t="n">
-        <v>0.403327980765149</v>
+        <v>0.2152611008990743</v>
       </c>
       <c r="I180" t="n">
         <v>1.000000026089281</v>
@@ -11633,13 +11633,13 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>1.779797593896113</v>
+        <v>1.000000022407043</v>
       </c>
       <c r="G181" t="n">
-        <v>0.7620685667069484</v>
+        <v>0.4281771064283916</v>
       </c>
       <c r="H181" t="n">
-        <v>0.6906017689208235</v>
+        <v>0.3880226531171933</v>
       </c>
       <c r="I181" t="n">
         <v>1.000000022407043</v>
@@ -11695,13 +11695,13 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>1.674628668377928</v>
+        <v>1.000000031647969</v>
       </c>
       <c r="G182" t="n">
-        <v>1.136734823872742</v>
+        <v>0.6787981606388893</v>
       </c>
       <c r="H182" t="n">
-        <v>0.5711277903787808</v>
+        <v>0.3410474329255446</v>
       </c>
       <c r="I182" t="n">
         <v>1.000000031647969</v>
@@ -11757,13 +11757,13 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>1.864122099179751</v>
+        <v>0.9999999714885957</v>
       </c>
       <c r="G183" t="n">
-        <v>1.231389989978397</v>
+        <v>0.6605736584591613</v>
       </c>
       <c r="H183" t="n">
-        <v>0.5689003263140275</v>
+        <v>0.3051840382903069</v>
       </c>
       <c r="I183" t="n">
         <v>0.9999999714885957</v>
@@ -11819,13 +11819,13 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>1.783305796193809</v>
+        <v>1.000000017941682</v>
       </c>
       <c r="G184" t="n">
-        <v>0.9714315674396978</v>
+        <v>0.5447364030006436</v>
       </c>
       <c r="H184" t="n">
-        <v>0.5844893610194271</v>
+        <v>0.3277561104515288</v>
       </c>
       <c r="I184" t="n">
         <v>1.000000017941682</v>
@@ -11834,7 +11834,7 @@
         <v>0.5447364030006436</v>
       </c>
       <c r="K184" t="n">
-        <v>0.3277561104515287</v>
+        <v>0.3277561104515288</v>
       </c>
       <c r="L184" t="n">
         <v>-0.0005213243575765286</v>
@@ -11881,13 +11881,13 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>1.98432209899719</v>
+        <v>1.000000014071179</v>
       </c>
       <c r="G185" t="n">
-        <v>1.108816789569033</v>
+        <v>0.5587887197001692</v>
       </c>
       <c r="H185" t="n">
-        <v>0.4538780290785274</v>
+        <v>0.2287320368474963</v>
       </c>
       <c r="I185" t="n">
         <v>1.000000014071179</v>
@@ -11896,7 +11896,7 @@
         <v>0.5587887197001692</v>
       </c>
       <c r="K185" t="n">
-        <v>0.2287320368474962</v>
+        <v>0.2287320368474963</v>
       </c>
       <c r="L185" t="n">
         <v>8.902751589654174e-05</v>
@@ -11943,19 +11943,19 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>1.826685445648133</v>
+        <v>1.000000009322211</v>
       </c>
       <c r="G186" t="n">
-        <v>1.311218905510458</v>
+        <v>0.7178131959488406</v>
       </c>
       <c r="H186" t="n">
-        <v>0.5083842100517635</v>
+        <v>0.2783096651928745</v>
       </c>
       <c r="I186" t="n">
         <v>1.000000009322211</v>
       </c>
       <c r="J186" t="n">
-        <v>0.7178131959488405</v>
+        <v>0.7178131959488406</v>
       </c>
       <c r="K186" t="n">
         <v>0.2783096651928745</v>
@@ -12005,13 +12005,13 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>1.669208511989391</v>
+        <v>0.9999999912401976</v>
       </c>
       <c r="G187" t="n">
-        <v>1.635346946341425</v>
+        <v>0.9797139903552701</v>
       </c>
       <c r="H187" t="n">
-        <v>0.8303652258597971</v>
+        <v>0.4974604506397575</v>
       </c>
       <c r="I187" t="n">
         <v>0.9999999912401976</v>
@@ -12067,22 +12067,22 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>1.953630181553377</v>
+        <v>0.9999999859667714</v>
       </c>
       <c r="G188" t="n">
-        <v>1.356357929023061</v>
+        <v>0.6942756734596042</v>
       </c>
       <c r="H188" t="n">
-        <v>0.4192015325878258</v>
+        <v>0.2145756810389558</v>
       </c>
       <c r="I188" t="n">
-        <v>0.9999999859667715</v>
+        <v>0.9999999859667714</v>
       </c>
       <c r="J188" t="n">
-        <v>0.6942756734596043</v>
+        <v>0.6942756734596042</v>
       </c>
       <c r="K188" t="n">
-        <v>0.2145756810389559</v>
+        <v>0.2145756810389558</v>
       </c>
       <c r="L188" t="n">
         <v>-0.02918570844037665</v>
@@ -12129,22 +12129,22 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>1.76942736125138</v>
+        <v>0.9999999675276754</v>
       </c>
       <c r="G189" t="n">
-        <v>1.186387343434825</v>
+        <v>0.6704922343186948</v>
       </c>
       <c r="H189" t="n">
-        <v>0.656344635209031</v>
+        <v>0.3709361730632519</v>
       </c>
       <c r="I189" t="n">
-        <v>0.9999999675276754</v>
+        <v>1.000000027132322</v>
       </c>
       <c r="J189" t="n">
-        <v>0.6704922343186948</v>
+        <v>0.6704922742831485</v>
       </c>
       <c r="K189" t="n">
-        <v>0.3709361730632519</v>
+        <v>0.370936195172772</v>
       </c>
       <c r="L189" t="n">
         <v>0.02858188626075527</v>
@@ -12191,13 +12191,13 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>1.931421536517642</v>
+        <v>1.000000009418885</v>
       </c>
       <c r="G190" t="n">
-        <v>1.332223173294264</v>
+        <v>0.6897630375626451</v>
       </c>
       <c r="H190" t="n">
-        <v>0.5726948379231778</v>
+        <v>0.2965146823152312</v>
       </c>
       <c r="I190" t="n">
         <v>1.000000009418885</v>
@@ -12253,13 +12253,13 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>1.799716152976764</v>
+        <v>1.000000021102717</v>
       </c>
       <c r="G191" t="n">
-        <v>0.8883851147878616</v>
+        <v>0.493625137533936</v>
       </c>
       <c r="H191" t="n">
-        <v>0.4919285964995831</v>
+        <v>0.273336773727876</v>
       </c>
       <c r="I191" t="n">
         <v>1.000000021102717</v>
@@ -12315,19 +12315,19 @@
         </is>
       </c>
       <c r="F192" t="n">
-        <v>1.768166207096965</v>
+        <v>1.000000012822104</v>
       </c>
       <c r="G192" t="n">
-        <v>1.127206763789685</v>
+        <v>0.6375004644464584</v>
       </c>
       <c r="H192" t="n">
-        <v>0.5065545917230886</v>
+        <v>0.2864858496814408</v>
       </c>
       <c r="I192" t="n">
         <v>1.000000012822104</v>
       </c>
       <c r="J192" t="n">
-        <v>0.6375004644464582</v>
+        <v>0.6375004644464584</v>
       </c>
       <c r="K192" t="n">
         <v>0.2864858496814408</v>
@@ -12377,22 +12377,22 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>1.828405132400652</v>
+        <v>0.9999999948426135</v>
       </c>
       <c r="G193" t="n">
-        <v>1.033728299933537</v>
+        <v>0.5653715778214536</v>
       </c>
       <c r="H193" t="n">
-        <v>0.6313598327951522</v>
+        <v>0.3453063100462998</v>
       </c>
       <c r="I193" t="n">
-        <v>0.9999999948426134</v>
+        <v>0.9999999948426135</v>
       </c>
       <c r="J193" t="n">
-        <v>0.5653715778214538</v>
+        <v>0.5653715778214536</v>
       </c>
       <c r="K193" t="n">
-        <v>0.3453063100462999</v>
+        <v>0.3453063100462998</v>
       </c>
       <c r="L193" t="n">
         <v>0.02228810442585455</v>
@@ -12439,22 +12439,22 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>1.873302195944585</v>
+        <v>0.9999999864658076</v>
       </c>
       <c r="G194" t="n">
-        <v>1.262268731757346</v>
+        <v>0.6738201222451874</v>
       </c>
       <c r="H194" t="n">
-        <v>0.4382545482039</v>
+        <v>0.2339475943717107</v>
       </c>
       <c r="I194" t="n">
-        <v>0.9999999864658075</v>
+        <v>0.9999999864658076</v>
       </c>
       <c r="J194" t="n">
         <v>0.6738201222451874</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2339475943717106</v>
+        <v>0.2339475943717107</v>
       </c>
       <c r="L194" t="n">
         <v>-0.0001976143380194773</v>
@@ -12501,22 +12501,22 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>1.51513892833849</v>
+        <v>0.9999999634436101</v>
       </c>
       <c r="G195" t="n">
-        <v>1.304580564813938</v>
+        <v>0.8610302941353324</v>
       </c>
       <c r="H195" t="n">
-        <v>0.4543152646454232</v>
+        <v>0.2998505546521084</v>
       </c>
       <c r="I195" t="n">
-        <v>0.9999999634436101</v>
+        <v>1.000000023048256</v>
       </c>
       <c r="J195" t="n">
-        <v>0.8610302941353325</v>
+        <v>0.8610303454567403</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2998505546521083</v>
+        <v>0.2998505725245952</v>
       </c>
       <c r="L195" t="n">
         <v>-0.03047414219450424</v>
@@ -12563,19 +12563,19 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>1.78884851628256</v>
+        <v>0.9999999982990754</v>
       </c>
       <c r="G196" t="n">
-        <v>1.175777086566927</v>
+        <v>0.657281527119146</v>
       </c>
       <c r="H196" t="n">
-        <v>0.4797041718014314</v>
+        <v>0.2681636631716435</v>
       </c>
       <c r="I196" t="n">
         <v>0.9999999982990754</v>
       </c>
       <c r="J196" t="n">
-        <v>0.6572815271191459</v>
+        <v>0.657281527119146</v>
       </c>
       <c r="K196" t="n">
         <v>0.2681636631716435</v>
@@ -12625,19 +12625,19 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>1.814133528323245</v>
+        <v>1.0000000018899</v>
       </c>
       <c r="G197" t="n">
-        <v>1.24625159725449</v>
+        <v>0.6869679547578056</v>
       </c>
       <c r="H197" t="n">
-        <v>0.4132493552298829</v>
+        <v>0.2277943434477164</v>
       </c>
       <c r="I197" t="n">
         <v>1.0000000018899</v>
       </c>
       <c r="J197" t="n">
-        <v>0.6869679547578054</v>
+        <v>0.6869679547578056</v>
       </c>
       <c r="K197" t="n">
         <v>0.2277943434477164</v>
@@ -12687,13 +12687,13 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>1.720536647178467</v>
+        <v>1.000000033452337</v>
       </c>
       <c r="G198" t="n">
-        <v>1.286462637189909</v>
+        <v>0.7477101300543518</v>
       </c>
       <c r="H198" t="n">
-        <v>0.4614591400663722</v>
+        <v>0.2682065251327325</v>
       </c>
       <c r="I198" t="n">
         <v>1.000000033452337</v>
@@ -12749,13 +12749,13 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>1.413492736570971</v>
+        <v>1.000000040307972</v>
       </c>
       <c r="G199" t="n">
-        <v>0.8868698917339261</v>
+        <v>0.6274315421197947</v>
       </c>
       <c r="H199" t="n">
-        <v>0.3261005919465683</v>
+        <v>0.2307055400101438</v>
       </c>
       <c r="I199" t="n">
         <v>1.000000040307972</v>
@@ -12764,7 +12764,7 @@
         <v>0.6274315421197947</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2307055400101439</v>
+        <v>0.2307055400101438</v>
       </c>
       <c r="L199" t="n">
         <v>-0.1479594404226128</v>
@@ -12811,13 +12811,13 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>1.914827814245348</v>
+        <v>0.9999999950943015</v>
       </c>
       <c r="G200" t="n">
-        <v>1.535903707497029</v>
+        <v>0.8021106067793689</v>
       </c>
       <c r="H200" t="n">
-        <v>0.5504687537697254</v>
+        <v>0.2874768932089262</v>
       </c>
       <c r="I200" t="n">
         <v>0.9999999950943015</v>
@@ -12826,7 +12826,7 @@
         <v>0.8021106067793689</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2874768932089263</v>
+        <v>0.2874768932089262</v>
       </c>
       <c r="L200" t="n">
         <v>-0.007429133654049146</v>
@@ -12873,13 +12873,13 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>1.811244771492376</v>
+        <v>1.000000025016689</v>
       </c>
       <c r="G201" t="n">
-        <v>1.173247686225445</v>
+        <v>0.647757682474644</v>
       </c>
       <c r="H201" t="n">
-        <v>0.520281887392779</v>
+        <v>0.2872510157640497</v>
       </c>
       <c r="I201" t="n">
         <v>1.000000025016689</v>
@@ -12935,13 +12935,13 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>1.022822563821928</v>
+        <v>0.9390605803242886</v>
       </c>
       <c r="G202" t="n">
-        <v>1.089197684322524</v>
+        <v>1.000000044686003</v>
       </c>
       <c r="H202" t="n">
-        <v>0.3311770679726585</v>
+        <v>0.3040559923496612</v>
       </c>
       <c r="I202" t="n">
         <v>0.9390605803242886</v>
@@ -12997,13 +12997,13 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>1.324825779282977</v>
+        <v>1.000000011760478</v>
       </c>
       <c r="G203" t="n">
-        <v>0.9912682297516126</v>
+        <v>0.7482253568057045</v>
       </c>
       <c r="H203" t="n">
-        <v>0.3096654722897295</v>
+        <v>0.2337405270745417</v>
       </c>
       <c r="I203" t="n">
         <v>1.000000011760478</v>
@@ -13059,13 +13059,13 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>1.342028464561089</v>
+        <v>0.9999999745992665</v>
       </c>
       <c r="G204" t="n">
-        <v>0.969697508770167</v>
+        <v>0.7225610408019766</v>
       </c>
       <c r="H204" t="n">
-        <v>0.2425691346372383</v>
+        <v>0.1807481248582434</v>
       </c>
       <c r="I204" t="n">
         <v>0.9999999745992665</v>
@@ -13121,13 +13121,13 @@
         </is>
       </c>
       <c r="F205" t="n">
-        <v>1.055063454299251</v>
+        <v>0.8656950382553699</v>
       </c>
       <c r="G205" t="n">
-        <v>1.218747293626104</v>
+        <v>1.000000029078846</v>
       </c>
       <c r="H205" t="n">
-        <v>0.3383042599344105</v>
+        <v>0.277583606988255</v>
       </c>
       <c r="I205" t="n">
         <v>0.8656950382553699</v>
@@ -13136,7 +13136,7 @@
         <v>1.000000029078846</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2775836069882551</v>
+        <v>0.277583606988255</v>
       </c>
       <c r="L205" t="n">
         <v>-0.0001752657742526101</v>
@@ -13183,13 +13183,13 @@
         </is>
       </c>
       <c r="F206" t="n">
-        <v>1.235326168020324</v>
+        <v>0.9999999976516309</v>
       </c>
       <c r="G206" t="n">
-        <v>1.090842196595193</v>
+        <v>0.8830398175581644</v>
       </c>
       <c r="H206" t="n">
-        <v>0.3240415387225071</v>
+        <v>0.2623125344141554</v>
       </c>
       <c r="I206" t="n">
         <v>0.9999999976516309</v>
@@ -13245,13 +13245,13 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>1.879791888760553</v>
+        <v>1.000000017527728</v>
       </c>
       <c r="G207" t="n">
-        <v>0.449448142370858</v>
+        <v>0.2390946321962309</v>
       </c>
       <c r="H207" t="n">
-        <v>0.2852323298067036</v>
+        <v>0.1517361238292432</v>
       </c>
       <c r="I207" t="n">
         <v>1.000000017527728</v>
@@ -13307,13 +13307,13 @@
         </is>
       </c>
       <c r="F208" t="n">
-        <v>1.973789313282894</v>
+        <v>0.9999999893533287</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2758804239869399</v>
+        <v>0.1397719701860556</v>
       </c>
       <c r="H208" t="n">
-        <v>0.1208302658798796</v>
+        <v>0.0612174074407512</v>
       </c>
       <c r="I208" t="n">
         <v>0.9999999893533287</v>
@@ -13369,22 +13369,22 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>1.381314868388252</v>
+        <v>0.9999999961579202</v>
       </c>
       <c r="G209" t="n">
-        <v>1.021293713449477</v>
+        <v>0.7393634376188628</v>
       </c>
       <c r="H209" t="n">
-        <v>0.3354793194578314</v>
+        <v>0.2428695483169146</v>
       </c>
       <c r="I209" t="n">
         <v>0.9999999961579202</v>
       </c>
       <c r="J209" t="n">
-        <v>0.7393634376188629</v>
+        <v>0.7393634376188628</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2428695483169147</v>
+        <v>0.2428695483169146</v>
       </c>
       <c r="L209" t="n">
         <v>-0.0001522663860097039</v>
@@ -13431,19 +13431,19 @@
         </is>
       </c>
       <c r="F210" t="n">
-        <v>1.689739132589458</v>
+        <v>1.000000014501544</v>
       </c>
       <c r="G210" t="n">
-        <v>0.7218137208593687</v>
+        <v>0.4271746551910834</v>
       </c>
       <c r="H210" t="n">
-        <v>0.3107223213514952</v>
+        <v>0.1838877492179985</v>
       </c>
       <c r="I210" t="n">
         <v>1.000000014501544</v>
       </c>
       <c r="J210" t="n">
-        <v>0.4271746551910833</v>
+        <v>0.4271746551910834</v>
       </c>
       <c r="K210" t="n">
         <v>0.1838877492179985</v>
@@ -13493,22 +13493,22 @@
         </is>
       </c>
       <c r="F211" t="n">
-        <v>1.043192349683636</v>
+        <v>0.9515858245657145</v>
       </c>
       <c r="G211" t="n">
-        <v>1.096267185332705</v>
+        <v>0.9999999653137039</v>
       </c>
       <c r="H211" t="n">
-        <v>0.3345221305949157</v>
+        <v>0.3051465221866131</v>
       </c>
       <c r="I211" t="n">
-        <v>0.9515858245657145</v>
+        <v>0.9515858812846529</v>
       </c>
       <c r="J211" t="n">
-        <v>0.9999999653137041</v>
+        <v>1.00000002491835</v>
       </c>
       <c r="K211" t="n">
-        <v>0.305146522186613</v>
+        <v>0.3051465403747642</v>
       </c>
       <c r="L211" t="n">
         <v>-4.737877303606395e-05</v>
@@ -13555,13 +13555,13 @@
         </is>
       </c>
       <c r="F212" t="n">
-        <v>1.549200068141908</v>
+        <v>1.000000006557261</v>
       </c>
       <c r="G212" t="n">
-        <v>0.8156565259260404</v>
+        <v>0.5265017398642398</v>
       </c>
       <c r="H212" t="n">
-        <v>0.2757840223800884</v>
+        <v>0.1780170488368545</v>
       </c>
       <c r="I212" t="n">
         <v>1.000000006557261</v>
@@ -13570,7 +13570,7 @@
         <v>0.5265017398642398</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1780170488368544</v>
+        <v>0.1780170488368545</v>
       </c>
       <c r="L212" t="n">
         <v>-0.001845419043268845</v>
@@ -13617,19 +13617,19 @@
         </is>
       </c>
       <c r="F213" t="n">
-        <v>1.876630316585166</v>
+        <v>1.000000005510552</v>
       </c>
       <c r="G213" t="n">
-        <v>0.432155594226484</v>
+        <v>0.2302827535016472</v>
       </c>
       <c r="H213" t="n">
-        <v>0.241763945179625</v>
+        <v>0.128828754590199</v>
       </c>
       <c r="I213" t="n">
         <v>1.000000005510552</v>
       </c>
       <c r="J213" t="n">
-        <v>0.2302827535016473</v>
+        <v>0.2302827535016472</v>
       </c>
       <c r="K213" t="n">
         <v>0.128828754590199</v>
@@ -13679,13 +13679,13 @@
         </is>
       </c>
       <c r="F214" t="n">
-        <v>1.814381383257253</v>
+        <v>1.000000012262892</v>
       </c>
       <c r="G214" t="n">
-        <v>0.5637992723594378</v>
+        <v>0.3107391226981681</v>
       </c>
       <c r="H214" t="n">
-        <v>0.295099373430312</v>
+        <v>0.1626446235461858</v>
       </c>
       <c r="I214" t="n">
         <v>1.000000012262892</v>
@@ -13741,13 +13741,13 @@
         </is>
       </c>
       <c r="F215" t="n">
-        <v>1.042278447236295</v>
+        <v>0.9467217784352744</v>
       </c>
       <c r="G215" t="n">
-        <v>1.100934318640887</v>
+        <v>1.000000046866395</v>
       </c>
       <c r="H215" t="n">
-        <v>0.3315568856154098</v>
+        <v>0.3011595655984232</v>
       </c>
       <c r="I215" t="n">
         <v>0.9467217784352744</v>
@@ -13803,22 +13803,22 @@
         </is>
       </c>
       <c r="F216" t="n">
-        <v>1.509986051099661</v>
+        <v>1.000000005379706</v>
       </c>
       <c r="G216" t="n">
-        <v>0.8330538720974985</v>
+        <v>0.5516964053889137</v>
       </c>
       <c r="H216" t="n">
-        <v>0.2728065300103136</v>
+        <v>0.1806682460935708</v>
       </c>
       <c r="I216" t="n">
         <v>1.000000005379706</v>
       </c>
       <c r="J216" t="n">
-        <v>0.5516964053889138</v>
+        <v>0.5516964053889137</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1806682460935707</v>
+        <v>0.1806682460935708</v>
       </c>
       <c r="L216" t="n">
         <v>-0.01240809859667933</v>
@@ -13865,19 +13865,19 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>1.31238397060199</v>
+        <v>0.9999999704665126</v>
       </c>
       <c r="G217" t="n">
-        <v>1.30249877679164</v>
+        <v>0.9924677285770661</v>
       </c>
       <c r="H217" t="n">
-        <v>0.4059008388427616</v>
+        <v>0.309285114682487</v>
       </c>
       <c r="I217" t="n">
         <v>0.9999999704665126</v>
       </c>
       <c r="J217" t="n">
-        <v>0.992467728577066</v>
+        <v>0.9924677285770661</v>
       </c>
       <c r="K217" t="n">
         <v>0.309285114682487</v>
@@ -13927,13 +13927,13 @@
         </is>
       </c>
       <c r="F218" t="n">
-        <v>1.041854139142435</v>
+        <v>0.9506228329712911</v>
       </c>
       <c r="G218" t="n">
-        <v>1.095970055610256</v>
+        <v>1.0000000191711</v>
       </c>
       <c r="H218" t="n">
-        <v>0.3318321916017329</v>
+        <v>0.3027748762520259</v>
       </c>
       <c r="I218" t="n">
         <v>0.9506228329712911</v>
@@ -13989,13 +13989,13 @@
         </is>
       </c>
       <c r="F219" t="n">
-        <v>1.935189976548545</v>
+        <v>1.000000007317866</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2870337769808648</v>
+        <v>0.1483233080781405</v>
       </c>
       <c r="H219" t="n">
-        <v>0.1974756403074595</v>
+        <v>0.1020445765767978</v>
       </c>
       <c r="I219" t="n">
         <v>1.000000007317866</v>
@@ -14051,13 +14051,13 @@
         </is>
       </c>
       <c r="F220" t="n">
-        <v>1.762277405366898</v>
+        <v>1.000000023058835</v>
       </c>
       <c r="G220" t="n">
-        <v>0.6723267361972325</v>
+        <v>0.3815101695412865</v>
       </c>
       <c r="H220" t="n">
-        <v>0.2745033811954358</v>
+        <v>0.1557662753259971</v>
       </c>
       <c r="I220" t="n">
         <v>1.000000023058835</v>
@@ -14113,19 +14113,19 @@
         </is>
       </c>
       <c r="F221" t="n">
-        <v>1.854853384908002</v>
+        <v>0.999999996366647</v>
       </c>
       <c r="G221" t="n">
-        <v>0.5138592644183766</v>
+        <v>0.2770349757734795</v>
       </c>
       <c r="H221" t="n">
-        <v>0.2464703779719067</v>
+        <v>0.1328786302366521</v>
       </c>
       <c r="I221" t="n">
         <v>0.999999996366647</v>
       </c>
       <c r="J221" t="n">
-        <v>0.2770349757734794</v>
+        <v>0.2770349757734795</v>
       </c>
       <c r="K221" t="n">
         <v>0.1328786302366521</v>
@@ -14175,19 +14175,19 @@
         </is>
       </c>
       <c r="F222" t="n">
-        <v>1.939034236782682</v>
+        <v>1.000000006821006</v>
       </c>
       <c r="G222" t="n">
-        <v>1.010739103944267</v>
+        <v>0.5212590328036604</v>
       </c>
       <c r="H222" t="n">
-        <v>0.4535040255759363</v>
+        <v>0.2338813931525834</v>
       </c>
       <c r="I222" t="n">
         <v>1.000000006821006</v>
       </c>
       <c r="J222" t="n">
-        <v>0.5212590328036605</v>
+        <v>0.5212590328036604</v>
       </c>
       <c r="K222" t="n">
         <v>0.2338813931525834</v>
@@ -14237,13 +14237,13 @@
         </is>
       </c>
       <c r="F223" t="n">
-        <v>1.976691295802965</v>
+        <v>1.000000025178565</v>
       </c>
       <c r="G223" t="n">
-        <v>1.101694818730966</v>
+        <v>0.5573428935561404</v>
       </c>
       <c r="H223" t="n">
-        <v>0.693279393636187</v>
+        <v>0.3507272038704183</v>
       </c>
       <c r="I223" t="n">
         <v>1.000000025178565</v>
@@ -14252,7 +14252,7 @@
         <v>0.5573428935561404</v>
       </c>
       <c r="K223" t="n">
-        <v>0.3507272038704182</v>
+        <v>0.3507272038704183</v>
       </c>
       <c r="L223" t="n">
         <v>-0.03944863805887008</v>
@@ -14299,13 +14299,13 @@
         </is>
       </c>
       <c r="F224" t="n">
-        <v>1.885627785960352</v>
+        <v>1.000000020883401</v>
       </c>
       <c r="G224" t="n">
-        <v>1.634075233147748</v>
+        <v>0.8665948176196188</v>
       </c>
       <c r="H224" t="n">
-        <v>0.5962819536086551</v>
+        <v>0.316224639083457</v>
       </c>
       <c r="I224" t="n">
         <v>1.000000020883401</v>
@@ -14361,13 +14361,13 @@
         </is>
       </c>
       <c r="F225" t="n">
-        <v>1.784438192689496</v>
+        <v>1.000000033315669</v>
       </c>
       <c r="G225" t="n">
-        <v>0.9622786710549063</v>
+        <v>0.5392614364880424</v>
       </c>
       <c r="H225" t="n">
-        <v>0.598095131671753</v>
+        <v>0.3351728034335817</v>
       </c>
       <c r="I225" t="n">
         <v>1.000000033315669</v>
@@ -14423,13 +14423,13 @@
         </is>
       </c>
       <c r="F226" t="n">
-        <v>1.664104753701547</v>
+        <v>1.000000032217351</v>
       </c>
       <c r="G226" t="n">
-        <v>1.007629566734845</v>
+        <v>0.6055085155887469</v>
       </c>
       <c r="H226" t="n">
-        <v>0.350776904066844</v>
+        <v>0.2107901648545244</v>
       </c>
       <c r="I226" t="n">
         <v>1.000000032217351</v>
@@ -14485,13 +14485,13 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>1.828611073840405</v>
+        <v>1.00000003148122</v>
       </c>
       <c r="G227" t="n">
-        <v>1.089151262960712</v>
+        <v>0.5956167021132129</v>
       </c>
       <c r="H227" t="n">
-        <v>0.5137905785567956</v>
+        <v>0.280973139713356</v>
       </c>
       <c r="I227" t="n">
         <v>1.00000003148122</v>
@@ -14547,16 +14547,16 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>1.942790494201498</v>
+        <v>0.9999999927584751</v>
       </c>
       <c r="G228" t="n">
-        <v>1.010013026760309</v>
+        <v>0.5198774764756084</v>
       </c>
       <c r="H228" t="n">
-        <v>0.4608558394665123</v>
+        <v>0.2372133472470116</v>
       </c>
       <c r="I228" t="n">
-        <v>0.999999992758475</v>
+        <v>0.9999999927584751</v>
       </c>
       <c r="J228" t="n">
         <v>0.5198774764756084</v>
@@ -14609,22 +14609,22 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>1.784320676481261</v>
+        <v>0.999999980043791</v>
       </c>
       <c r="G229" t="n">
-        <v>1.272772975259184</v>
+        <v>0.7133095337825767</v>
       </c>
       <c r="H229" t="n">
-        <v>1.033299994539256</v>
+        <v>0.5790999272374104</v>
       </c>
       <c r="I229" t="n">
-        <v>0.9999999800437909</v>
+        <v>0.999999980043791</v>
       </c>
       <c r="J229" t="n">
-        <v>0.7133095337825768</v>
+        <v>0.7133095337825767</v>
       </c>
       <c r="K229" t="n">
-        <v>0.5790999272374105</v>
+        <v>0.5790999272374104</v>
       </c>
       <c r="L229" t="n">
         <v>0.01014448155892913</v>
@@ -14671,19 +14671,19 @@
         </is>
       </c>
       <c r="F230" t="n">
-        <v>1.447712709470223</v>
+        <v>1.000000034284709</v>
       </c>
       <c r="G230" t="n">
-        <v>1.17157268585626</v>
+        <v>0.8092577473137019</v>
       </c>
       <c r="H230" t="n">
-        <v>0.9965223683689816</v>
+        <v>0.6883426497644891</v>
       </c>
       <c r="I230" t="n">
         <v>1.000000034284709</v>
       </c>
       <c r="J230" t="n">
-        <v>0.809257747313702</v>
+        <v>0.8092577473137019</v>
       </c>
       <c r="K230" t="n">
         <v>0.6883426497644891</v>
@@ -14733,19 +14733,19 @@
         </is>
       </c>
       <c r="F231" t="n">
-        <v>1.635316444688296</v>
+        <v>0.9999999716026111</v>
       </c>
       <c r="G231" t="n">
-        <v>1.138150531938075</v>
+        <v>0.695981810318377</v>
       </c>
       <c r="H231" t="n">
-        <v>0.5147886167039428</v>
+        <v>0.3147944874873518</v>
       </c>
       <c r="I231" t="n">
-        <v>0.9999999716026112</v>
+        <v>0.9999999716026111</v>
       </c>
       <c r="J231" t="n">
-        <v>0.6959818103183769</v>
+        <v>0.695981810318377</v>
       </c>
       <c r="K231" t="n">
         <v>0.3147944874873518</v>
@@ -14795,19 +14795,19 @@
         </is>
       </c>
       <c r="F232" t="n">
-        <v>1.913137168047041</v>
+        <v>0.9999999846077603</v>
       </c>
       <c r="G232" t="n">
-        <v>1.182413482195089</v>
+        <v>0.6180494967865386</v>
       </c>
       <c r="H232" t="n">
-        <v>1.04419622005207</v>
+        <v>0.5458031036245474</v>
       </c>
       <c r="I232" t="n">
         <v>0.9999999846077603</v>
       </c>
       <c r="J232" t="n">
-        <v>0.6180494967865388</v>
+        <v>0.6180494967865386</v>
       </c>
       <c r="K232" t="n">
         <v>0.5458031036245474</v>
@@ -14857,19 +14857,19 @@
         </is>
       </c>
       <c r="F233" t="n">
-        <v>1.811536683560092</v>
+        <v>1.000000007633824</v>
       </c>
       <c r="G233" t="n">
-        <v>1.258740268620733</v>
+        <v>0.6948466954342964</v>
       </c>
       <c r="H233" t="n">
-        <v>0.2281859177375408</v>
+        <v>0.1259626269510774</v>
       </c>
       <c r="I233" t="n">
         <v>1.000000007633824</v>
       </c>
       <c r="J233" t="n">
-        <v>0.6948466954342966</v>
+        <v>0.6948466954342964</v>
       </c>
       <c r="K233" t="n">
         <v>0.1259626269510774</v>
@@ -14919,13 +14919,13 @@
         </is>
       </c>
       <c r="F234" t="n">
-        <v>1.619317674630599</v>
+        <v>1.000000014719543</v>
       </c>
       <c r="G234" t="n">
-        <v>0.7442591390094336</v>
+        <v>0.4596128120039014</v>
       </c>
       <c r="H234" t="n">
-        <v>0.6502815922985512</v>
+        <v>0.4015775360561925</v>
       </c>
       <c r="I234" t="n">
         <v>1.000000014719543</v>
@@ -14981,22 +14981,22 @@
         </is>
       </c>
       <c r="F235" t="n">
-        <v>1.768592061871457</v>
+        <v>0.999999967575643</v>
       </c>
       <c r="G235" t="n">
-        <v>0.8343316375347124</v>
+        <v>0.4717490417768741</v>
       </c>
       <c r="H235" t="n">
-        <v>0.6334432818246682</v>
+        <v>0.3581624473737554</v>
       </c>
       <c r="I235" t="n">
-        <v>0.999999967575643</v>
+        <v>1.00000002718029</v>
       </c>
       <c r="J235" t="n">
-        <v>0.471749041776874</v>
+        <v>0.4717490698953098</v>
       </c>
       <c r="K235" t="n">
-        <v>0.3581624473737554</v>
+        <v>0.3581624687219021</v>
       </c>
       <c r="L235" t="n">
         <v>-0.003074658350770847</v>
@@ -15043,13 +15043,13 @@
         </is>
       </c>
       <c r="F236" t="n">
-        <v>1.722351451710867</v>
+        <v>1.000000011533215</v>
       </c>
       <c r="G236" t="n">
-        <v>0.7161246862944821</v>
+        <v>0.4157831398709898</v>
       </c>
       <c r="H236" t="n">
-        <v>0.6004199249968007</v>
+        <v>0.3486047701386127</v>
       </c>
       <c r="I236" t="n">
         <v>1.000000011533215</v>
@@ -15058,7 +15058,7 @@
         <v>0.4157831398709898</v>
       </c>
       <c r="K236" t="n">
-        <v>0.3486047701386126</v>
+        <v>0.3486047701386127</v>
       </c>
       <c r="L236" t="n">
         <v>-0.0155305165992321</v>
@@ -15105,19 +15105,19 @@
         </is>
       </c>
       <c r="F237" t="n">
-        <v>1.586360066189611</v>
+        <v>0.9999999806211421</v>
       </c>
       <c r="G237" t="n">
-        <v>1.14432434041095</v>
+        <v>0.721352196531197</v>
       </c>
       <c r="H237" t="n">
-        <v>0.5826726014716984</v>
+        <v>0.367301599806235</v>
       </c>
       <c r="I237" t="n">
         <v>0.9999999806211421</v>
       </c>
       <c r="J237" t="n">
-        <v>0.7213521965311971</v>
+        <v>0.721352196531197</v>
       </c>
       <c r="K237" t="n">
         <v>0.367301599806235</v>
@@ -15167,13 +15167,13 @@
         </is>
       </c>
       <c r="F238" t="n">
-        <v>1.64877160498091</v>
+        <v>0.9999999765536358</v>
       </c>
       <c r="G238" t="n">
-        <v>0.8047211115494552</v>
+        <v>0.4880731147058954</v>
       </c>
       <c r="H238" t="n">
-        <v>0.7247970763420863</v>
+        <v>0.4395982179451847</v>
       </c>
       <c r="I238" t="n">
         <v>0.9999999765536358</v>
@@ -15229,19 +15229,19 @@
         </is>
       </c>
       <c r="F239" t="n">
-        <v>1.955029462086891</v>
+        <v>0.9999999869449681</v>
       </c>
       <c r="G239" t="n">
-        <v>0.6722671973677428</v>
+        <v>0.3438655026066273</v>
       </c>
       <c r="H239" t="n">
-        <v>0.506832282781883</v>
+        <v>0.2592453392616164</v>
       </c>
       <c r="I239" t="n">
-        <v>0.9999999869449679</v>
+        <v>0.9999999869449681</v>
       </c>
       <c r="J239" t="n">
-        <v>0.3438655026066274</v>
+        <v>0.3438655026066273</v>
       </c>
       <c r="K239" t="n">
         <v>0.2592453392616164</v>
@@ -15291,19 +15291,19 @@
         </is>
       </c>
       <c r="F240" t="n">
-        <v>1.919006677433434</v>
+        <v>0.9999999854869268</v>
       </c>
       <c r="G240" t="n">
-        <v>0.8233771012425362</v>
+        <v>0.4290642127384496</v>
       </c>
       <c r="H240" t="n">
-        <v>0.5948121616165825</v>
+        <v>0.3099583550066426</v>
       </c>
       <c r="I240" t="n">
         <v>0.9999999854869268</v>
       </c>
       <c r="J240" t="n">
-        <v>0.4290642127384495</v>
+        <v>0.4290642127384496</v>
       </c>
       <c r="K240" t="n">
         <v>0.3099583550066426</v>
@@ -15353,13 +15353,13 @@
         </is>
       </c>
       <c r="F241" t="n">
-        <v>1.703604931706506</v>
+        <v>0.9999999971277227</v>
       </c>
       <c r="G241" t="n">
-        <v>1.272595836155682</v>
+        <v>0.7470017307508444</v>
       </c>
       <c r="H241" t="n">
-        <v>0.3718753755909727</v>
+        <v>0.2182873315295789</v>
       </c>
       <c r="I241" t="n">
         <v>0.9999999971277227</v>
@@ -15368,7 +15368,7 @@
         <v>0.7470017307508444</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2182873315295788</v>
+        <v>0.2182873315295789</v>
       </c>
       <c r="L241" t="n">
         <v>-0.0009870184682119459</v>
@@ -15415,13 +15415,13 @@
         </is>
       </c>
       <c r="F242" t="n">
-        <v>1.798889120464791</v>
+        <v>0.9999999779355724</v>
       </c>
       <c r="G242" t="n">
-        <v>0.723855596500298</v>
+        <v>0.4023903265042881</v>
       </c>
       <c r="H242" t="n">
-        <v>0.2869158612819124</v>
+        <v>0.1594961310773539</v>
       </c>
       <c r="I242" t="n">
         <v>0.9999999779355724</v>
@@ -15477,19 +15477,19 @@
         </is>
       </c>
       <c r="F243" t="n">
-        <v>1.896631232461469</v>
+        <v>0.9999999955799225</v>
       </c>
       <c r="G243" t="n">
-        <v>1.047993660791496</v>
+        <v>0.5525553087086863</v>
       </c>
       <c r="H243" t="n">
-        <v>0.3552941447087442</v>
+        <v>0.1873290585208869</v>
       </c>
       <c r="I243" t="n">
         <v>0.9999999955799225</v>
       </c>
       <c r="J243" t="n">
-        <v>0.5525553087086862</v>
+        <v>0.5525553087086863</v>
       </c>
       <c r="K243" t="n">
         <v>0.1873290585208869</v>
@@ -15539,13 +15539,13 @@
         </is>
       </c>
       <c r="F244" t="n">
-        <v>1.799659480220989</v>
+        <v>0.999999994240945</v>
       </c>
       <c r="G244" t="n">
-        <v>1.731585066426536</v>
+        <v>0.9621737197981544</v>
       </c>
       <c r="H244" t="n">
-        <v>0.371149362389624</v>
+        <v>0.2062331037239218</v>
       </c>
       <c r="I244" t="n">
         <v>0.999999994240945</v>
@@ -15601,13 +15601,13 @@
         </is>
       </c>
       <c r="F245" t="n">
-        <v>1.816520830306332</v>
+        <v>1.000000011108639</v>
       </c>
       <c r="G245" t="n">
-        <v>1.706264982583611</v>
+        <v>0.9393038456102667</v>
       </c>
       <c r="H245" t="n">
-        <v>0.3698730920417371</v>
+        <v>0.2036162151182982</v>
       </c>
       <c r="I245" t="n">
         <v>1.000000011108639</v>
@@ -15663,13 +15663,13 @@
         </is>
       </c>
       <c r="F246" t="n">
-        <v>1.958575034142092</v>
+        <v>1.000000012173345</v>
       </c>
       <c r="G246" t="n">
-        <v>1.017064844425809</v>
+        <v>0.5192881758816004</v>
       </c>
       <c r="H246" t="n">
-        <v>0.4609351846604915</v>
+        <v>0.2353421146683392</v>
       </c>
       <c r="I246" t="n">
         <v>1.000000012173345</v>
@@ -15725,22 +15725,22 @@
         </is>
       </c>
       <c r="F247" t="n">
-        <v>1.326186918879403</v>
+        <v>1.000000017726702</v>
       </c>
       <c r="G247" t="n">
-        <v>1.03346718563134</v>
+        <v>0.7792771812472411</v>
       </c>
       <c r="H247" t="n">
-        <v>1.010844025898275</v>
+        <v>0.7622183791944993</v>
       </c>
       <c r="I247" t="n">
         <v>1.000000017726702</v>
       </c>
       <c r="J247" t="n">
-        <v>0.779277181247241</v>
+        <v>0.7792771812472411</v>
       </c>
       <c r="K247" t="n">
-        <v>0.7622183791944992</v>
+        <v>0.7622183791944993</v>
       </c>
       <c r="L247" t="n">
         <v>-0.002222235717125472</v>
@@ -15787,13 +15787,13 @@
         </is>
       </c>
       <c r="F248" t="n">
-        <v>1.565914823923009</v>
+        <v>0.9999999710166474</v>
       </c>
       <c r="G248" t="n">
-        <v>0.620703589940298</v>
+        <v>0.3963839938593908</v>
       </c>
       <c r="H248" t="n">
-        <v>0.6268643823578942</v>
+        <v>0.4003183025107397</v>
       </c>
       <c r="I248" t="n">
         <v>0.9999999710166474</v>
@@ -15849,22 +15849,22 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>1.892122923130881</v>
+        <v>1.000000030868859</v>
       </c>
       <c r="G249" t="n">
-        <v>0.5421199804438421</v>
+        <v>0.2865141532567165</v>
       </c>
       <c r="H249" t="n">
-        <v>0.6347491482700518</v>
+        <v>0.3354693081006175</v>
       </c>
       <c r="I249" t="n">
-        <v>1.00000003086886</v>
+        <v>1.000000030868859</v>
       </c>
       <c r="J249" t="n">
-        <v>0.2865141532567166</v>
+        <v>0.2865141532567165</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3354693081006174</v>
+        <v>0.3354693081006175</v>
       </c>
       <c r="L249" t="n">
         <v>0.001795320527114464</v>
@@ -15911,16 +15911,16 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>1.759110678694772</v>
+        <v>0.999999994049018</v>
       </c>
       <c r="G250" t="n">
-        <v>0.9907272018827165</v>
+        <v>0.5631977612244491</v>
       </c>
       <c r="H250" t="n">
-        <v>0.5981187486181658</v>
+        <v>0.3400120028277954</v>
       </c>
       <c r="I250" t="n">
-        <v>0.9999999940490181</v>
+        <v>0.999999994049018</v>
       </c>
       <c r="J250" t="n">
         <v>0.5631977612244491</v>
@@ -15973,19 +15973,19 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>1.883050958512743</v>
+        <v>1.000000021206884</v>
       </c>
       <c r="G251" t="n">
-        <v>0.7545189564590218</v>
+        <v>0.4006896197094664</v>
       </c>
       <c r="H251" t="n">
-        <v>0.776468360718043</v>
+        <v>0.4123459185606859</v>
       </c>
       <c r="I251" t="n">
         <v>1.000000021206884</v>
       </c>
       <c r="J251" t="n">
-        <v>0.4006896197094665</v>
+        <v>0.4006896197094664</v>
       </c>
       <c r="K251" t="n">
         <v>0.4123459185606859</v>
@@ -16035,13 +16035,13 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>1.956914319463022</v>
+        <v>1.000000007039691</v>
       </c>
       <c r="G252" t="n">
-        <v>1.092022074914929</v>
+        <v>0.5580326495347422</v>
       </c>
       <c r="H252" t="n">
-        <v>0.3704202798918935</v>
+        <v>0.1892879411302898</v>
       </c>
       <c r="I252" t="n">
         <v>1.000000007039691</v>
@@ -16097,13 +16097,13 @@
         </is>
       </c>
       <c r="F253" t="n">
-        <v>1.879343036797089</v>
+        <v>1.000000002107213</v>
       </c>
       <c r="G253" t="n">
-        <v>1.043521008198305</v>
+        <v>0.5552584014548343</v>
       </c>
       <c r="H253" t="n">
-        <v>0.3551190700563359</v>
+        <v>0.1889591542637508</v>
       </c>
       <c r="I253" t="n">
         <v>1.000000002107213</v>
@@ -16112,7 +16112,7 @@
         <v>0.5552584014548343</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1889591542637509</v>
+        <v>0.1889591542637508</v>
       </c>
       <c r="L253" t="n">
         <v>0.005658727553405909</v>
@@ -16159,16 +16159,16 @@
         </is>
       </c>
       <c r="F254" t="n">
-        <v>1.912778876570015</v>
+        <v>1.000000011606097</v>
       </c>
       <c r="G254" t="n">
-        <v>1.096233269607721</v>
+        <v>0.5731103034222499</v>
       </c>
       <c r="H254" t="n">
-        <v>0.3525790095908554</v>
+        <v>0.1843281615045669</v>
       </c>
       <c r="I254" t="n">
-        <v>1.000000011606098</v>
+        <v>1.000000011606097</v>
       </c>
       <c r="J254" t="n">
         <v>0.5731103034222499</v>
@@ -16221,19 +16221,19 @@
         </is>
       </c>
       <c r="F255" t="n">
-        <v>1.497030593042894</v>
+        <v>0.9999999847941086</v>
       </c>
       <c r="G255" t="n">
-        <v>0.6845225686253321</v>
+        <v>0.4572535533994546</v>
       </c>
       <c r="H255" t="n">
-        <v>0.5412786628999807</v>
+        <v>0.3615681985290242</v>
       </c>
       <c r="I255" t="n">
         <v>0.9999999847941086</v>
       </c>
       <c r="J255" t="n">
-        <v>0.4572535533994545</v>
+        <v>0.4572535533994546</v>
       </c>
       <c r="K255" t="n">
         <v>0.3615681985290242</v>
@@ -16283,22 +16283,22 @@
         </is>
       </c>
       <c r="F256" t="n">
-        <v>1.428388425418925</v>
+        <v>0.9999999643284435</v>
       </c>
       <c r="G256" t="n">
-        <v>0.8220165642206276</v>
+        <v>0.5754852953649021</v>
       </c>
       <c r="H256" t="n">
-        <v>0.3990735247003894</v>
+        <v>0.2793872474483075</v>
       </c>
       <c r="I256" t="n">
-        <v>0.9999999643284434</v>
+        <v>1.00000002393309</v>
       </c>
       <c r="J256" t="n">
-        <v>0.575485295364902</v>
+        <v>0.5754853296665008</v>
       </c>
       <c r="K256" t="n">
-        <v>0.2793872474483076</v>
+        <v>0.2793872641010861</v>
       </c>
       <c r="L256" t="n">
         <v>-0.000573987265081905</v>
@@ -16345,13 +16345,13 @@
         </is>
       </c>
       <c r="F257" t="n">
-        <v>1.933166944894251</v>
+        <v>0.9999999814557367</v>
       </c>
       <c r="G257" t="n">
-        <v>1.181769339377198</v>
+        <v>0.6113126031786156</v>
       </c>
       <c r="H257" t="n">
-        <v>0.4023440124947418</v>
+        <v>0.2081268801415274</v>
       </c>
       <c r="I257" t="n">
         <v>0.9999999814557367</v>
@@ -16407,13 +16407,13 @@
         </is>
       </c>
       <c r="F258" t="n">
-        <v>1.751384138635715</v>
+        <v>0.9999999997571869</v>
       </c>
       <c r="G258" t="n">
-        <v>0.5012127972845906</v>
+        <v>0.2861809617353974</v>
       </c>
       <c r="H258" t="n">
-        <v>0.3914786909967613</v>
+        <v>0.2235253147871131</v>
       </c>
       <c r="I258" t="n">
         <v>0.9999999997571869</v>
@@ -16469,13 +16469,13 @@
         </is>
       </c>
       <c r="F259" t="n">
-        <v>1.860502821712123</v>
+        <v>0.9999999906604191</v>
       </c>
       <c r="G259" t="n">
-        <v>0.5737882278881898</v>
+        <v>0.3084049192686636</v>
       </c>
       <c r="H259" t="n">
-        <v>0.3620833705221279</v>
+        <v>0.1946158656223991</v>
       </c>
       <c r="I259" t="n">
         <v>0.9999999906604191</v>
@@ -16531,22 +16531,22 @@
         </is>
       </c>
       <c r="F260" t="n">
-        <v>1.832972607036063</v>
+        <v>0.999999978873924</v>
       </c>
       <c r="G260" t="n">
-        <v>0.9575387140587724</v>
+        <v>0.5223966196516638</v>
       </c>
       <c r="H260" t="n">
-        <v>0.3869078974112583</v>
+        <v>0.2110821993477835</v>
       </c>
       <c r="I260" t="n">
-        <v>0.9999999788739241</v>
+        <v>0.999999978873924</v>
       </c>
       <c r="J260" t="n">
-        <v>0.5223966196516637</v>
+        <v>0.5223966196516638</v>
       </c>
       <c r="K260" t="n">
-        <v>0.2110821993477834</v>
+        <v>0.2110821993477835</v>
       </c>
       <c r="L260" t="n">
         <v>0.001134654517723043</v>
@@ -16593,13 +16593,13 @@
         </is>
       </c>
       <c r="F261" t="n">
-        <v>1.826389510150526</v>
+        <v>0.9999999775446622</v>
       </c>
       <c r="G261" t="n">
-        <v>0.9029362685304381</v>
+        <v>0.4943831768833812</v>
       </c>
       <c r="H261" t="n">
-        <v>0.3835128917189677</v>
+        <v>0.2099841687523973</v>
       </c>
       <c r="I261" t="n">
         <v>0.9999999775446622</v>
@@ -16655,13 +16655,13 @@
         </is>
       </c>
       <c r="F262" t="n">
-        <v>1.491464267319909</v>
+        <v>1.0000000067582</v>
       </c>
       <c r="G262" t="n">
-        <v>1.410808916455819</v>
+        <v>0.9459220424539605</v>
       </c>
       <c r="H262" t="n">
-        <v>1.398719641531258</v>
+        <v>0.937816400722438</v>
       </c>
       <c r="I262" t="n">
         <v>1.0000000067582</v>
@@ -16670,7 +16670,7 @@
         <v>0.9459220424539605</v>
       </c>
       <c r="K262" t="n">
-        <v>0.9378164007224379</v>
+        <v>0.937816400722438</v>
       </c>
       <c r="L262" t="n">
         <v>0.001866129300328992</v>
@@ -16717,13 +16717,13 @@
         </is>
       </c>
       <c r="F263" t="n">
-        <v>1.479014993978169</v>
+        <v>1.000000000854786</v>
       </c>
       <c r="G263" t="n">
-        <v>1.458193438371012</v>
+        <v>0.985922012660122</v>
       </c>
       <c r="H263" t="n">
-        <v>1.478206668455352</v>
+        <v>0.9994534712206713</v>
       </c>
       <c r="I263" t="n">
         <v>1.000000000854786</v>
@@ -16779,13 +16779,13 @@
         </is>
       </c>
       <c r="F264" t="n">
-        <v>1.465605018578715</v>
+        <v>0.9713909293305305</v>
       </c>
       <c r="G264" t="n">
-        <v>1.508769553508493</v>
+        <v>1.000000027394495</v>
       </c>
       <c r="H264" t="n">
-        <v>1.506399042078741</v>
+        <v>0.9984288719525134</v>
       </c>
       <c r="I264" t="n">
         <v>0.9713909293305305</v>
@@ -16841,22 +16841,22 @@
         </is>
       </c>
       <c r="F265" t="n">
-        <v>1.842851230764559</v>
+        <v>0.9958732618198309</v>
       </c>
       <c r="G265" t="n">
-        <v>1.850487651003508</v>
+        <v>0.9999999686342677</v>
       </c>
       <c r="H265" t="n">
-        <v>1.410784057464693</v>
+        <v>0.7623849921124082</v>
       </c>
       <c r="I265" t="n">
-        <v>0.9958732618198309</v>
+        <v>0.9958733211785065</v>
       </c>
       <c r="J265" t="n">
-        <v>0.9999999686342677</v>
+        <v>1.000000028238914</v>
       </c>
       <c r="K265" t="n">
-        <v>0.7623849921124081</v>
+        <v>0.7623850375540975</v>
       </c>
       <c r="L265" t="n">
         <v>-0.01816196086065259</v>
@@ -16903,16 +16903,16 @@
         </is>
       </c>
       <c r="F266" t="n">
-        <v>1.623744865486581</v>
+        <v>1.000000012376489</v>
       </c>
       <c r="G266" t="n">
-        <v>1.108922886098311</v>
+        <v>0.6829415897740665</v>
       </c>
       <c r="H266" t="n">
-        <v>1.081422311974303</v>
+        <v>0.6660050777339637</v>
       </c>
       <c r="I266" t="n">
-        <v>1.00000001237649</v>
+        <v>1.000000012376489</v>
       </c>
       <c r="J266" t="n">
         <v>0.6829415897740665</v>
@@ -16965,13 +16965,13 @@
         </is>
       </c>
       <c r="F267" t="n">
-        <v>1.570423346211687</v>
+        <v>0.9948679135041173</v>
       </c>
       <c r="G267" t="n">
-        <v>1.578524444367721</v>
+        <v>0.9999999835532716</v>
       </c>
       <c r="H267" t="n">
-        <v>1.065042431868477</v>
+        <v>0.6747075841315953</v>
       </c>
       <c r="I267" t="n">
         <v>0.9948679135041173</v>
@@ -17027,13 +17027,13 @@
         </is>
       </c>
       <c r="F268" t="n">
-        <v>1.761174490123779</v>
+        <v>1.000000028242443</v>
       </c>
       <c r="G268" t="n">
-        <v>1.742532812228565</v>
+        <v>0.9894152289927158</v>
       </c>
       <c r="H268" t="n">
-        <v>0.9722850125640098</v>
+        <v>0.5520662747933507</v>
       </c>
       <c r="I268" t="n">
         <v>1.000000028242443</v>
@@ -17089,16 +17089,16 @@
         </is>
       </c>
       <c r="F269" t="n">
-        <v>1.487859148373177</v>
+        <v>0.9814536960498388</v>
       </c>
       <c r="G269" t="n">
-        <v>1.515974899777698</v>
+        <v>1.000000013531139</v>
       </c>
       <c r="H269" t="n">
-        <v>1.509642154039274</v>
+        <v>0.9958226713963567</v>
       </c>
       <c r="I269" t="n">
-        <v>0.9814536960498387</v>
+        <v>0.9814536960498388</v>
       </c>
       <c r="J269" t="n">
         <v>1.000000013531139</v>
@@ -17151,19 +17151,19 @@
         </is>
       </c>
       <c r="F270" t="n">
-        <v>1.490566354037937</v>
+        <v>0.9999999873648955</v>
       </c>
       <c r="G270" t="n">
-        <v>1.189999622294569</v>
+        <v>0.798353997482297</v>
       </c>
       <c r="H270" t="n">
-        <v>1.196151909942137</v>
+        <v>0.8024814806722711</v>
       </c>
       <c r="I270" t="n">
         <v>0.9999999873648955</v>
       </c>
       <c r="J270" t="n">
-        <v>0.7983539974822971</v>
+        <v>0.798353997482297</v>
       </c>
       <c r="K270" t="n">
         <v>0.8024814806722711</v>
@@ -17213,13 +17213,13 @@
         </is>
       </c>
       <c r="F271" t="n">
-        <v>1.46969984561399</v>
+        <v>0.9999999904707413</v>
       </c>
       <c r="G271" t="n">
-        <v>1.249882968846987</v>
+        <v>0.8504341622315208</v>
       </c>
       <c r="H271" t="n">
-        <v>1.251427573274314</v>
+        <v>0.8514851281258268</v>
       </c>
       <c r="I271" t="n">
         <v>0.9999999904707413</v>
@@ -17228,7 +17228,7 @@
         <v>0.8504341622315208</v>
       </c>
       <c r="K271" t="n">
-        <v>0.8514851281258269</v>
+        <v>0.8514851281258268</v>
       </c>
       <c r="L271" t="n">
         <v>-0.0002249775419299589</v>
@@ -17275,13 +17275,13 @@
         </is>
       </c>
       <c r="F272" t="n">
-        <v>1.595514794795601</v>
+        <v>1.000000012831653</v>
       </c>
       <c r="G272" t="n">
-        <v>1.483742491798158</v>
+        <v>0.9299459432634759</v>
       </c>
       <c r="H272" t="n">
-        <v>1.500787998720041</v>
+        <v>0.940629333474714</v>
       </c>
       <c r="I272" t="n">
         <v>1.000000012831653</v>
@@ -17337,13 +17337,13 @@
         </is>
       </c>
       <c r="F273" t="n">
-        <v>1.588942361774791</v>
+        <v>0.9999999705546814</v>
       </c>
       <c r="G273" t="n">
-        <v>1.442759033133041</v>
+        <v>0.9079995759185575</v>
       </c>
       <c r="H273" t="n">
-        <v>1.443228577897564</v>
+        <v>0.9082950836487267</v>
       </c>
       <c r="I273" t="n">
         <v>0.9999999705546814</v>
@@ -17352,7 +17352,7 @@
         <v>0.9079995759185575</v>
       </c>
       <c r="K273" t="n">
-        <v>0.9082950836487265</v>
+        <v>0.9082950836487267</v>
       </c>
       <c r="L273" t="n">
         <v>-0.01368088680761659</v>
@@ -17399,19 +17399,19 @@
         </is>
       </c>
       <c r="F274" t="n">
-        <v>1.59888887583572</v>
+        <v>1.000000001114377</v>
       </c>
       <c r="G274" t="n">
-        <v>1.182654280809261</v>
+        <v>0.7396725938874423</v>
       </c>
       <c r="H274" t="n">
-        <v>1.151780691240007</v>
+        <v>0.7203631909200083</v>
       </c>
       <c r="I274" t="n">
         <v>1.000000001114377</v>
       </c>
       <c r="J274" t="n">
-        <v>0.7396725938874422</v>
+        <v>0.7396725938874423</v>
       </c>
       <c r="K274" t="n">
         <v>0.7203631909200083</v>
@@ -17461,13 +17461,13 @@
         </is>
       </c>
       <c r="F275" t="n">
-        <v>1.531312422201861</v>
+        <v>0.9999999716152876</v>
       </c>
       <c r="G275" t="n">
-        <v>1.530978669191969</v>
+        <v>0.9997820193570941</v>
       </c>
       <c r="H275" t="n">
-        <v>0.9307157860660231</v>
+        <v>0.6077895967889133</v>
       </c>
       <c r="I275" t="n">
         <v>0.9999999716152876</v>
@@ -17523,22 +17523,22 @@
         </is>
       </c>
       <c r="F276" t="n">
-        <v>1.496567950906114</v>
+        <v>0.9999999908806556</v>
       </c>
       <c r="G276" t="n">
-        <v>1.481873863792049</v>
+        <v>0.9901814677917656</v>
       </c>
       <c r="H276" t="n">
-        <v>1.456892452995043</v>
+        <v>0.9734890011690056</v>
       </c>
       <c r="I276" t="n">
         <v>0.9999999908806556</v>
       </c>
       <c r="J276" t="n">
-        <v>0.9901814677917655</v>
+        <v>0.9901814677917656</v>
       </c>
       <c r="K276" t="n">
-        <v>0.9734890011690058</v>
+        <v>0.9734890011690056</v>
       </c>
       <c r="L276" t="n">
         <v>0.002200828435850347</v>
@@ -17585,13 +17585,13 @@
         </is>
       </c>
       <c r="F277" t="n">
-        <v>1.519002073525374</v>
+        <v>0.9999999957614871</v>
       </c>
       <c r="G277" t="n">
-        <v>1.192081005045229</v>
+        <v>0.7847790472240359</v>
       </c>
       <c r="H277" t="n">
-        <v>1.19262753666256</v>
+        <v>0.7851388437144685</v>
       </c>
       <c r="I277" t="n">
         <v>0.9999999957614871</v>
@@ -17647,13 +17647,13 @@
         </is>
       </c>
       <c r="F278" t="n">
-        <v>1.785084094998103</v>
+        <v>0.9903162981614093</v>
       </c>
       <c r="G278" t="n">
-        <v>1.802539362763794</v>
+        <v>1.000000007856416</v>
       </c>
       <c r="H278" t="n">
-        <v>1.077076053854816</v>
+        <v>0.597532616799733</v>
       </c>
       <c r="I278" t="n">
         <v>0.9903162981614093</v>
@@ -17662,7 +17662,7 @@
         <v>1.000000007856416</v>
       </c>
       <c r="K278" t="n">
-        <v>0.5975326167997331</v>
+        <v>0.597532616799733</v>
       </c>
       <c r="L278" t="n">
         <v>-0.004110041867728761</v>
@@ -17709,22 +17709,22 @@
         </is>
       </c>
       <c r="F279" t="n">
-        <v>1.659722019172977</v>
+        <v>1.000000029290936</v>
       </c>
       <c r="G279" t="n">
-        <v>1.202210005262984</v>
+        <v>0.7243442134218901</v>
       </c>
       <c r="H279" t="n">
-        <v>1.396711833193659</v>
+        <v>0.8415336170575264</v>
       </c>
       <c r="I279" t="n">
         <v>1.000000029290936</v>
       </c>
       <c r="J279" t="n">
-        <v>0.72434421342189</v>
+        <v>0.7243442134218901</v>
       </c>
       <c r="K279" t="n">
-        <v>0.8415336170575265</v>
+        <v>0.8415336170575264</v>
       </c>
       <c r="L279" t="n">
         <v>0.0257892845392036</v>
@@ -17771,13 +17771,13 @@
         </is>
       </c>
       <c r="F280" t="n">
-        <v>1.595802989229742</v>
+        <v>0.9999999792236878</v>
       </c>
       <c r="G280" t="n">
-        <v>1.480537872177964</v>
+        <v>0.9277698133229271</v>
       </c>
       <c r="H280" t="n">
-        <v>1.497513536916121</v>
+        <v>0.9384075076373479</v>
       </c>
       <c r="I280" t="n">
         <v>0.9999999792236878</v>
@@ -17786,7 +17786,7 @@
         <v>0.9277698133229271</v>
       </c>
       <c r="K280" t="n">
-        <v>0.938407507637348</v>
+        <v>0.9384075076373479</v>
       </c>
       <c r="L280" t="n">
         <v>-0.001255344217275975</v>
@@ -17833,13 +17833,13 @@
         </is>
       </c>
       <c r="F281" t="n">
-        <v>1.409943405884375</v>
+        <v>0.9957738754874939</v>
       </c>
       <c r="G281" t="n">
-        <v>1.415927292298797</v>
+        <v>1.000000000976289</v>
       </c>
       <c r="H281" t="n">
-        <v>0.9298477974806372</v>
+        <v>0.6567058940426268</v>
       </c>
       <c r="I281" t="n">
         <v>0.9957738754874939</v>
@@ -17848,7 +17848,7 @@
         <v>1.000000000976289</v>
       </c>
       <c r="K281" t="n">
-        <v>0.6567058940426267</v>
+        <v>0.6567058940426268</v>
       </c>
       <c r="L281" t="n">
         <v>0.004180104051686078</v>
@@ -17895,13 +17895,13 @@
         </is>
       </c>
       <c r="F282" t="n">
-        <v>1.961326098524565</v>
+        <v>0.9999999878860681</v>
       </c>
       <c r="G282" t="n">
-        <v>1.312028855391579</v>
+        <v>0.6689498704395682</v>
       </c>
       <c r="H282" t="n">
-        <v>0.5789132753984924</v>
+        <v>0.2951642099807228</v>
       </c>
       <c r="I282" t="n">
         <v>0.9999999878860681</v>
@@ -17957,13 +17957,13 @@
         </is>
       </c>
       <c r="F283" t="n">
-        <v>1.841365455993693</v>
+        <v>0.9999999996809851</v>
       </c>
       <c r="G283" t="n">
-        <v>1.531033937420626</v>
+        <v>0.8314666336053214</v>
       </c>
       <c r="H283" t="n">
-        <v>0.6666100451863085</v>
+        <v>0.362019414887912</v>
       </c>
       <c r="I283" t="n">
         <v>0.9999999996809851</v>
@@ -18019,13 +18019,13 @@
         </is>
       </c>
       <c r="F284" t="n">
-        <v>1.48015729821023</v>
+        <v>1.000000028431996</v>
       </c>
       <c r="G284" t="n">
-        <v>1.404965053912105</v>
+        <v>0.9491998556889296</v>
       </c>
       <c r="H284" t="n">
-        <v>1.378996917233909</v>
+        <v>0.9316556815339794</v>
       </c>
       <c r="I284" t="n">
         <v>1.000000028431996</v>
@@ -18034,7 +18034,7 @@
         <v>0.9491998556889296</v>
       </c>
       <c r="K284" t="n">
-        <v>0.9316556815339793</v>
+        <v>0.9316556815339794</v>
       </c>
       <c r="L284" t="n">
         <v>0.004381536857418173</v>
@@ -18081,13 +18081,13 @@
         </is>
       </c>
       <c r="F285" t="n">
-        <v>1.663941065246507</v>
+        <v>1.00000002374637</v>
       </c>
       <c r="G285" t="n">
-        <v>1.169198482172713</v>
+        <v>0.7026682220645357</v>
       </c>
       <c r="H285" t="n">
-        <v>0.7735956760794396</v>
+        <v>0.4649177249164911</v>
       </c>
       <c r="I285" t="n">
         <v>1.00000002374637</v>
@@ -18143,13 +18143,13 @@
         </is>
       </c>
       <c r="F286" t="n">
-        <v>1.074269217601229</v>
+        <v>1.000000039163135</v>
       </c>
       <c r="G286" t="n">
-        <v>1.029940285873761</v>
+        <v>0.9587357706378654</v>
       </c>
       <c r="H286" t="n">
-        <v>0.776272747650282</v>
+        <v>0.7226054375689193</v>
       </c>
       <c r="I286" t="n">
         <v>1.000000039163135</v>
@@ -18158,7 +18158,7 @@
         <v>0.9587357706378654</v>
       </c>
       <c r="K286" t="n">
-        <v>0.7226054375689192</v>
+        <v>0.7226054375689193</v>
       </c>
       <c r="L286" t="n">
         <v>0.05286426067807011</v>
@@ -18205,13 +18205,13 @@
         </is>
       </c>
       <c r="F287" t="n">
-        <v>1.778625600895476</v>
+        <v>0.9999999962920454</v>
       </c>
       <c r="G287" t="n">
-        <v>1.59501396084434</v>
+        <v>0.8967676806895541</v>
       </c>
       <c r="H287" t="n">
-        <v>0.8161335438830601</v>
+        <v>0.458856287937146</v>
       </c>
       <c r="I287" t="n">
         <v>0.9999999962920454</v>
@@ -18267,13 +18267,13 @@
         </is>
       </c>
       <c r="F288" t="n">
-        <v>1.706939566813212</v>
+        <v>0.9999999934132857</v>
       </c>
       <c r="G288" t="n">
-        <v>1.683441761798682</v>
+        <v>0.9862339496021237</v>
       </c>
       <c r="H288" t="n">
-        <v>0.8824938118056034</v>
+        <v>0.5170035443260885</v>
       </c>
       <c r="I288" t="n">
         <v>0.9999999934132857</v>
@@ -18329,19 +18329,19 @@
         </is>
       </c>
       <c r="F289" t="n">
-        <v>1.774621636693746</v>
+        <v>1.000000017367442</v>
       </c>
       <c r="G289" t="n">
-        <v>1.316588684264348</v>
+        <v>0.7418982615263442</v>
       </c>
       <c r="H289" t="n">
-        <v>0.5195530126123888</v>
+        <v>0.2927683348906205</v>
       </c>
       <c r="I289" t="n">
         <v>1.000000017367442</v>
       </c>
       <c r="J289" t="n">
-        <v>0.7418982615263443</v>
+        <v>0.7418982615263442</v>
       </c>
       <c r="K289" t="n">
         <v>0.2927683348906205</v>
@@ -18391,22 +18391,22 @@
         </is>
       </c>
       <c r="F290" t="n">
-        <v>1.695719529452788</v>
+        <v>1.00000002885988</v>
       </c>
       <c r="G290" t="n">
-        <v>1.475173691302625</v>
+        <v>0.869939697133761</v>
       </c>
       <c r="H290" t="n">
-        <v>0.7107145734839195</v>
+        <v>0.4191227273441889</v>
       </c>
       <c r="I290" t="n">
-        <v>1.000000028859881</v>
+        <v>1.00000002885988</v>
       </c>
       <c r="J290" t="n">
-        <v>0.8699396971337608</v>
+        <v>0.869939697133761</v>
       </c>
       <c r="K290" t="n">
-        <v>0.419122727344189</v>
+        <v>0.4191227273441889</v>
       </c>
       <c r="L290" t="n">
         <v>-0.0001942974192933496</v>
@@ -18453,13 +18453,13 @@
         </is>
       </c>
       <c r="F291" t="n">
-        <v>1.770176861631731</v>
+        <v>0.9999999853797235</v>
       </c>
       <c r="G291" t="n">
-        <v>1.677719694707253</v>
+        <v>0.9477695175791769</v>
       </c>
       <c r="H291" t="n">
-        <v>0.8000860172833368</v>
+        <v>0.4519808291067293</v>
       </c>
       <c r="I291" t="n">
         <v>0.9999999853797235</v>
@@ -18515,19 +18515,19 @@
         </is>
       </c>
       <c r="F292" t="n">
-        <v>1.664543417325038</v>
+        <v>1.000000016251298</v>
       </c>
       <c r="G292" t="n">
-        <v>1.496620353275667</v>
+        <v>0.8991176571427592</v>
       </c>
       <c r="H292" t="n">
-        <v>1.181038695886599</v>
+        <v>0.7095271308560813</v>
       </c>
       <c r="I292" t="n">
         <v>1.000000016251298</v>
       </c>
       <c r="J292" t="n">
-        <v>0.8991176571427593</v>
+        <v>0.8991176571427592</v>
       </c>
       <c r="K292" t="n">
         <v>0.7095271308560813</v>
@@ -18577,13 +18577,13 @@
         </is>
       </c>
       <c r="F293" t="n">
-        <v>1.925748309101273</v>
+        <v>0.9999999796781285</v>
       </c>
       <c r="G293" t="n">
-        <v>0.5783382968565176</v>
+        <v>0.3003187292806221</v>
       </c>
       <c r="H293" t="n">
-        <v>0.5143503905954208</v>
+        <v>0.2670911757844929</v>
       </c>
       <c r="I293" t="n">
         <v>0.9999999796781285</v>
@@ -18639,13 +18639,13 @@
         </is>
       </c>
       <c r="F294" t="n">
-        <v>1.452973995638292</v>
+        <v>1.000000023268244</v>
       </c>
       <c r="G294" t="n">
-        <v>1.450865644844051</v>
+        <v>0.9985489643713693</v>
       </c>
       <c r="H294" t="n">
-        <v>0.8788402911001143</v>
+        <v>0.6048561875074094</v>
       </c>
       <c r="I294" t="n">
         <v>1.000000023268244</v>
@@ -18701,13 +18701,13 @@
         </is>
       </c>
       <c r="F295" t="n">
-        <v>1.654221935165145</v>
+        <v>1.000000025878193</v>
       </c>
       <c r="G295" t="n">
-        <v>1.331660208000291</v>
+        <v>0.8050070030828766</v>
       </c>
       <c r="H295" t="n">
-        <v>0.9970095186359228</v>
+        <v>0.6027060355339764</v>
       </c>
       <c r="I295" t="n">
         <v>1.000000025878193</v>
@@ -18716,7 +18716,7 @@
         <v>0.8050070030828766</v>
       </c>
       <c r="K295" t="n">
-        <v>0.6027060355339763</v>
+        <v>0.6027060355339764</v>
       </c>
       <c r="L295" t="n">
         <v>-0.004824889064703489</v>
@@ -18763,19 +18763,19 @@
         </is>
       </c>
       <c r="F296" t="n">
-        <v>1.475208327827254</v>
+        <v>1.000000030745862</v>
       </c>
       <c r="G296" t="n">
-        <v>1.156717150945544</v>
+        <v>0.7841042954343063</v>
       </c>
       <c r="H296" t="n">
-        <v>1.225530631966705</v>
+        <v>0.8307509160090714</v>
       </c>
       <c r="I296" t="n">
         <v>1.000000030745862</v>
       </c>
       <c r="J296" t="n">
-        <v>0.7841042954343062</v>
+        <v>0.7841042954343063</v>
       </c>
       <c r="K296" t="n">
         <v>0.8307509160090714</v>
@@ -18825,13 +18825,13 @@
         </is>
       </c>
       <c r="F297" t="n">
-        <v>1.769318825367337</v>
+        <v>1.00000000357274</v>
       </c>
       <c r="G297" t="n">
-        <v>1.432342123779402</v>
+        <v>0.809544389830031</v>
       </c>
       <c r="H297" t="n">
-        <v>0.9684835805036434</v>
+        <v>0.5473765214489887</v>
       </c>
       <c r="I297" t="n">
         <v>1.00000000357274</v>
@@ -18887,22 +18887,22 @@
         </is>
       </c>
       <c r="F298" t="n">
-        <v>1.556150528137697</v>
+        <v>0.9900049340874602</v>
       </c>
       <c r="G298" t="n">
-        <v>1.571861330757129</v>
+        <v>0.9999999646648206</v>
       </c>
       <c r="H298" t="n">
-        <v>0.886590818604388</v>
+        <v>0.5640388054138925</v>
       </c>
       <c r="I298" t="n">
-        <v>0.99000493408746</v>
+        <v>0.9900049930963561</v>
       </c>
       <c r="J298" t="n">
-        <v>0.9999999646648206</v>
+        <v>1.000000024269467</v>
       </c>
       <c r="K298" t="n">
-        <v>0.5640388054138925</v>
+        <v>0.5640388390332272</v>
       </c>
       <c r="L298" t="n">
         <v>-0.004697650704149034</v>
@@ -18949,13 +18949,13 @@
         </is>
       </c>
       <c r="F299" t="n">
-        <v>1.59423436956002</v>
+        <v>1.000000013935577</v>
       </c>
       <c r="G299" t="n">
-        <v>1.088003323807476</v>
+        <v>0.6824613493119582</v>
       </c>
       <c r="H299" t="n">
-        <v>1.122531270161741</v>
+        <v>0.7041193611417749</v>
       </c>
       <c r="I299" t="n">
         <v>1.000000013935577</v>
@@ -19011,13 +19011,13 @@
         </is>
       </c>
       <c r="F300" t="n">
-        <v>1.605554606370977</v>
+        <v>1.000000015996031</v>
       </c>
       <c r="G300" t="n">
-        <v>1.446554744333241</v>
+        <v>0.9009688999254983</v>
       </c>
       <c r="H300" t="n">
-        <v>0.4958029422645996</v>
+        <v>0.3088047882196536</v>
       </c>
       <c r="I300" t="n">
         <v>1.000000015996031</v>
@@ -19026,7 +19026,7 @@
         <v>0.9009688999254983</v>
       </c>
       <c r="K300" t="n">
-        <v>0.3088047882196535</v>
+        <v>0.3088047882196536</v>
       </c>
       <c r="L300" t="n">
         <v>-0.006685937602615888</v>
@@ -19073,16 +19073,16 @@
         </is>
       </c>
       <c r="F301" t="n">
-        <v>1.892388438951494</v>
+        <v>0.9999999872812422</v>
       </c>
       <c r="G301" t="n">
-        <v>1.763996472282451</v>
+        <v>0.9321534699419195</v>
       </c>
       <c r="H301" t="n">
-        <v>0.8314285727693818</v>
+        <v>0.4393540697465413</v>
       </c>
       <c r="I301" t="n">
-        <v>0.9999999872812423</v>
+        <v>0.9999999872812422</v>
       </c>
       <c r="J301" t="n">
         <v>0.9321534699419195</v>
@@ -19135,19 +19135,19 @@
         </is>
       </c>
       <c r="F302" t="n">
-        <v>1.75073155646936</v>
+        <v>0.9999999823270378</v>
       </c>
       <c r="G302" t="n">
-        <v>0.9964438274389302</v>
+        <v>0.5691585361254985</v>
       </c>
       <c r="H302" t="n">
-        <v>0.1700597384087138</v>
+        <v>0.09713638551544025</v>
       </c>
       <c r="I302" t="n">
         <v>0.9999999823270378</v>
       </c>
       <c r="J302" t="n">
-        <v>0.5691585361254984</v>
+        <v>0.5691585361254985</v>
       </c>
       <c r="K302" t="n">
         <v>0.09713638551544025</v>
@@ -19197,13 +19197,13 @@
         </is>
       </c>
       <c r="F303" t="n">
-        <v>1.724355489019731</v>
+        <v>1.000000017285574</v>
       </c>
       <c r="G303" t="n">
-        <v>1.073107603651849</v>
+        <v>0.6223238937878028</v>
       </c>
       <c r="H303" t="n">
-        <v>0.1708341215177615</v>
+        <v>0.09907129101774942</v>
       </c>
       <c r="I303" t="n">
         <v>1.000000017285574</v>
@@ -19212,7 +19212,7 @@
         <v>0.6223238937878028</v>
       </c>
       <c r="K303" t="n">
-        <v>0.09907129101774943</v>
+        <v>0.09907129101774942</v>
       </c>
       <c r="L303" t="n">
         <v>0.004664567851908898</v>
@@ -19259,13 +19259,13 @@
         </is>
       </c>
       <c r="F304" t="n">
-        <v>1.699539886237358</v>
+        <v>0.9999999920044877</v>
       </c>
       <c r="G304" t="n">
-        <v>1.163359669861792</v>
+        <v>0.6845144794663918</v>
       </c>
       <c r="H304" t="n">
-        <v>0.1690548032686108</v>
+        <v>0.0994709234457595</v>
       </c>
       <c r="I304" t="n">
         <v>0.9999999920044877</v>
@@ -19321,16 +19321,16 @@
         </is>
       </c>
       <c r="F305" t="n">
-        <v>1.801075807574028</v>
+        <v>0.9999999952359294</v>
       </c>
       <c r="G305" t="n">
-        <v>1.023654664237945</v>
+        <v>0.5683573423486274</v>
       </c>
       <c r="H305" t="n">
-        <v>0.1596906748280409</v>
+        <v>0.08866404922864393</v>
       </c>
       <c r="I305" t="n">
-        <v>0.9999999952359295</v>
+        <v>0.9999999952359294</v>
       </c>
       <c r="J305" t="n">
         <v>0.5683573423486274</v>
@@ -19383,19 +19383,19 @@
         </is>
       </c>
       <c r="F306" t="n">
-        <v>1.819829415050166</v>
+        <v>0.9999999731246388</v>
       </c>
       <c r="G306" t="n">
-        <v>1.048144294688943</v>
+        <v>0.5759574264771367</v>
       </c>
       <c r="H306" t="n">
-        <v>0.1767148897756635</v>
+        <v>0.09710519214874636</v>
       </c>
       <c r="I306" t="n">
-        <v>0.9999999731246387</v>
+        <v>0.9999999731246388</v>
       </c>
       <c r="J306" t="n">
-        <v>0.5759574264771368</v>
+        <v>0.5759574264771367</v>
       </c>
       <c r="K306" t="n">
         <v>0.09710519214874636</v>
@@ -19445,22 +19445,22 @@
         </is>
       </c>
       <c r="F307" t="n">
-        <v>1.722128330979694</v>
+        <v>1.000000034215287</v>
       </c>
       <c r="G307" t="n">
-        <v>1.27564217055009</v>
+        <v>0.7407358622750603</v>
       </c>
       <c r="H307" t="n">
-        <v>0.1696556830392192</v>
+        <v>0.09851512561059986</v>
       </c>
       <c r="I307" t="n">
         <v>1.000000034215287</v>
       </c>
       <c r="J307" t="n">
-        <v>0.7407358622750604</v>
+        <v>0.7407358622750603</v>
       </c>
       <c r="K307" t="n">
-        <v>0.09851512561059987</v>
+        <v>0.09851512561059986</v>
       </c>
       <c r="L307" t="n">
         <v>0.003511449242753559</v>
@@ -19507,13 +19507,13 @@
         </is>
       </c>
       <c r="F308" t="n">
-        <v>1.760146427789775</v>
+        <v>1.000000027451666</v>
       </c>
       <c r="G308" t="n">
-        <v>1.391997121085701</v>
+        <v>0.7908416807380498</v>
       </c>
       <c r="H308" t="n">
-        <v>0.1603952266237567</v>
+        <v>0.09112607252129697</v>
       </c>
       <c r="I308" t="n">
         <v>1.000000027451666</v>
@@ -19569,16 +19569,16 @@
         </is>
       </c>
       <c r="F309" t="n">
-        <v>1.500014037169517</v>
+        <v>0.897357323683039</v>
       </c>
       <c r="G309" t="n">
-        <v>1.671590571506816</v>
+        <v>1.0000000029144</v>
       </c>
       <c r="H309" t="n">
-        <v>0.164335898242699</v>
+        <v>0.09831109454841136</v>
       </c>
       <c r="I309" t="n">
-        <v>0.8973573236830391</v>
+        <v>0.897357323683039</v>
       </c>
       <c r="J309" t="n">
         <v>1.0000000029144</v>
@@ -19631,19 +19631,19 @@
         </is>
       </c>
       <c r="F310" t="n">
-        <v>1.619007440533296</v>
+        <v>0.9999999828967584</v>
       </c>
       <c r="G310" t="n">
-        <v>1.416862465152362</v>
+        <v>0.8751426370546582</v>
       </c>
       <c r="H310" t="n">
-        <v>0.1696138461217594</v>
+        <v>0.1047640912415712</v>
       </c>
       <c r="I310" t="n">
-        <v>0.9999999828967585</v>
+        <v>0.9999999828967584</v>
       </c>
       <c r="J310" t="n">
-        <v>0.8751426370546581</v>
+        <v>0.8751426370546582</v>
       </c>
       <c r="K310" t="n">
         <v>0.1047640912415712</v>
@@ -19693,13 +19693,13 @@
         </is>
       </c>
       <c r="F311" t="n">
-        <v>1.686511825119271</v>
+        <v>0.9999999708987273</v>
       </c>
       <c r="G311" t="n">
-        <v>1.279488057919928</v>
+        <v>0.7586593830106767</v>
       </c>
       <c r="H311" t="n">
-        <v>0.1703038045190816</v>
+        <v>0.1009799024391543</v>
       </c>
       <c r="I311" t="n">
         <v>0.9999999708987273</v>
@@ -19755,13 +19755,13 @@
         </is>
       </c>
       <c r="F312" t="n">
-        <v>1.752038567001977</v>
+        <v>0.9999999822728617</v>
       </c>
       <c r="G312" t="n">
-        <v>1.141570199835572</v>
+        <v>0.651566809714818</v>
       </c>
       <c r="H312" t="n">
-        <v>0.1604542057541742</v>
+        <v>0.09158143315551756</v>
       </c>
       <c r="I312" t="n">
         <v>0.9999999822728617</v>
@@ -19817,19 +19817,19 @@
         </is>
       </c>
       <c r="F313" t="n">
-        <v>1.870106919096442</v>
+        <v>0.999999991227958</v>
       </c>
       <c r="G313" t="n">
-        <v>0.8391290711198729</v>
+        <v>0.4487064644220608</v>
       </c>
       <c r="H313" t="n">
-        <v>0.1667453003243031</v>
+        <v>0.08916351100511984</v>
       </c>
       <c r="I313" t="n">
         <v>0.999999991227958</v>
       </c>
       <c r="J313" t="n">
-        <v>0.4487064644220609</v>
+        <v>0.4487064644220608</v>
       </c>
       <c r="K313" t="n">
         <v>0.08916351100511984</v>
@@ -19879,22 +19879,22 @@
         </is>
       </c>
       <c r="F314" t="n">
-        <v>1.970545036631212</v>
+        <v>0.999999991448638</v>
       </c>
       <c r="G314" t="n">
-        <v>0.5133061217464712</v>
+        <v>0.2604894117185661</v>
       </c>
       <c r="H314" t="n">
-        <v>0.1608582783184942</v>
+        <v>0.08163136287305345</v>
       </c>
       <c r="I314" t="n">
-        <v>0.9999999914486382</v>
+        <v>0.999999991448638</v>
       </c>
       <c r="J314" t="n">
         <v>0.2604894117185661</v>
       </c>
       <c r="K314" t="n">
-        <v>0.08163136287305346</v>
+        <v>0.08163136287305345</v>
       </c>
       <c r="L314" t="n">
         <v>0.01190827403300827</v>
@@ -19941,13 +19941,13 @@
         </is>
       </c>
       <c r="F315" t="n">
-        <v>1.939945671818297</v>
+        <v>0.999999986615024</v>
       </c>
       <c r="G315" t="n">
-        <v>0.6129188390339233</v>
+        <v>0.315946389496328</v>
       </c>
       <c r="H315" t="n">
-        <v>0.167637748631631</v>
+        <v>0.0864136294243117</v>
       </c>
       <c r="I315" t="n">
         <v>0.999999986615024</v>
@@ -20003,13 +20003,13 @@
         </is>
       </c>
       <c r="F316" t="n">
-        <v>1.919817818357033</v>
+        <v>1.000000006806276</v>
       </c>
       <c r="G316" t="n">
-        <v>0.7006718750217605</v>
+        <v>0.3649679011680167</v>
       </c>
       <c r="H316" t="n">
-        <v>0.173224689673012</v>
+        <v>0.0902297547171802</v>
       </c>
       <c r="I316" t="n">
         <v>1.000000006806276</v>
@@ -20018,7 +20018,7 @@
         <v>0.3649679011680167</v>
       </c>
       <c r="K316" t="n">
-        <v>0.09022975471718021</v>
+        <v>0.0902297547171802</v>
       </c>
       <c r="L316" t="n">
         <v>0.008341456850168676</v>
@@ -20065,13 +20065,13 @@
         </is>
       </c>
       <c r="F317" t="n">
-        <v>1.899419760310799</v>
+        <v>0.9999999872407879</v>
       </c>
       <c r="G317" t="n">
-        <v>0.7756648124644963</v>
+        <v>0.4083693445627331</v>
       </c>
       <c r="H317" t="n">
-        <v>0.1741195578594371</v>
+        <v>0.09166986638557342</v>
       </c>
       <c r="I317" t="n">
         <v>0.9999999872407879</v>
@@ -20127,13 +20127,13 @@
         </is>
       </c>
       <c r="F318" t="n">
-        <v>1.754554701127779</v>
+        <v>0.9999999729803943</v>
       </c>
       <c r="G318" t="n">
-        <v>1.119212344645296</v>
+        <v>0.6378896672102736</v>
       </c>
       <c r="H318" t="n">
-        <v>0.1629677199437032</v>
+        <v>0.09288266443652543</v>
       </c>
       <c r="I318" t="n">
         <v>0.9999999729803943</v>
@@ -20189,16 +20189,16 @@
         </is>
       </c>
       <c r="F319" t="n">
-        <v>1.615459610251581</v>
+        <v>1.000000030272265</v>
       </c>
       <c r="G319" t="n">
-        <v>1.241242536848282</v>
+        <v>0.7683525892858455</v>
       </c>
       <c r="H319" t="n">
-        <v>0.1642077079553503</v>
+        <v>0.1016476746829448</v>
       </c>
       <c r="I319" t="n">
-        <v>1.000000030272264</v>
+        <v>1.000000030272265</v>
       </c>
       <c r="J319" t="n">
         <v>0.7683525892858455</v>
@@ -20251,22 +20251,22 @@
         </is>
       </c>
       <c r="F320" t="n">
-        <v>1.548694608884739</v>
+        <v>0.999999998895222</v>
       </c>
       <c r="G320" t="n">
-        <v>1.442087780986609</v>
+        <v>0.9311634270050905</v>
       </c>
       <c r="H320" t="n">
-        <v>0.1452194464752062</v>
+        <v>0.09376893642016859</v>
       </c>
       <c r="I320" t="n">
         <v>0.999999998895222</v>
       </c>
       <c r="J320" t="n">
-        <v>0.9311634270050904</v>
+        <v>0.9311634270050905</v>
       </c>
       <c r="K320" t="n">
-        <v>0.09376893642016858</v>
+        <v>0.09376893642016859</v>
       </c>
       <c r="L320" t="n">
         <v>0.002364972831746199</v>
@@ -20313,16 +20313,16 @@
         </is>
       </c>
       <c r="F321" t="n">
-        <v>1.571009970682247</v>
+        <v>0.9999999854419037</v>
       </c>
       <c r="G321" t="n">
-        <v>1.315021947265925</v>
+        <v>0.8370551127378463</v>
       </c>
       <c r="H321" t="n">
-        <v>0.147612631500335</v>
+        <v>0.09396033895779285</v>
       </c>
       <c r="I321" t="n">
-        <v>0.9999999854419036</v>
+        <v>0.9999999854419037</v>
       </c>
       <c r="J321" t="n">
         <v>0.8370551127378463</v>
@@ -20375,13 +20375,13 @@
         </is>
       </c>
       <c r="F322" t="n">
-        <v>1.6843014958992</v>
+        <v>1.000000000206102</v>
       </c>
       <c r="G322" t="n">
-        <v>1.098730459970282</v>
+        <v>0.6523359759946965</v>
       </c>
       <c r="H322" t="n">
-        <v>0.8643022893669466</v>
+        <v>0.5131517674534003</v>
       </c>
       <c r="I322" t="n">
         <v>1.000000000206102</v>
@@ -20437,19 +20437,19 @@
         </is>
       </c>
       <c r="F323" t="n">
-        <v>1.982666643829644</v>
+        <v>1.000000016219669</v>
       </c>
       <c r="G323" t="n">
-        <v>1.005121040557119</v>
+        <v>0.5069541367369733</v>
       </c>
       <c r="H323" t="n">
-        <v>0.3162310934207839</v>
+        <v>0.1594978659342993</v>
       </c>
       <c r="I323" t="n">
         <v>1.000000016219669</v>
       </c>
       <c r="J323" t="n">
-        <v>0.5069541367369732</v>
+        <v>0.5069541367369733</v>
       </c>
       <c r="K323" t="n">
         <v>0.1594978659342993</v>
@@ -20499,19 +20499,19 @@
         </is>
       </c>
       <c r="F324" t="n">
-        <v>1.98210507295814</v>
+        <v>1.000000028378802</v>
       </c>
       <c r="G324" t="n">
-        <v>1.006433258076417</v>
+        <v>0.5077598056574075</v>
       </c>
       <c r="H324" t="n">
-        <v>0.3128789733030061</v>
+        <v>0.1578518648939173</v>
       </c>
       <c r="I324" t="n">
         <v>1.000000028378802</v>
       </c>
       <c r="J324" t="n">
-        <v>0.5077598056574076</v>
+        <v>0.5077598056574075</v>
       </c>
       <c r="K324" t="n">
         <v>0.1578518648939173</v>
@@ -20561,13 +20561,13 @@
         </is>
       </c>
       <c r="F325" t="n">
-        <v>1.98574627116578</v>
+        <v>1.000000003378114</v>
       </c>
       <c r="G325" t="n">
-        <v>1.61916677753719</v>
+        <v>0.8153945982516433</v>
       </c>
       <c r="H325" t="n">
-        <v>0.4538431539540433</v>
+        <v>0.2285504256395949</v>
       </c>
       <c r="I325" t="n">
         <v>1.000000003378114</v>
@@ -20576,7 +20576,7 @@
         <v>0.8153945982516433</v>
       </c>
       <c r="K325" t="n">
-        <v>0.2285504256395948</v>
+        <v>0.2285504256395949</v>
       </c>
       <c r="L325" t="n">
         <v>0.009019423903784471</v>
@@ -20623,19 +20623,19 @@
         </is>
       </c>
       <c r="F326" t="n">
-        <v>1.241926238740621</v>
+        <v>0.9427189513347045</v>
       </c>
       <c r="G326" t="n">
-        <v>1.317387564890037</v>
+        <v>0.9999999878687599</v>
       </c>
       <c r="H326" t="n">
-        <v>1.086863716643194</v>
+        <v>0.8250143939599962</v>
       </c>
       <c r="I326" t="n">
         <v>0.9427189513347045</v>
       </c>
       <c r="J326" t="n">
-        <v>0.99999998786876</v>
+        <v>0.9999999878687599</v>
       </c>
       <c r="K326" t="n">
         <v>0.8250143939599962</v>
@@ -20685,22 +20685,22 @@
         </is>
       </c>
       <c r="F327" t="n">
-        <v>1.444153970693098</v>
+        <v>0.9990699563290134</v>
       </c>
       <c r="G327" t="n">
-        <v>1.445498296234725</v>
+        <v>0.9999999646850617</v>
       </c>
       <c r="H327" t="n">
-        <v>0.9918598285855214</v>
+        <v>0.6861715410814924</v>
       </c>
       <c r="I327" t="n">
-        <v>0.9990699563290133</v>
+        <v>0.9990700158782269</v>
       </c>
       <c r="J327" t="n">
-        <v>0.9999999646850617</v>
+        <v>1.000000024289708</v>
       </c>
       <c r="K327" t="n">
-        <v>0.6861715410814924</v>
+        <v>0.6861715819805058</v>
       </c>
       <c r="L327" t="n">
         <v>-0.0006000990777583022</v>
@@ -20747,13 +20747,13 @@
         </is>
       </c>
       <c r="F328" t="n">
-        <v>1.637164441158932</v>
+        <v>0.9999999802251401</v>
       </c>
       <c r="G328" t="n">
-        <v>1.626641147245524</v>
+        <v>0.993572224136166</v>
       </c>
       <c r="H328" t="n">
-        <v>0.7675531658442134</v>
+        <v>0.4688308219806031</v>
       </c>
       <c r="I328" t="n">
         <v>0.9999999802251401</v>
@@ -20809,22 +20809,22 @@
         </is>
       </c>
       <c r="F329" t="n">
-        <v>1.982821805354219</v>
+        <v>0.9996252773677364</v>
       </c>
       <c r="G329" t="n">
-        <v>1.983565142238932</v>
+        <v>1.000000025283839</v>
       </c>
       <c r="H329" t="n">
-        <v>0.6041120308397437</v>
+        <v>0.3045587126178919</v>
       </c>
       <c r="I329" t="n">
-        <v>0.9996252773677363</v>
+        <v>0.9996252773677364</v>
       </c>
       <c r="J329" t="n">
         <v>1.000000025283839</v>
       </c>
       <c r="K329" t="n">
-        <v>0.304558712617892</v>
+        <v>0.3045587126178919</v>
       </c>
       <c r="L329" t="n">
         <v>-0.0009858197281997088</v>
@@ -20871,22 +20871,22 @@
         </is>
       </c>
       <c r="F330" t="n">
-        <v>1.985798419325603</v>
+        <v>0.9999999703892798</v>
       </c>
       <c r="G330" t="n">
-        <v>1.984973295426228</v>
+        <v>0.9995844579853457</v>
       </c>
       <c r="H330" t="n">
-        <v>0.6002001624978908</v>
+        <v>0.3022462596829772</v>
       </c>
       <c r="I330" t="n">
-        <v>0.9999999703892799</v>
+        <v>0.9999999703892798</v>
       </c>
       <c r="J330" t="n">
         <v>0.9995844579853457</v>
       </c>
       <c r="K330" t="n">
-        <v>0.3022462596829771</v>
+        <v>0.3022462596829772</v>
       </c>
       <c r="L330" t="n">
         <v>-0.002750607050886433</v>
@@ -20933,22 +20933,22 @@
         </is>
       </c>
       <c r="F331" t="n">
-        <v>1.141098717691585</v>
+        <v>0.999999982451045</v>
       </c>
       <c r="G331" t="n">
-        <v>0.9427103327960421</v>
+        <v>0.8261426479906501</v>
       </c>
       <c r="H331" t="n">
-        <v>0.9410883877631409</v>
+        <v>0.8247212591315698</v>
       </c>
       <c r="I331" t="n">
         <v>0.999999982451045</v>
       </c>
       <c r="J331" t="n">
-        <v>0.8261426479906502</v>
+        <v>0.8261426479906501</v>
       </c>
       <c r="K331" t="n">
-        <v>0.8247212591315696</v>
+        <v>0.8247212591315698</v>
       </c>
       <c r="L331" t="n">
         <v>-0.00101564777411668</v>
@@ -20995,22 +20995,22 @@
         </is>
       </c>
       <c r="F332" t="n">
-        <v>1.560664127740497</v>
+        <v>0.9999999684746905</v>
       </c>
       <c r="G332" t="n">
-        <v>1.558532684758207</v>
+        <v>0.9986342403354904</v>
       </c>
       <c r="H332" t="n">
-        <v>0.6090621893436078</v>
+        <v>0.3902583261297379</v>
       </c>
       <c r="I332" t="n">
-        <v>0.9999999684746904</v>
+        <v>1.000000028079337</v>
       </c>
       <c r="J332" t="n">
-        <v>0.9986342403354904</v>
+        <v>0.9986342998587332</v>
       </c>
       <c r="K332" t="n">
-        <v>0.3902583261297379</v>
+        <v>0.3902583493909482</v>
       </c>
       <c r="L332" t="n">
         <v>0.004352657819500129</v>
@@ -21057,13 +21057,13 @@
         </is>
       </c>
       <c r="F333" t="n">
-        <v>1.647109687110389</v>
+        <v>1.000000036055096</v>
       </c>
       <c r="G333" t="n">
-        <v>0.6656150639556194</v>
+        <v>0.4041109667214439</v>
       </c>
       <c r="H333" t="n">
-        <v>0.7593968374018721</v>
+        <v>0.4610481443492981</v>
       </c>
       <c r="I333" t="n">
         <v>1.000000036055096</v>
@@ -21119,13 +21119,13 @@
         </is>
       </c>
       <c r="F334" t="n">
-        <v>1.652939419400635</v>
+        <v>0.9999999882516868</v>
       </c>
       <c r="G334" t="n">
-        <v>1.248203257973299</v>
+        <v>0.7551415548923275</v>
       </c>
       <c r="H334" t="n">
-        <v>0.5809306259823013</v>
+        <v>0.3514530613396558</v>
       </c>
       <c r="I334" t="n">
         <v>0.9999999882516868</v>
@@ -21181,13 +21181,13 @@
         </is>
       </c>
       <c r="F335" t="n">
-        <v>1.700417743541718</v>
+        <v>0.9957233235823106</v>
       </c>
       <c r="G335" t="n">
-        <v>1.70772113363286</v>
+        <v>1.000000011403636</v>
       </c>
       <c r="H335" t="n">
-        <v>0.6216018164299978</v>
+        <v>0.3639949235717286</v>
       </c>
       <c r="I335" t="n">
         <v>0.9957233235823106</v>
@@ -21243,19 +21243,19 @@
         </is>
       </c>
       <c r="F336" t="n">
-        <v>1.913246891414464</v>
+        <v>1.000000011171361</v>
       </c>
       <c r="G336" t="n">
-        <v>1.42556888959761</v>
+        <v>0.7451045194011684</v>
       </c>
       <c r="H336" t="n">
-        <v>0.942196435416278</v>
+        <v>0.4924594155463793</v>
       </c>
       <c r="I336" t="n">
-        <v>1.00000001117136</v>
+        <v>1.000000011171361</v>
       </c>
       <c r="J336" t="n">
-        <v>0.7451045194011683</v>
+        <v>0.7451045194011684</v>
       </c>
       <c r="K336" t="n">
         <v>0.4924594155463793</v>
@@ -21305,19 +21305,19 @@
         </is>
       </c>
       <c r="F337" t="n">
-        <v>1.540099047626852</v>
+        <v>1.00000001483944</v>
       </c>
       <c r="G337" t="n">
-        <v>0.8022668916599546</v>
+        <v>0.5209190310203518</v>
       </c>
       <c r="H337" t="n">
-        <v>0.6969775362345508</v>
+        <v>0.4525537157180147</v>
       </c>
       <c r="I337" t="n">
         <v>1.00000001483944</v>
       </c>
       <c r="J337" t="n">
-        <v>0.5209190310203519</v>
+        <v>0.5209190310203518</v>
       </c>
       <c r="K337" t="n">
         <v>0.4525537157180147</v>
@@ -21367,16 +21367,16 @@
         </is>
       </c>
       <c r="F338" t="n">
-        <v>1.940945043076884</v>
+        <v>0.9957410011085917</v>
       </c>
       <c r="G338" t="n">
-        <v>1.949246863373847</v>
+        <v>0.9999999897301428</v>
       </c>
       <c r="H338" t="n">
-        <v>0.8070572258730897</v>
+        <v>0.4140354065712515</v>
       </c>
       <c r="I338" t="n">
-        <v>0.9957410011085915</v>
+        <v>0.9957410011085917</v>
       </c>
       <c r="J338" t="n">
         <v>0.9999999897301428</v>
@@ -21429,19 +21429,19 @@
         </is>
       </c>
       <c r="F339" t="n">
-        <v>1.132254820307313</v>
+        <v>0.9999999835406588</v>
       </c>
       <c r="G339" t="n">
-        <v>0.9329141997543835</v>
+        <v>0.8239436632700951</v>
       </c>
       <c r="H339" t="n">
-        <v>1.062536088896845</v>
+        <v>0.9384248601563125</v>
       </c>
       <c r="I339" t="n">
         <v>0.9999999835406588</v>
       </c>
       <c r="J339" t="n">
-        <v>0.8239436632700949</v>
+        <v>0.8239436632700951</v>
       </c>
       <c r="K339" t="n">
         <v>0.9384248601563125</v>
@@ -21491,13 +21491,13 @@
         </is>
       </c>
       <c r="F340" t="n">
-        <v>1.554438336676809</v>
+        <v>0.9999999897660595</v>
       </c>
       <c r="G340" t="n">
-        <v>1.401650141743475</v>
+        <v>0.9017084141115688</v>
       </c>
       <c r="H340" t="n">
-        <v>0.6614383274647412</v>
+        <v>0.4255159597451073</v>
       </c>
       <c r="I340" t="n">
         <v>0.9999999897660595</v>
@@ -21553,13 +21553,13 @@
         </is>
       </c>
       <c r="F341" t="n">
-        <v>1.542903766880594</v>
+        <v>0.9999999908895156</v>
       </c>
       <c r="G341" t="n">
-        <v>1.135771929217836</v>
+        <v>0.73612622073422</v>
       </c>
       <c r="H341" t="n">
-        <v>0.4598886028935589</v>
+        <v>0.2980669362377297</v>
       </c>
       <c r="I341" t="n">
         <v>0.9999999908895156</v>
@@ -21568,7 +21568,7 @@
         <v>0.73612622073422</v>
       </c>
       <c r="K341" t="n">
-        <v>0.2980669362377296</v>
+        <v>0.2980669362377297</v>
       </c>
       <c r="L341" t="n">
         <v>-0.02785913668145091</v>
@@ -21615,22 +21615,22 @@
         </is>
       </c>
       <c r="F342" t="n">
-        <v>1.676886962437775</v>
+        <v>1.000000027597086</v>
       </c>
       <c r="G342" t="n">
-        <v>1.355296813626387</v>
+        <v>0.8082219501893946</v>
       </c>
       <c r="H342" t="n">
-        <v>0.6436909079288035</v>
+        <v>0.3838606537658511</v>
       </c>
       <c r="I342" t="n">
-        <v>1.000000027597085</v>
+        <v>1.000000027597086</v>
       </c>
       <c r="J342" t="n">
         <v>0.8082219501893946</v>
       </c>
       <c r="K342" t="n">
-        <v>0.383860653765851</v>
+        <v>0.3838606537658511</v>
       </c>
       <c r="L342" t="n">
         <v>-0.001225407979302957</v>
@@ -21677,13 +21677,13 @@
         </is>
       </c>
       <c r="F343" t="n">
-        <v>1.862683998987466</v>
+        <v>0.9999999933043476</v>
       </c>
       <c r="G343" t="n">
-        <v>1.107827326792944</v>
+        <v>0.5947478584545309</v>
       </c>
       <c r="H343" t="n">
-        <v>0.7440967162744467</v>
+        <v>0.3994755480246335</v>
       </c>
       <c r="I343" t="n">
         <v>0.9999999933043476</v>
@@ -21739,19 +21739,19 @@
         </is>
       </c>
       <c r="F344" t="n">
-        <v>1.861688230183141</v>
+        <v>0.9999999859908919</v>
       </c>
       <c r="G344" t="n">
-        <v>1.223049307691657</v>
+        <v>0.6569570944956294</v>
       </c>
       <c r="H344" t="n">
-        <v>0.7062159592900639</v>
+        <v>0.3793416845779463</v>
       </c>
       <c r="I344" t="n">
         <v>0.9999999859908919</v>
       </c>
       <c r="J344" t="n">
-        <v>0.6569570944956293</v>
+        <v>0.6569570944956294</v>
       </c>
       <c r="K344" t="n">
         <v>0.3793416845779463</v>
@@ -21801,13 +21801,13 @@
         </is>
       </c>
       <c r="F345" t="n">
-        <v>1.714002507020247</v>
+        <v>1.000000009904657</v>
       </c>
       <c r="G345" t="n">
-        <v>1.305272609941649</v>
+        <v>0.761534838790354</v>
       </c>
       <c r="H345" t="n">
-        <v>0.7403095185283017</v>
+        <v>0.4319185781984791</v>
       </c>
       <c r="I345" t="n">
         <v>1.000000009904657</v>
@@ -21863,22 +21863,22 @@
         </is>
       </c>
       <c r="F346" t="n">
-        <v>1.884831644598022</v>
+        <v>0.9999999881430319</v>
       </c>
       <c r="G346" t="n">
-        <v>1.110547502289307</v>
+        <v>0.5892024851686037</v>
       </c>
       <c r="H346" t="n">
-        <v>0.6594521918683751</v>
+        <v>0.3498732557569686</v>
       </c>
       <c r="I346" t="n">
-        <v>0.9999999881430318</v>
+        <v>0.9999999881430319</v>
       </c>
       <c r="J346" t="n">
         <v>0.5892024851686037</v>
       </c>
       <c r="K346" t="n">
-        <v>0.3498732557569685</v>
+        <v>0.3498732557569686</v>
       </c>
       <c r="L346" t="n">
         <v>0.00939969982001471</v>
@@ -21925,19 +21925,19 @@
         </is>
       </c>
       <c r="F347" t="n">
-        <v>1.810622306780178</v>
+        <v>0.9999999847013332</v>
       </c>
       <c r="G347" t="n">
-        <v>1.263989745657547</v>
+        <v>0.6980968485735363</v>
       </c>
       <c r="H347" t="n">
-        <v>0.7997934845951526</v>
+        <v>0.4417229752248265</v>
       </c>
       <c r="I347" t="n">
         <v>0.9999999847013332</v>
       </c>
       <c r="J347" t="n">
-        <v>0.6980968485735364</v>
+        <v>0.6980968485735363</v>
       </c>
       <c r="K347" t="n">
         <v>0.4417229752248265</v>
@@ -21987,19 +21987,19 @@
         </is>
       </c>
       <c r="F348" t="n">
-        <v>1.738617034760331</v>
+        <v>0.9999999840054867</v>
       </c>
       <c r="G348" t="n">
-        <v>1.207053170173442</v>
+        <v>0.6942605109316706</v>
       </c>
       <c r="H348" t="n">
-        <v>0.9625947127228548</v>
+        <v>0.5536553928101338</v>
       </c>
       <c r="I348" t="n">
         <v>0.9999999840054867</v>
       </c>
       <c r="J348" t="n">
-        <v>0.6942605109316708</v>
+        <v>0.6942605109316706</v>
       </c>
       <c r="K348" t="n">
         <v>0.5536553928101338</v>
@@ -22049,13 +22049,13 @@
         </is>
       </c>
       <c r="F349" t="n">
-        <v>1.842614622502385</v>
+        <v>0.9999999846826717</v>
       </c>
       <c r="G349" t="n">
-        <v>1.209207145236347</v>
+        <v>0.656245267972717</v>
       </c>
       <c r="H349" t="n">
-        <v>0.6698992127632624</v>
+        <v>0.3635590395958281</v>
       </c>
       <c r="I349" t="n">
         <v>0.9999999846826717</v>
@@ -22111,13 +22111,13 @@
         </is>
       </c>
       <c r="F350" t="n">
-        <v>1.824844074828496</v>
+        <v>0.9999999741871171</v>
       </c>
       <c r="G350" t="n">
-        <v>1.585454829602168</v>
+        <v>0.8688165803020811</v>
       </c>
       <c r="H350" t="n">
-        <v>0.6121910087391723</v>
+        <v>0.3354757819482703</v>
       </c>
       <c r="I350" t="n">
         <v>0.9999999741871171</v>
@@ -22173,22 +22173,22 @@
         </is>
       </c>
       <c r="F351" t="n">
-        <v>1.783342045112066</v>
+        <v>1.000000023153012</v>
       </c>
       <c r="G351" t="n">
-        <v>1.555742169800751</v>
+        <v>0.872374545357116</v>
       </c>
       <c r="H351" t="n">
-        <v>0.585030300346246</v>
+        <v>0.3280527790476091</v>
       </c>
       <c r="I351" t="n">
         <v>1.000000023153012</v>
       </c>
       <c r="J351" t="n">
-        <v>0.8723745453571161</v>
+        <v>0.872374545357116</v>
       </c>
       <c r="K351" t="n">
-        <v>0.328052779047609</v>
+        <v>0.3280527790476091</v>
       </c>
       <c r="L351" t="n">
         <v>-0.0004448292876567574</v>
@@ -22235,13 +22235,13 @@
         </is>
       </c>
       <c r="F352" t="n">
-        <v>1.87145309271426</v>
+        <v>1.000000024534708</v>
       </c>
       <c r="G352" t="n">
-        <v>1.067788164781066</v>
+        <v>0.5705663663898043</v>
       </c>
       <c r="H352" t="n">
-        <v>0.8818038909806167</v>
+        <v>0.4711867564559121</v>
       </c>
       <c r="I352" t="n">
         <v>1.000000024534708</v>
@@ -22297,19 +22297,19 @@
         </is>
       </c>
       <c r="F353" t="n">
-        <v>1.922343705569618</v>
+        <v>0.999999986809385</v>
       </c>
       <c r="G353" t="n">
-        <v>1.006997513141471</v>
+        <v>0.5238384254288004</v>
       </c>
       <c r="H353" t="n">
-        <v>0.756547358079812</v>
+        <v>0.3935546728238754</v>
       </c>
       <c r="I353" t="n">
         <v>0.999999986809385</v>
       </c>
       <c r="J353" t="n">
-        <v>0.5238384254288005</v>
+        <v>0.5238384254288004</v>
       </c>
       <c r="K353" t="n">
         <v>0.3935546728238754</v>
@@ -22359,22 +22359,22 @@
         </is>
       </c>
       <c r="F354" t="n">
-        <v>1.700139976094646</v>
+        <v>0.9999999862981861</v>
       </c>
       <c r="G354" t="n">
-        <v>0.9100853810975996</v>
+        <v>0.5353002584636094</v>
       </c>
       <c r="H354" t="n">
-        <v>0.8522108276108038</v>
+        <v>0.5012592068398767</v>
       </c>
       <c r="I354" t="n">
         <v>0.9999999862981861</v>
       </c>
       <c r="J354" t="n">
-        <v>0.5353002584636095</v>
+        <v>0.5353002584636094</v>
       </c>
       <c r="K354" t="n">
-        <v>0.5012592068398768</v>
+        <v>0.5012592068398767</v>
       </c>
       <c r="L354" t="n">
         <v>0.0009140202068599031</v>
@@ -22421,13 +22421,13 @@
         </is>
       </c>
       <c r="F355" t="n">
-        <v>1.771648998612069</v>
+        <v>0.9999999975069549</v>
       </c>
       <c r="G355" t="n">
-        <v>1.306112724236092</v>
+        <v>0.7372299603381476</v>
       </c>
       <c r="H355" t="n">
-        <v>0.7613455044100284</v>
+        <v>0.4297383415724035</v>
       </c>
       <c r="I355" t="n">
         <v>0.9999999975069549</v>
@@ -22436,7 +22436,7 @@
         <v>0.7372299603381476</v>
       </c>
       <c r="K355" t="n">
-        <v>0.4297383415724034</v>
+        <v>0.4297383415724035</v>
       </c>
       <c r="L355" t="n">
         <v>0.0007058015146085567</v>
@@ -22483,22 +22483,22 @@
         </is>
       </c>
       <c r="F356" t="n">
-        <v>1.85941717217493</v>
+        <v>0.9999999849880001</v>
       </c>
       <c r="G356" t="n">
-        <v>1.116334029884121</v>
+        <v>0.6003677011436636</v>
       </c>
       <c r="H356" t="n">
-        <v>0.6679930265413648</v>
+        <v>0.3592486003192672</v>
       </c>
       <c r="I356" t="n">
         <v>0.9999999849880001</v>
       </c>
       <c r="J356" t="n">
-        <v>0.6003677011436637</v>
+        <v>0.6003677011436636</v>
       </c>
       <c r="K356" t="n">
-        <v>0.3592486003192673</v>
+        <v>0.3592486003192672</v>
       </c>
       <c r="L356" t="n">
         <v>0.004153283258549098</v>
@@ -22545,13 +22545,13 @@
         </is>
       </c>
       <c r="F357" t="n">
-        <v>1.602900244533045</v>
+        <v>0.9999999862035747</v>
       </c>
       <c r="G357" t="n">
-        <v>1.328861300873953</v>
+        <v>0.8290355479529793</v>
       </c>
       <c r="H357" t="n">
-        <v>0.9291995107635825</v>
+        <v>0.57969889337352</v>
       </c>
       <c r="I357" t="n">
         <v>0.9999999862035747</v>
@@ -22560,7 +22560,7 @@
         <v>0.8290355479529793</v>
       </c>
       <c r="K357" t="n">
-        <v>0.5796988933735201</v>
+        <v>0.57969889337352</v>
       </c>
       <c r="L357" t="n">
         <v>0.008802211269172999</v>
@@ -22607,16 +22607,16 @@
         </is>
       </c>
       <c r="F358" t="n">
-        <v>1.76181041617396</v>
+        <v>0.9999999967251271</v>
       </c>
       <c r="G358" t="n">
-        <v>1.22418002375148</v>
+        <v>0.6948420831799488</v>
       </c>
       <c r="H358" t="n">
-        <v>0.8416478909712761</v>
+        <v>0.4777176252838561</v>
       </c>
       <c r="I358" t="n">
-        <v>0.9999999967251272</v>
+        <v>0.9999999967251271</v>
       </c>
       <c r="J358" t="n">
         <v>0.6948420831799488</v>
@@ -22669,13 +22669,13 @@
         </is>
       </c>
       <c r="F359" t="n">
-        <v>1.696968205336591</v>
+        <v>1.000000004427909</v>
       </c>
       <c r="G359" t="n">
-        <v>1.164370810891628</v>
+        <v>0.6861476911504092</v>
       </c>
       <c r="H359" t="n">
-        <v>0.7819994669427088</v>
+        <v>0.4608215215500886</v>
       </c>
       <c r="I359" t="n">
         <v>1.000000004427909</v>
@@ -22731,19 +22731,19 @@
         </is>
       </c>
       <c r="F360" t="n">
-        <v>1.724385892145716</v>
+        <v>1.00000002004402</v>
       </c>
       <c r="G360" t="n">
-        <v>1.269629423164374</v>
+        <v>0.7362791904038402</v>
       </c>
       <c r="H360" t="n">
-        <v>0.8689334317549418</v>
+        <v>0.5039089296251519</v>
       </c>
       <c r="I360" t="n">
         <v>1.00000002004402</v>
       </c>
       <c r="J360" t="n">
-        <v>0.73627919040384</v>
+        <v>0.7362791904038402</v>
       </c>
       <c r="K360" t="n">
         <v>0.5039089296251519</v>
@@ -22793,13 +22793,13 @@
         </is>
       </c>
       <c r="F361" t="n">
-        <v>1.818072564593296</v>
+        <v>1.000000003929411</v>
       </c>
       <c r="G361" t="n">
-        <v>1.213080615197425</v>
+        <v>0.6672344347462746</v>
       </c>
       <c r="H361" t="n">
-        <v>0.574282903767845</v>
+        <v>0.3158745790506478</v>
       </c>
       <c r="I361" t="n">
         <v>1.000000003929411</v>
@@ -22808,7 +22808,7 @@
         <v>0.6672344347462746</v>
       </c>
       <c r="K361" t="n">
-        <v>0.3158745790506476</v>
+        <v>0.3158745790506478</v>
       </c>
       <c r="L361" t="n">
         <v>-0.002046749487961156</v>
@@ -22855,13 +22855,13 @@
         </is>
       </c>
       <c r="F362" t="n">
-        <v>1.927271067132933</v>
+        <v>1.000000030427177</v>
       </c>
       <c r="G362" t="n">
-        <v>1.004748211645262</v>
+        <v>0.5213320841845088</v>
       </c>
       <c r="H362" t="n">
-        <v>0.9917583013733547</v>
+        <v>0.5145920303909975</v>
       </c>
       <c r="I362" t="n">
         <v>1.000000030427177</v>
@@ -22870,7 +22870,7 @@
         <v>0.5213320841845088</v>
       </c>
       <c r="K362" t="n">
-        <v>0.5145920303909974</v>
+        <v>0.5145920303909975</v>
       </c>
       <c r="L362" t="n">
         <v>0.003068342848052741</v>
@@ -22917,19 +22917,19 @@
         </is>
       </c>
       <c r="F363" t="n">
-        <v>1.644289545588539</v>
+        <v>1.000000031641477</v>
       </c>
       <c r="G363" t="n">
-        <v>0.8779658724582001</v>
+        <v>0.5339484779878519</v>
       </c>
       <c r="H363" t="n">
-        <v>0.8816164918363892</v>
+        <v>0.5361686584320409</v>
       </c>
       <c r="I363" t="n">
         <v>1.000000031641477</v>
       </c>
       <c r="J363" t="n">
-        <v>0.5339484779878518</v>
+        <v>0.5339484779878519</v>
       </c>
       <c r="K363" t="n">
         <v>0.5361686584320409</v>
@@ -22979,13 +22979,13 @@
         </is>
       </c>
       <c r="F364" t="n">
-        <v>1.646621809092477</v>
+        <v>0.9999999913651242</v>
       </c>
       <c r="G364" t="n">
-        <v>0.6041874299758154</v>
+        <v>0.3669254357147895</v>
       </c>
       <c r="H364" t="n">
-        <v>0.5985743361000537</v>
+        <v>0.3635165814191046</v>
       </c>
       <c r="I364" t="n">
         <v>0.9999999913651242</v>
@@ -23041,13 +23041,13 @@
         </is>
       </c>
       <c r="F365" t="n">
-        <v>1.652723596937032</v>
+        <v>1.000000027917871</v>
       </c>
       <c r="G365" t="n">
-        <v>1.22492373459021</v>
+        <v>0.7411546437998502</v>
       </c>
       <c r="H365" t="n">
-        <v>1.082837745942198</v>
+        <v>0.6551838300000858</v>
       </c>
       <c r="I365" t="n">
         <v>1.000000027917871</v>
